--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution_benchmark\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution_methods\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping_to_gold_standard" sheetId="3" r:id="rId1"/>
-    <sheet name="cell_type_mapping" sheetId="1" r:id="rId2"/>
+    <sheet name="cell_type2methods" sheetId="3" r:id="rId1"/>
+    <sheet name="cell_type2datasets" sheetId="4" r:id="rId2"/>
     <sheet name="extended mapping" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>IKDC</t>
   </si>
@@ -256,7 +256,10 @@
     <t>gold standard</t>
   </si>
   <si>
-    <t>gold_standard</t>
+    <t>single_cell_schelker</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
   </si>
 </sst>
 </file>
@@ -306,8 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,404 +630,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
-    <col min="7" max="7" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="I27" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1035,525 +1003,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1571,258 +1163,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cell_type2methods" sheetId="3" r:id="rId1"/>
-    <sheet name="cell_type2datasets" sheetId="4" r:id="rId2"/>
+    <sheet name="celltype2method" sheetId="3" r:id="rId1"/>
+    <sheet name="celltype2dataset" sheetId="4" r:id="rId2"/>
     <sheet name="extended mapping" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="celltype2method" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>IKDC</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
   </si>
 </sst>
 </file>
@@ -630,26 +633,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -657,25 +660,28 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -683,51 +689,58 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -735,45 +748,51 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,8 +803,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -793,53 +813,60 @@
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -847,55 +874,64 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -903,43 +939,49 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -947,53 +989,56 @@
         <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1005,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>IKDC</t>
   </si>
@@ -115,18 +115,9 @@
     <t>B cells naive</t>
   </si>
   <si>
-    <t>T cells CD4 naïve</t>
-  </si>
-  <si>
-    <t>T cells CD4 memory activated</t>
-  </si>
-  <si>
     <t>T cells regulatory (Tregs)</t>
   </si>
   <si>
-    <t>NK cells activated</t>
-  </si>
-  <si>
     <t>Dendritic cells activated</t>
   </si>
   <si>
@@ -263,6 +254,15 @@
   </si>
   <si>
     <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>Dendritic cells resting</t>
+  </si>
+  <si>
+    <t>T cells CD4 naive</t>
+  </si>
+  <si>
+    <t>NK cells resting</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +654,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>23</v>
@@ -700,15 +700,15 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -723,14 +723,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -742,7 +738,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -758,13 +754,13 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,10 +768,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -786,10 +782,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -810,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
@@ -823,22 +819,22 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -906,7 +902,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -927,7 +923,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -949,47 +945,47 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -997,40 +993,51 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
@@ -1051,7 +1058,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,38 +1068,38 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,15 +1121,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,37 +1163,37 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1246,7 +1253,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1258,7 +1265,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1280,7 +1287,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1314,15 +1321,15 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1330,20 +1337,20 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1355,7 +1362,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1367,7 +1374,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="celltype2method" sheetId="3" r:id="rId1"/>
     <sheet name="celltype2dataset" sheetId="4" r:id="rId2"/>
-    <sheet name="extended mapping" sheetId="2" r:id="rId3"/>
+    <sheet name="available_signatures" sheetId="5" r:id="rId3"/>
+    <sheet name="extended mapping" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="149">
   <si>
     <t>IKDC</t>
   </si>
@@ -70,9 +71,6 @@
     <t>CD8+ T-cells</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>CD8+ Tcm</t>
   </si>
   <si>
@@ -263,13 +261,226 @@
   </si>
   <si>
     <t>NK cells resting</t>
+  </si>
+  <si>
+    <t>MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t>StromaScore</t>
+  </si>
+  <si>
+    <t>ImmuneScore</t>
+  </si>
+  <si>
+    <t>Th2 cells</t>
+  </si>
+  <si>
+    <t>Th1 cells</t>
+  </si>
+  <si>
+    <t>Tgd cells</t>
+  </si>
+  <si>
+    <t>Smooth muscle</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Sebocytes</t>
+  </si>
+  <si>
+    <t>pro B-cells</t>
+  </si>
+  <si>
+    <t>Preadipocytes</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>Pericytes</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>naive B-cells</t>
+  </si>
+  <si>
+    <t>Myocytes</t>
+  </si>
+  <si>
+    <t>mv Endothelial cells</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>Mesangial cells</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Memory B-cells</t>
+  </si>
+  <si>
+    <t>Melanocytes</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>ly Endothelial cells</t>
+  </si>
+  <si>
+    <t>Keratinocytes</t>
+  </si>
+  <si>
+    <t>iDC</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>Hepatocytes</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Epithelial cells</t>
+  </si>
+  <si>
+    <t>Mast cells activated</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Mast cells resting</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t>Chondrocytes</t>
+  </si>
+  <si>
+    <t>cDC</t>
+  </si>
+  <si>
+    <t>CD8+ Tem</t>
+  </si>
+  <si>
+    <t>NK cells activated</t>
+  </si>
+  <si>
+    <t>CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tem</t>
+  </si>
+  <si>
+    <t>T cells gamma delta</t>
+  </si>
+  <si>
+    <t>CD4+ Tcm</t>
+  </si>
+  <si>
+    <t>otherCells</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>T cells follicular helper</t>
+  </si>
+  <si>
+    <t>CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t>CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>B cells memory</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>aDC</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>MCP counter</t>
+  </si>
+  <si>
+    <t>xCell</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>CIBERSORT</t>
+  </si>
+  <si>
+    <t>Schelker et al. (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK </t>
+  </si>
+  <si>
+    <t>NK activated</t>
+  </si>
+  <si>
+    <t>DC activated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +501,19 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,11 +536,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,13 +884,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -672,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -683,16 +913,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -700,15 +930,15 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -723,13 +953,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -738,97 +968,89 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -837,228 +1059,330 @@
         <v>29</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="3"/>
-      <c r="I27" s="3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C5 C11:C43 C7:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$B$2:$B$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$C$2:$C$269</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$D$2:$D$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$E$2:$E$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$F$2:$F$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!A8:A43</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10 B10:B42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!A2:A37</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6 C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!A6:A41</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B9 C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,99 +1392,104 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>65</v>
@@ -1168,40 +1497,1394 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>available_signatures!$H$2:$H$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B7 B22:B30 B9:B20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -1216,7 +2899,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1253,7 +2936,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1265,7 +2948,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1287,7 +2970,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1321,15 +3004,15 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,20 +3020,20 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1362,7 +3045,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1374,7 +3057,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
   <si>
     <t>IKDC</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>DC activated</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
   </si>
 </sst>
 </file>
@@ -1379,107 +1385,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1487,45 +1521,60 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1533,7 +1582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1543,6 +1592,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1550,7 +1600,7 @@
           <x14:formula1>
             <xm:f>available_signatures!$H$2:$H$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7 B22:B30 B9:B20</xm:sqref>
+          <xm:sqref>B2:B7 B22:B30 B9:B20 C9:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="celltype2method" sheetId="3" r:id="rId1"/>
     <sheet name="celltype2dataset" sheetId="4" r:id="rId2"/>
-    <sheet name="available_signatures" sheetId="5" r:id="rId3"/>
-    <sheet name="extended mapping" sheetId="2" r:id="rId4"/>
+    <sheet name="hierarchy" sheetId="6" r:id="rId3"/>
+    <sheet name="available_signatures" sheetId="5" r:id="rId4"/>
+    <sheet name="extended mapping" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="170">
   <si>
     <t>IKDC</t>
   </si>
@@ -480,6 +481,63 @@
   </si>
   <si>
     <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>hoeck</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>Tcell</t>
+  </si>
+  <si>
+    <t>zimmermann</t>
+  </si>
+  <si>
+    <t>CD4 T cells</t>
+  </si>
+  <si>
+    <t>racle</t>
+  </si>
+  <si>
+    <t>parent of</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>other cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Monocyte</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t>Dendritic cell</t>
+  </si>
+  <si>
+    <t>M1 Macrophage</t>
+  </si>
+  <si>
+    <t>M2 Macrophge</t>
   </si>
 </sst>
 </file>
@@ -872,7 +930,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,19 +1443,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1407,8 +1466,17 @@
       <c r="C1" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -1418,8 +1486,17 @@
       <c r="C2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1429,14 +1506,27 @@
       <c r="C3" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1446,8 +1536,17 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
@@ -1457,8 +1556,17 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>146</v>
       </c>
@@ -1468,13 +1576,23 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>148</v>
       </c>
@@ -1484,8 +1602,9 @@
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1495,8 +1614,14 @@
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1506,22 +1631,33 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1531,8 +1667,14 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1684,14 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1553,8 +1701,17 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1564,8 +1721,14 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1573,22 +1736,25 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,6 +1775,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
@@ -2934,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="celltype2method" sheetId="3" r:id="rId1"/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44160" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="183">
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
@@ -148,18 +148,6 @@
     <t>Macrophage M2</t>
   </si>
   <si>
-    <t>endothelial cell</t>
-  </si>
-  <si>
-    <t>cancer associated fibroblast</t>
-  </si>
-  <si>
-    <t>ovarian carcinoma cell</t>
-  </si>
-  <si>
-    <t>melanoma cell</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>CIBERSORT</t>
-  </si>
-  <si>
     <t>B cell plasma</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>TIMER</t>
-  </si>
-  <si>
     <t>aDC</t>
   </si>
   <si>
@@ -442,15 +424,9 @@
     <t>MicroenvironmentScore</t>
   </si>
   <si>
-    <t>xCell</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>MCP counter</t>
-  </si>
-  <si>
     <t>T cells</t>
   </si>
   <si>
@@ -487,9 +463,6 @@
     <t>Dendritic.cells</t>
   </si>
   <si>
-    <t>quanTIseq</t>
-  </si>
-  <si>
     <t>Bcells</t>
   </si>
   <si>
@@ -511,9 +484,6 @@
     <t>otherCells</t>
   </si>
   <si>
-    <t>EPIC</t>
-  </si>
-  <si>
     <t>B cells</t>
   </si>
   <si>
@@ -572,6 +542,39 @@
   </si>
   <si>
     <t>racle</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>xcell</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cell</t>
+  </si>
+  <si>
+    <t>Melanoma cell</t>
   </si>
 </sst>
 </file>
@@ -636,33 +639,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1017,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1095,7 +1092,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1113,13 +1110,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -1263,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -1272,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1328,12 +1325,12 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -1365,7 +1362,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -1384,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,1451 +1396,1694 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>139</v>
+      <c r="D1" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>172</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
+      <c r="A3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
+      <c r="A4" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
+      <c r="A5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>53</v>
+      <c r="A6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>54</v>
+      <c r="A7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>55</v>
+      <c r="A8" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
+      <c r="A12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
+      <c r="A13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>58</v>
+      <c r="A14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>59</v>
+      <c r="A15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
+      <c r="A16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>61</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>62</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>63</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>65</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>66</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>67</v>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="10" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" t="s">
-        <v>13</v>
+      <c r="A101" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" t="s">
-        <v>29</v>
+      <c r="A102" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
+      <c r="A103" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" t="s">
-        <v>32</v>
+      <c r="A104" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" t="s">
-        <v>40</v>
+      <c r="A105" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" t="s">
-        <v>41</v>
+      <c r="A106" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
+      <c r="A107" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" t="s">
-        <v>38</v>
+        <v>175</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" t="s">
-        <v>39</v>
+        <v>175</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" t="s">
-        <v>31</v>
+        <v>175</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" t="s">
-        <v>32</v>
+        <v>175</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
+        <v>175</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>134</v>
+        <v>175</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>173</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C132" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C136" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C139" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>181</v>
-      </c>
-      <c r="B142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B143" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B144" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B145" t="s">
-        <v>120</v>
+      <c r="B145" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
         <v>181</v>
       </c>
-      <c r="B146" t="s">
-        <v>180</v>
-      </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
         <v>6</v>
       </c>
     </row>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44160" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="190">
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
@@ -151,9 +151,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">would they appear as t cell in a flow cytometry panel? </t>
-  </si>
-  <si>
     <t>cell</t>
   </si>
   <si>
@@ -575,6 +572,30 @@
   </si>
   <si>
     <t>Melanoma cell</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do only distinguish M1/M2</t>
+  </si>
+  <si>
+    <t>test_method1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method for unit test. </t>
+  </si>
+  <si>
+    <t>Macrophages.M0</t>
   </si>
 </sst>
 </file>
@@ -984,14 +1005,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
     <col min="4" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="27.140625" style="1" bestFit="1" customWidth="1"/>
@@ -999,13 +1020,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1014,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1062,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1070,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1092,16 +1116,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -1110,13 +1137,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
     </row>
@@ -1149,7 +1179,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1248,7 +1278,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -1260,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -1269,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1279,6 +1309,12 @@
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1325,12 +1361,12 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -1338,7 +1374,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -1354,7 +1390,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -1362,7 +1398,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -1370,7 +1406,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B1048576 B30:B37 B3:B28 B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B1048576 B30:B37 B1 B3:B7 B10:B11 B13:B28">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1381,39 +1417,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1421,10 +1457,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1432,21 +1468,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1454,10 +1490,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1465,10 +1501,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1476,10 +1512,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1487,43 +1523,43 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1531,10 +1567,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1542,10 +1578,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1553,10 +1589,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1564,10 +1600,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1575,10 +1611,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1586,10 +1622,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1597,10 +1633,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1608,10 +1644,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1619,10 +1655,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -1630,10 +1666,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1642,10 +1678,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1653,10 +1689,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>21</v>
@@ -1664,10 +1700,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>22</v>
@@ -1675,21 +1711,21 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>9</v>
@@ -1697,10 +1733,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>14</v>
@@ -1708,10 +1744,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>15</v>
@@ -1719,10 +1755,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
@@ -1730,43 +1766,43 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>24</v>
@@ -1774,10 +1810,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>25</v>
@@ -1785,10 +1821,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>31</v>
@@ -1796,10 +1832,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>37</v>
@@ -1807,10 +1843,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>38</v>
@@ -1818,10 +1854,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>39</v>
@@ -1829,10 +1865,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>35</v>
@@ -1840,10 +1876,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>36</v>
@@ -1851,10 +1887,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>28</v>
@@ -1862,10 +1898,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>27</v>
@@ -1873,10 +1909,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>33</v>
@@ -1884,10 +1920,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>32</v>
@@ -1895,10 +1931,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -1906,10 +1942,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1917,10 +1953,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -1928,7 +1964,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>32</v>
@@ -1939,7 +1975,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>30</v>
@@ -1950,10 +1986,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -1961,42 +1997,42 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2004,10 +2040,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2015,10 +2051,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2026,10 +2062,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2037,34 +2073,34 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2072,66 +2108,66 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
@@ -2139,21 +2175,21 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -2161,85 +2197,85 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -2247,10 +2283,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
@@ -2258,10 +2294,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -2269,10 +2305,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
@@ -2280,50 +2316,50 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -2331,58 +2367,58 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
@@ -2390,10 +2426,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2401,157 +2437,157 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2559,29 +2595,29 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -2589,10 +2625,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -2600,7 +2636,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>29</v>
@@ -2611,10 +2647,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" t="s">
         <v>34</v>
@@ -2622,10 +2658,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
         <v>32</v>
@@ -2633,32 +2669,32 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -2666,10 +2702,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" t="s">
         <v>38</v>
@@ -2677,10 +2713,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
         <v>39</v>
@@ -2688,10 +2724,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -2699,10 +2735,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
         <v>32</v>
@@ -2710,10 +2746,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -2721,10 +2757,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -2732,10 +2768,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -2743,21 +2779,21 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
         <v>34</v>
@@ -2765,10 +2801,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -2776,21 +2812,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
         <v>10</v>
@@ -2798,10 +2834,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -2809,21 +2845,21 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" t="s">
         <v>178</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
         <v>30</v>
@@ -2831,10 +2867,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -2842,18 +2878,18 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -2861,10 +2897,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
@@ -2872,21 +2908,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>11</v>
@@ -2894,51 +2930,51 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
         <v>163</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C151" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
@@ -2946,21 +2982,21 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -2968,21 +3004,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -2990,10 +3026,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -3001,10 +3037,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
@@ -3012,21 +3048,21 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -3034,10 +3070,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -3045,10 +3081,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
@@ -3056,10 +3092,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -3067,10 +3103,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
@@ -3078,13 +3114,151 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" t="s">
+        <v>151</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" t="s">
+        <v>113</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3272,7 @@
           <x14:formula1>
             <xm:f>controlled_vocabulary!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C120 C122:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1292,9 @@
       <c r="B30" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1419,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10875" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="192">
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
@@ -70,9 +70,6 @@
     <t>B cell</t>
   </si>
   <si>
-    <t>T cell CD4+ naïve</t>
-  </si>
-  <si>
     <t>T cell CD4+ memory resting</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>T cells gamma delta</t>
   </si>
   <si>
-    <t>B cell naïve</t>
-  </si>
-  <si>
     <t>B cell memory</t>
   </si>
   <si>
@@ -596,6 +590,18 @@
   </si>
   <si>
     <t>Macrophages.M0</t>
+  </si>
+  <si>
+    <t>T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t>B cell naive</t>
+  </si>
+  <si>
+    <t>T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t>T cell CD8+ memory</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1038,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1067,119 +1073,117 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1188,228 +1192,246 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B1048576 B30:B37 B1 B3:B7 B10:B11 B13:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B1048576 B8:B9 B3:B6 B1 B15:B30 B12:B13 B32:B39">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,57 +1457,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1493,242 +1515,242 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>9</v>
@@ -1736,208 +1758,208 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -1945,10 +1967,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1956,10 +1978,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -1967,75 +1989,75 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2043,32 +2065,32 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -2076,34 +2098,34 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2111,328 +2133,328 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2440,157 +2462,157 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2598,10 +2620,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -2609,18 +2631,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -2628,10 +2650,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -2639,65 +2661,65 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -2705,54 +2727,54 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -2760,10 +2782,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -2771,10 +2793,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -2782,32 +2804,32 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -2815,21 +2837,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
         <v>177</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C140" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
         <v>10</v>
@@ -2837,10 +2859,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -2848,32 +2870,32 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -2881,18 +2903,18 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -2900,10 +2922,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
@@ -2911,21 +2933,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>11</v>
@@ -2933,73 +2955,73 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -3007,21 +3029,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -3029,10 +3051,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -3040,32 +3062,32 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -3073,10 +3095,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -3084,10 +3106,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
@@ -3095,10 +3117,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -3106,10 +3128,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
@@ -3117,10 +3139,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -3128,10 +3150,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -3139,65 +3161,65 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -3205,10 +3227,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
         <v>10</v>
@@ -3216,10 +3238,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -3227,41 +3249,41 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B180" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="C180" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="195">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -592,6 +592,15 @@
   </si>
   <si>
     <t xml:space="preserve">Macrophages.M0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tcell</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
@@ -1191,10 +1200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G183" activeCellId="0" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1226,7 +1235,7 @@
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1237,7 +1246,7 @@
       <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1248,7 +1257,7 @@
       <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1259,7 +1268,7 @@
       <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1270,7 +1279,7 @@
       <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1281,7 +1290,7 @@
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1292,7 +1301,7 @@
       <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1303,7 +1312,7 @@
       <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1314,7 +1323,7 @@
       <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1325,7 +1334,7 @@
       <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1336,7 +1345,7 @@
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1347,7 +1356,7 @@
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1358,7 +1367,7 @@
       <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1369,7 +1378,7 @@
       <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1380,7 +1389,7 @@
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1391,7 +1400,7 @@
       <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1402,7 +1411,7 @@
       <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1413,7 +1422,7 @@
       <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1424,7 +1433,7 @@
       <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1435,7 +1444,7 @@
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1446,7 +1455,7 @@
       <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="5"/>
@@ -1458,7 +1467,7 @@
       <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1711,7 +1720,7 @@
       <c r="B46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1722,7 +1731,7 @@
       <c r="B47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1733,7 +1742,7 @@
       <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1744,7 +1753,7 @@
       <c r="B49" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1755,7 +1764,7 @@
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1766,7 +1775,7 @@
       <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1777,6 +1786,7 @@
       <c r="B52" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
@@ -1785,6 +1795,7 @@
       <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
@@ -1793,6 +1804,7 @@
       <c r="B54" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
@@ -1801,6 +1813,7 @@
       <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
@@ -1809,7 +1822,7 @@
       <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1820,7 +1833,7 @@
       <c r="B57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1831,7 +1844,7 @@
       <c r="B58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1842,7 +1855,7 @@
       <c r="B59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1853,6 +1866,7 @@
       <c r="B60" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
@@ -1861,6 +1875,7 @@
       <c r="B61" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
@@ -1869,6 +1884,7 @@
       <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
@@ -1877,7 +1893,7 @@
       <c r="B63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1888,6 +1904,7 @@
       <c r="B64" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
@@ -1896,6 +1913,7 @@
       <c r="B65" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
@@ -1904,6 +1922,7 @@
       <c r="B66" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
@@ -1912,6 +1931,7 @@
       <c r="B67" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
@@ -1920,6 +1940,7 @@
       <c r="B68" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
@@ -1928,6 +1949,7 @@
       <c r="B69" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
@@ -1936,6 +1958,7 @@
       <c r="B70" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
@@ -1944,7 +1967,7 @@
       <c r="B71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1955,7 +1978,7 @@
       <c r="B72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1966,7 +1989,7 @@
       <c r="B73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1977,6 +2000,7 @@
       <c r="B74" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
@@ -1985,6 +2009,7 @@
       <c r="B75" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
@@ -1993,7 +2018,7 @@
       <c r="B76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2004,6 +2029,7 @@
       <c r="B77" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
@@ -2012,6 +2038,7 @@
       <c r="B78" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
@@ -2020,6 +2047,7 @@
       <c r="B79" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
@@ -2028,6 +2056,7 @@
       <c r="B80" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
@@ -2036,6 +2065,7 @@
       <c r="B81" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
@@ -2044,6 +2074,7 @@
       <c r="B82" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
@@ -2052,7 +2083,7 @@
       <c r="B83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2063,7 +2094,7 @@
       <c r="B84" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2074,7 +2105,7 @@
       <c r="B85" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2085,7 +2116,7 @@
       <c r="B86" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2096,6 +2127,7 @@
       <c r="B87" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
@@ -2104,6 +2136,7 @@
       <c r="B88" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
@@ -2112,6 +2145,7 @@
       <c r="B89" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
@@ -2120,6 +2154,7 @@
       <c r="B90" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
@@ -2128,6 +2163,7 @@
       <c r="B91" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
@@ -2136,7 +2172,7 @@
       <c r="B92" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2147,6 +2183,7 @@
       <c r="B93" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
@@ -2155,6 +2192,7 @@
       <c r="B94" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
@@ -2163,6 +2201,7 @@
       <c r="B95" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
@@ -2171,6 +2210,7 @@
       <c r="B96" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
@@ -2179,6 +2219,7 @@
       <c r="B97" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
@@ -2187,6 +2228,7 @@
       <c r="B98" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
@@ -2195,7 +2237,7 @@
       <c r="B99" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2206,7 +2248,7 @@
       <c r="B100" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2217,6 +2259,7 @@
       <c r="B101" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
@@ -2225,6 +2268,7 @@
       <c r="B102" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
@@ -2233,6 +2277,7 @@
       <c r="B103" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
@@ -2241,6 +2286,7 @@
       <c r="B104" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
@@ -2249,6 +2295,7 @@
       <c r="B105" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
@@ -2257,6 +2304,7 @@
       <c r="B106" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
@@ -2265,6 +2313,7 @@
       <c r="B107" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
@@ -2273,6 +2322,7 @@
       <c r="B108" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
@@ -2281,6 +2331,7 @@
       <c r="B109" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
@@ -2289,6 +2340,7 @@
       <c r="B110" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
@@ -2297,6 +2349,7 @@
       <c r="B111" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
@@ -2305,6 +2358,7 @@
       <c r="B112" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
@@ -2313,6 +2367,7 @@
       <c r="B113" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
@@ -2321,6 +2376,7 @@
       <c r="B114" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
@@ -2329,7 +2385,7 @@
       <c r="B115" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2340,6 +2396,7 @@
       <c r="B116" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
@@ -2348,6 +2405,7 @@
       <c r="B117" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
@@ -2356,6 +2414,7 @@
       <c r="B118" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
@@ -2364,7 +2423,7 @@
       <c r="B119" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2375,7 +2434,7 @@
       <c r="B120" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2394,7 +2453,7 @@
       <c r="B122" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2405,7 +2464,7 @@
       <c r="B123" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2416,7 +2475,7 @@
       <c r="B124" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2427,7 +2486,7 @@
       <c r="B125" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2438,7 +2497,7 @@
       <c r="B126" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2449,7 +2508,7 @@
       <c r="B127" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2460,7 +2519,7 @@
       <c r="B128" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2471,7 +2530,7 @@
       <c r="B129" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2482,7 +2541,7 @@
       <c r="B130" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2493,7 +2552,7 @@
       <c r="B131" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2504,7 +2563,7 @@
       <c r="B132" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2515,7 +2574,7 @@
       <c r="B133" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2526,7 +2585,7 @@
       <c r="B134" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2537,7 +2596,7 @@
       <c r="B135" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2548,7 +2607,7 @@
       <c r="B136" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2559,7 +2618,7 @@
       <c r="B137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2570,7 +2629,7 @@
       <c r="B138" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2581,7 +2640,7 @@
       <c r="B139" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2592,7 +2651,7 @@
       <c r="B140" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2603,7 +2662,7 @@
       <c r="B141" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2614,7 +2673,7 @@
       <c r="B142" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2625,7 +2684,7 @@
       <c r="B143" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2636,7 +2695,7 @@
       <c r="B144" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2647,7 +2706,7 @@
       <c r="B145" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2658,6 +2717,7 @@
       <c r="B146" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
@@ -2666,7 +2726,7 @@
       <c r="B147" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2677,7 +2737,7 @@
       <c r="B148" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2688,7 +2748,7 @@
       <c r="B149" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2710,7 +2770,7 @@
       <c r="B151" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2721,6 +2781,7 @@
       <c r="B152" s="4" t="s">
         <v>172</v>
       </c>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
@@ -2729,7 +2790,7 @@
       <c r="B153" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2740,7 +2801,7 @@
       <c r="B154" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2751,7 +2812,7 @@
       <c r="B155" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2762,7 +2823,7 @@
       <c r="B156" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2773,7 +2834,7 @@
       <c r="B157" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2784,7 +2845,7 @@
       <c r="B158" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2795,7 +2856,7 @@
       <c r="B159" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2806,7 +2867,7 @@
       <c r="B160" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2817,7 +2878,7 @@
       <c r="B161" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2828,7 +2889,7 @@
       <c r="B162" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2839,7 +2900,7 @@
       <c r="B163" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2850,7 +2911,7 @@
       <c r="B164" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2861,7 +2922,7 @@
       <c r="B165" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2872,7 +2933,7 @@
       <c r="B166" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2883,7 +2944,7 @@
       <c r="B167" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2894,7 +2955,7 @@
       <c r="B168" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2905,7 +2966,7 @@
       <c r="B169" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2916,7 +2977,7 @@
       <c r="B170" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2927,7 +2988,7 @@
       <c r="B171" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2938,7 +2999,7 @@
       <c r="B172" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2949,7 +3010,7 @@
       <c r="B173" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2960,7 +3021,7 @@
       <c r="B174" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2971,7 +3032,7 @@
       <c r="B175" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2982,7 +3043,7 @@
       <c r="B176" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2993,7 +3054,7 @@
       <c r="B177" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3004,7 +3065,7 @@
       <c r="B178" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3034,6 +3095,61 @@
       </c>
       <c r="D180" s="5" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3071,12 +3187,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -756,7 +756,7 @@
   </sheetPr>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1202,8 +1202,8 @@
   </sheetPr>
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G183" activeCellId="0" sqref="G183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B185" activeCellId="0" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3124,7 +3124,7 @@
         <v>190</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>25</v>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution_benchmark\immunedeconv\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5413D193-B82C-4539-9C1A-9A2C1867FC31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="mapping" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,622 +27,607 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="195">
-  <si>
-    <t xml:space="preserve">cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="196">
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>lymphoid</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>T cell CD8+</t>
+  </si>
+  <si>
+    <t>T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t>T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t>T cell CD4+</t>
+  </si>
+  <si>
+    <t>T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t>T cell CD4+ naive</t>
   </si>
   <si>
     <t xml:space="preserve">T cell CD4+ memory </t>
   </si>
   <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myleoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytic lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage/Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do only distinguish M1/M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmuneScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroenvironmentScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic lymphocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherCells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schelker_single_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages/Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_method1</t>
+    <t>T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t>T cell follicular helper</t>
+  </si>
+  <si>
+    <t>T cell regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cell gamma delta</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>B cell naive</t>
+  </si>
+  <si>
+    <t>B cell memory</t>
+  </si>
+  <si>
+    <t>B cell plasma</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t>NK cell resting</t>
+  </si>
+  <si>
+    <t>NK cell activated</t>
+  </si>
+  <si>
+    <t>myleoid</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>Eosinophil</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>Mast cell resting</t>
+  </si>
+  <si>
+    <t>Mast cell activated</t>
+  </si>
+  <si>
+    <t>Monocytic lineage</t>
+  </si>
+  <si>
+    <t>Macrophage/Monocyte</t>
+  </si>
+  <si>
+    <t>Monocyte</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>Macrophage M0</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do only distinguish M1/M2</t>
+  </si>
+  <si>
+    <t>Macrophage M1</t>
+  </si>
+  <si>
+    <t>Macrophage M2</t>
+  </si>
+  <si>
+    <t>Dendritic cell</t>
+  </si>
+  <si>
+    <t>Dendritic cell resting</t>
+  </si>
+  <si>
+    <t>Dendritic cell activated</t>
+  </si>
+  <si>
+    <t>other cell</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cell</t>
+  </si>
+  <si>
+    <t>Melanoma cell</t>
+  </si>
+  <si>
+    <t>method_dataset</t>
+  </si>
+  <si>
+    <t>method_cell_type</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t>B cells naive</t>
+  </si>
+  <si>
+    <t>B cells memory</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>T cells CD8</t>
+  </si>
+  <si>
+    <t>T cells CD4 naive</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t>T cells follicular helper</t>
+  </si>
+  <si>
+    <t>T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cells gamma delta</t>
+  </si>
+  <si>
+    <t>NK cells resting</t>
+  </si>
+  <si>
+    <t>NK cells activated</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Macrophages M0</t>
+  </si>
+  <si>
+    <t>Macrophages M1</t>
+  </si>
+  <si>
+    <t>Macrophages M2</t>
+  </si>
+  <si>
+    <t>Dendritic cells resting</t>
+  </si>
+  <si>
+    <t>Dendritic cells activated</t>
+  </si>
+  <si>
+    <t>Mast cells resting</t>
+  </si>
+  <si>
+    <t>Mast cells activated</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>B_cell</t>
+  </si>
+  <si>
+    <t>T_cell.CD4</t>
+  </si>
+  <si>
+    <t>T_cell.CD8</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>xcell</t>
+  </si>
+  <si>
+    <t>aDC</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>B-cells</t>
+  </si>
+  <si>
+    <t>CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tcm</t>
+  </si>
+  <si>
+    <t>CD4+ Tem</t>
+  </si>
+  <si>
+    <t>CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ Tcm</t>
+  </si>
+  <si>
+    <t>CD8+ Tem</t>
+  </si>
+  <si>
+    <t>cDC</t>
+  </si>
+  <si>
+    <t>Chondrocytes</t>
+  </si>
+  <si>
+    <t>Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial cells</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Hepatocytes</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>iDC</t>
+  </si>
+  <si>
+    <t>Keratinocytes</t>
+  </si>
+  <si>
+    <t>ly Endothelial cells</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>Melanocytes</t>
+  </si>
+  <si>
+    <t>Memory B-cells</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Mesangial cells</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>mv Endothelial cells</t>
+  </si>
+  <si>
+    <t>Myocytes</t>
+  </si>
+  <si>
+    <t>naive B-cells</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>NK cells</t>
+  </si>
+  <si>
+    <t>NKT</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Pericytes</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Preadipocytes</t>
+  </si>
+  <si>
+    <t>pro B-cells</t>
+  </si>
+  <si>
+    <t>Sebocytes</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Smooth muscle</t>
+  </si>
+  <si>
+    <t>Tgd cells</t>
+  </si>
+  <si>
+    <t>Th1 cells</t>
+  </si>
+  <si>
+    <t>Th2 cells</t>
+  </si>
+  <si>
+    <t>Tregs</t>
+  </si>
+  <si>
+    <t>ImmuneScore</t>
+  </si>
+  <si>
+    <t>StromaScore</t>
+  </si>
+  <si>
+    <t>MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t>B lineage</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>B.cells</t>
+  </si>
+  <si>
+    <t>Macrophages.M1</t>
+  </si>
+  <si>
+    <t>Macrophages.M2</t>
+  </si>
+  <si>
+    <t>NK.cells</t>
+  </si>
+  <si>
+    <t>T.cells.CD4</t>
+  </si>
+  <si>
+    <t>T.cells.CD8</t>
+  </si>
+  <si>
+    <t>Dendritic.cells</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>Bcells</t>
+  </si>
+  <si>
+    <t>CAFs</t>
+  </si>
+  <si>
+    <t>CD4_Tcells</t>
+  </si>
+  <si>
+    <t>CD8_Tcells</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>NKcells</t>
+  </si>
+  <si>
+    <t>otherCells</t>
+  </si>
+  <si>
+    <t>schelker_single_cell</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>CD8+ T cells</t>
+  </si>
+  <si>
+    <t>Melanoma cells</t>
+  </si>
+  <si>
+    <t>CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Macrophages/Monocytes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>regulatory T cells</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblasts</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>Natural killer cells</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cells</t>
+  </si>
+  <si>
+    <t>hoek</t>
+  </si>
+  <si>
+    <t>Tcell</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>racle</t>
+  </si>
+  <si>
+    <t>CD4 T cells</t>
+  </si>
+  <si>
+    <t>cancer cells</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>test_method1</t>
   </si>
   <si>
     <t xml:space="preserve">method for unit test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Macrophages.M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcell</t>
+    <t>Macrophages.M0</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>CD4+ Tcell</t>
+  </si>
+  <si>
+    <t>CD8+ Tcell</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
   <si>
-    <t xml:space="preserve">mapping contains the mapping between methods/datasets</t>
+    <t>mapping contains the mapping between methods/datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -647,7 +637,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -655,7 +645,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -679,7 +669,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -687,90 +677,349 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.14"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -816,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -824,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -832,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -840,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -848,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -856,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -872,7 +1121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -881,20 +1130,20 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C14" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -903,15 +1152,15 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C16" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -919,7 +1168,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -928,7 +1177,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -937,7 +1186,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -946,7 +1195,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -955,7 +1204,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -964,7 +1213,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -973,7 +1222,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -982,7 +1231,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -991,7 +1240,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1249,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1258,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1267,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1276,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1285,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1294,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1054,43 +1303,46 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C32" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C34" s="1" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1098,7 +1350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1122,7 +1374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1130,7 +1382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1138,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1146,7 +1398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1154,7 +1406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1162,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1170,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1180,41 +1432,33 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1 B3:B6 B8:B9 B12:B13 B15:B30 B32:B39 B41:B45" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B41:B45 B32:B39 B15:B30 B12:B13 B8:B9 B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B185" activeCellId="0" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -1228,8 +1472,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1239,7 +1483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1250,7 +1494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -1261,7 +1505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1272,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -1283,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1294,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1305,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1316,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -1327,7 +1571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1338,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1349,7 +1593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -1371,7 +1615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -1382,7 +1626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -1393,7 +1637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1404,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -1415,7 +1659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1426,7 +1670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +1704,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -1471,7 +1715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -1482,7 +1726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -1493,7 +1737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -1504,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1515,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -1526,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -1537,7 +1781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -1548,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -1559,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -1570,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1581,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -1592,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -1603,7 +1847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -1614,7 +1858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -1625,7 +1869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -1636,7 +1880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
@@ -1647,7 +1891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -1658,7 +1902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -1669,7 +1913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -1680,7 +1924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -1702,7 +1946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -1713,8 +1957,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1724,7 +1968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>78</v>
       </c>
@@ -1735,7 +1979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>78</v>
       </c>
@@ -1746,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>78</v>
       </c>
@@ -1757,7 +2001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>78</v>
       </c>
@@ -1768,7 +2012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
@@ -1779,8 +2023,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1788,7 +2032,7 @@
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>83</v>
       </c>
@@ -1797,7 +2041,7 @@
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>83</v>
       </c>
@@ -1806,7 +2050,7 @@
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>83</v>
       </c>
@@ -1815,7 +2059,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>83</v>
       </c>
@@ -1826,7 +2070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>83</v>
       </c>
@@ -1837,7 +2081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>83</v>
       </c>
@@ -1848,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>83</v>
       </c>
@@ -1859,7 +2103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>83</v>
       </c>
@@ -1868,7 +2112,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +2121,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>83</v>
       </c>
@@ -1886,7 +2130,7 @@
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>83</v>
       </c>
@@ -1897,7 +2141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>83</v>
       </c>
@@ -1906,7 +2150,7 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
@@ -1915,7 +2159,7 @@
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +2168,7 @@
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>83</v>
       </c>
@@ -1933,7 +2177,7 @@
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>83</v>
       </c>
@@ -1942,7 +2186,7 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>83</v>
       </c>
@@ -1951,7 +2195,7 @@
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>83</v>
       </c>
@@ -1960,7 +2204,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>83</v>
       </c>
@@ -1971,7 +2215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
@@ -1982,7 +2226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>83</v>
       </c>
@@ -1993,7 +2237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
@@ -2002,7 +2246,7 @@
       </c>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>83</v>
       </c>
@@ -2011,7 +2255,7 @@
       </c>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>83</v>
       </c>
@@ -2022,7 +2266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>83</v>
       </c>
@@ -2031,7 +2275,7 @@
       </c>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>83</v>
       </c>
@@ -2040,7 +2284,7 @@
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
@@ -2049,7 +2293,7 @@
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>83</v>
       </c>
@@ -2058,7 +2302,7 @@
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>83</v>
       </c>
@@ -2067,7 +2311,7 @@
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
@@ -2076,7 +2320,7 @@
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
@@ -2087,7 +2331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
@@ -2098,7 +2342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -2109,7 +2353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>83</v>
       </c>
@@ -2120,7 +2364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -2129,7 +2373,7 @@
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>83</v>
       </c>
@@ -2138,7 +2382,7 @@
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>83</v>
       </c>
@@ -2147,7 +2391,7 @@
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>83</v>
       </c>
@@ -2156,7 +2400,7 @@
       </c>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>83</v>
       </c>
@@ -2165,7 +2409,7 @@
       </c>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>83</v>
       </c>
@@ -2176,7 +2420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>83</v>
       </c>
@@ -2185,7 +2429,7 @@
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>83</v>
       </c>
@@ -2194,7 +2438,7 @@
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>83</v>
       </c>
@@ -2203,7 +2447,7 @@
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>83</v>
       </c>
@@ -2212,7 +2456,7 @@
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>83</v>
       </c>
@@ -2221,7 +2465,7 @@
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -2230,7 +2474,7 @@
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
@@ -2241,7 +2485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>83</v>
       </c>
@@ -2252,7 +2496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>83</v>
       </c>
@@ -2261,7 +2505,7 @@
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>83</v>
       </c>
@@ -2270,7 +2514,7 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>83</v>
       </c>
@@ -2279,7 +2523,7 @@
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>83</v>
       </c>
@@ -2288,7 +2532,7 @@
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>83</v>
       </c>
@@ -2297,7 +2541,7 @@
       </c>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>83</v>
       </c>
@@ -2306,7 +2550,7 @@
       </c>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>83</v>
       </c>
@@ -2315,7 +2559,7 @@
       </c>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>83</v>
       </c>
@@ -2324,7 +2568,7 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>83</v>
       </c>
@@ -2333,7 +2577,7 @@
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>83</v>
       </c>
@@ -2342,7 +2586,7 @@
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>83</v>
       </c>
@@ -2351,7 +2595,7 @@
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>83</v>
       </c>
@@ -2360,7 +2604,7 @@
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>83</v>
       </c>
@@ -2369,7 +2613,7 @@
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>83</v>
       </c>
@@ -2378,7 +2622,7 @@
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>83</v>
       </c>
@@ -2389,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>83</v>
       </c>
@@ -2398,7 +2642,7 @@
       </c>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>83</v>
       </c>
@@ -2407,7 +2651,7 @@
       </c>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>83</v>
       </c>
@@ -2416,8 +2660,8 @@
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>144</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -2427,7 +2671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>144</v>
       </c>
@@ -2438,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>144</v>
       </c>
@@ -2446,7 +2690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>144</v>
       </c>
@@ -2457,7 +2701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>144</v>
       </c>
@@ -2468,7 +2712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>144</v>
       </c>
@@ -2476,10 +2720,13 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>144</v>
       </c>
@@ -2490,7 +2737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>144</v>
       </c>
@@ -2501,7 +2748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>144</v>
       </c>
@@ -2512,7 +2759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>144</v>
       </c>
@@ -2523,8 +2770,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>150</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -2534,7 +2781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>150</v>
       </c>
@@ -2545,7 +2792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>150</v>
       </c>
@@ -2556,7 +2803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>150</v>
       </c>
@@ -2567,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>150</v>
       </c>
@@ -2578,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>150</v>
       </c>
@@ -2589,7 +2836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>150</v>
       </c>
@@ -2600,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>150</v>
       </c>
@@ -2611,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>150</v>
       </c>
@@ -2622,7 +2869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>150</v>
       </c>
@@ -2633,8 +2880,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>158</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -2644,7 +2891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>158</v>
       </c>
@@ -2655,7 +2902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>158</v>
       </c>
@@ -2666,7 +2913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>158</v>
       </c>
@@ -2677,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>158</v>
       </c>
@@ -2688,7 +2935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>158</v>
       </c>
@@ -2699,509 +2946,516 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>166</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>178</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B160" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>178</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B161" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>178</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B162" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B163" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>178</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B164" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>182</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>183</v>
+      <c r="B165" t="s">
+        <v>167</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>146</v>
+      <c r="B166" t="s">
+        <v>183</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>126</v>
+      <c r="B167" t="s">
+        <v>146</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B169" t="s">
         <v>184</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>185</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B170" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>69</v>
+      <c r="B171" t="s">
+        <v>175</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>70</v>
+      <c r="B172" t="s">
+        <v>69</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>67</v>
+      <c r="B173" t="s">
+        <v>70</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>76</v>
+      <c r="B174" t="s">
+        <v>67</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>126</v>
+      <c r="B175" t="s">
+        <v>76</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>186</v>
+      <c r="B176" t="s">
+        <v>126</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>58</v>
+      <c r="B177" t="s">
+        <v>186</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
         <v>140</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D181" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B182" t="s">
         <v>191</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C182" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>190</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B183" t="s">
         <v>192</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C183" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>190</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B184" t="s">
         <v>25</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C184" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B185" t="s">
         <v>37</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C185" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B186" t="s">
         <v>36</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C186" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C120 C122:C180" type="list">
-      <formula1>controlled_vocabulary!$A:$A</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>controlled_vocabulary!$A:$A</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C1:C120 C122:C181</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution_benchmark\immunedeconv\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution\benchmark_pipeline\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5413D193-B82C-4539-9C1A-9A2C1867FC31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D80353C-9992-4558-BDB8-BC7B8E3A0FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1311,6 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="O32" s="2"/>
@@ -1431,7 +1430,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B41:B45 B32:B39 B15:B30 B12:B13 B8:B9 B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
@@ -1446,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\immune_deconvolution\benchmark_pipeline\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D80353C-9992-4558-BDB8-BC7B8E3A0FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{710AABC1-3A34-4ADD-8A2C-42B0B05C99FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="196">
   <si>
     <t>cell_type</t>
   </si>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1443,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2719,7 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
         <v>195</v>
@@ -2730,10 +2730,13 @@
         <v>144</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,10 +2744,10 @@
         <v>144</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,10 +2755,10 @@
         <v>144</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,32 +2766,32 @@
         <v>144</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,10 +2799,10 @@
         <v>150</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,10 +2810,10 @@
         <v>150</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,10 +2821,10 @@
         <v>150</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,10 +2832,10 @@
         <v>150</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,10 +2843,10 @@
         <v>150</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,10 +2854,10 @@
         <v>150</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,10 +2865,10 @@
         <v>150</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,32 +2876,32 @@
         <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>158</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,10 +2909,10 @@
         <v>158</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,10 +2920,10 @@
         <v>158</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,10 +2931,10 @@
         <v>158</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,10 +2942,10 @@
         <v>158</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,10 +2953,10 @@
         <v>158</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +2964,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,30 +2975,30 @@
         <v>158</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>166</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,10 +3006,10 @@
         <v>166</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3014,10 +3017,10 @@
         <v>166</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,10 +3028,10 @@
         <v>166</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,30 +3039,30 @@
         <v>166</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3070,10 @@
         <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3081,10 @@
         <v>166</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3092,10 @@
         <v>166</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,21 +3103,21 @@
         <v>166</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>178</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3125,10 @@
         <v>178</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3136,10 @@
         <v>178</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3147,10 @@
         <v>178</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,32 +3158,32 @@
         <v>178</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>182</v>
-      </c>
-      <c r="B165" t="s">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" t="s">
         <v>182</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +3191,10 @@
         <v>182</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +3202,10 @@
         <v>182</v>
       </c>
       <c r="B168" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,32 +3213,32 @@
         <v>182</v>
       </c>
       <c r="B169" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" t="s">
         <v>184</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>185</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C171" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B171" t="s">
-        <v>175</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,10 +3246,10 @@
         <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,10 +3257,10 @@
         <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,10 +3268,10 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,10 +3279,10 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3287,10 +3290,10 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,10 +3301,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3309,10 +3312,10 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,24 +3323,21 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>140</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D180" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,24 +3345,27 @@
         <v>187</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D182" s="5" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" t="s">
-        <v>191</v>
-      </c>
-      <c r="C182" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,10 +3373,10 @@
         <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,10 +3384,10 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,10 +3395,10 @@
         <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,9 +3406,20 @@
         <v>190</v>
       </c>
       <c r="B186" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
         <v>36</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3422,7 +3436,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C1:C120 C122:C181</xm:sqref>
+          <xm:sqref>C1:C120 C122:C182</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="223">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -33,13 +33,16 @@
     <t xml:space="preserve">optional</t>
   </si>
   <si>
-    <t xml:space="preserve">description</t>
+    <t xml:space="preserve">comment</t>
   </si>
   <si>
     <t xml:space="preserve">cell</t>
   </si>
   <si>
-    <t xml:space="preserve">root</t>
+    <t xml:space="preserve">root2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root is a protected entity in the data.tree library</t>
   </si>
   <si>
     <t xml:space="preserve">score</t>
@@ -247,9 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
   </si>
   <si>
     <t xml:space="preserve">cibersort</t>
@@ -841,90 +841,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2590200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>-25200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Ellipse 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590200" y="-25200"/>
-          <a:ext cx="2415960" cy="225360"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19800">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2285640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>-25200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Ellipse 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4050720" y="-25200"/>
-          <a:ext cx="2835000" cy="225360"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19800">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -932,8 +848,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,77 +884,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -1046,7 +966,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1054,10 +974,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
@@ -1065,34 +985,34 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>1</v>
@@ -1101,19 +1021,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
@@ -1121,53 +1041,53 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -1177,10 +1097,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -1190,55 +1110,55 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
@@ -1247,10 +1167,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
@@ -1259,177 +1179,177 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>1</v>
@@ -1437,18 +1357,18 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>1</v>
@@ -2476,10 +2396,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>1</v>
@@ -2487,34 +2407,34 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -2523,42 +2443,42 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
@@ -2566,10 +2486,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>1</v>
@@ -2577,10 +2497,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1</v>
@@ -2588,10 +2508,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>1</v>
@@ -2619,7 +2539,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2630,7 +2549,7 @@
   </sheetPr>
   <dimension ref="A1:F242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
     </sheetView>
   </sheetViews>
@@ -2644,16 +2563,16 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2666,7 +2585,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2680,7 +2599,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2694,7 +2613,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2708,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2722,7 +2641,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2736,7 +2655,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2750,7 +2669,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2764,7 +2683,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2778,7 +2697,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2792,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2806,7 +2725,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2820,7 +2739,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2834,7 +2753,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2848,7 +2767,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2862,7 +2781,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2876,7 +2795,7 @@
         <v>92</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2890,7 +2809,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2904,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2918,7 +2837,7 @@
         <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2932,7 +2851,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2946,7 +2865,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2960,7 +2879,7 @@
         <v>98</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2974,7 +2893,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2988,7 +2907,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -3002,7 +2921,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3016,7 +2935,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3030,7 +2949,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3044,7 +2963,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -3058,7 +2977,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3072,7 +2991,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3086,7 +3005,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3100,7 +3019,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3114,7 +3033,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3128,7 +3047,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3142,7 +3061,7 @@
         <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3156,7 +3075,7 @@
         <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3170,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3184,7 +3103,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3198,7 +3117,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3212,7 +3131,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3226,7 +3145,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3240,7 +3159,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3254,7 +3173,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3268,7 +3187,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3282,7 +3201,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3296,7 +3215,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3310,7 +3229,7 @@
         <v>103</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3321,10 +3240,10 @@
         <v>100</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3335,10 +3254,10 @@
         <v>100</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3352,7 +3271,7 @@
         <v>104</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3366,7 +3285,7 @@
         <v>106</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3422,7 +3341,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3436,7 +3355,7 @@
         <v>112</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3450,7 +3369,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3464,7 +3383,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3478,7 +3397,7 @@
         <v>115</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3492,7 +3411,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3506,7 +3425,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3520,7 +3439,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3534,7 +3453,7 @@
         <v>119</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3548,7 +3467,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3590,7 +3509,7 @@
         <v>124</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3604,7 +3523,7 @@
         <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3618,7 +3537,7 @@
         <v>126</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3632,7 +3551,7 @@
         <v>104</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3646,7 +3565,7 @@
         <v>127</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3660,7 +3579,7 @@
         <v>97</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3702,7 +3621,7 @@
         <v>130</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3716,7 +3635,7 @@
         <v>131</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3744,7 +3663,7 @@
         <v>133</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3800,7 +3719,7 @@
         <v>138</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3814,7 +3733,7 @@
         <v>91</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3828,7 +3747,7 @@
         <v>92</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3842,7 +3761,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3884,7 +3803,7 @@
         <v>142</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3926,7 +3845,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3996,7 +3915,7 @@
         <v>149</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4024,7 +3943,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4038,7 +3957,7 @@
         <v>151</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4052,7 +3971,7 @@
         <v>152</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4080,7 +3999,7 @@
         <v>154</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4108,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4206,7 +4125,7 @@
         <v>163</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4220,7 +4139,7 @@
         <v>164</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4234,7 +4153,7 @@
         <v>165</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4248,7 +4167,7 @@
         <v>166</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4262,7 +4181,7 @@
         <v>167</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4276,7 +4195,7 @@
         <v>168</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4290,7 +4209,7 @@
         <v>169</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4304,7 +4223,7 @@
         <v>171</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4318,7 +4237,7 @@
         <v>172</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4332,7 +4251,7 @@
         <v>173</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4346,7 +4265,7 @@
         <v>151</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4360,7 +4279,7 @@
         <v>174</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4371,10 +4290,10 @@
         <v>170</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>175</v>
@@ -4387,10 +4306,10 @@
         <v>170</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>175</v>
@@ -4406,7 +4325,7 @@
         <v>176</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4420,7 +4339,7 @@
         <v>98</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4434,7 +4353,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4448,7 +4367,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4462,7 +4381,7 @@
         <v>178</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4476,7 +4395,7 @@
         <v>179</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4490,7 +4409,7 @@
         <v>180</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4504,7 +4423,7 @@
         <v>89</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4518,7 +4437,7 @@
         <v>98</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4532,7 +4451,7 @@
         <v>181</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4546,7 +4465,7 @@
         <v>182</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4560,7 +4479,7 @@
         <v>183</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4574,7 +4493,7 @@
         <v>166</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4588,7 +4507,7 @@
         <v>184</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4602,7 +4521,7 @@
         <v>186</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4616,7 +4535,7 @@
         <v>187</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4630,7 +4549,7 @@
         <v>188</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4644,7 +4563,7 @@
         <v>189</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4658,7 +4577,7 @@
         <v>190</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4672,7 +4591,7 @@
         <v>138</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4686,7 +4605,7 @@
         <v>89</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4700,7 +4619,7 @@
         <v>191</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4714,7 +4633,7 @@
         <v>98</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4742,7 +4661,7 @@
         <v>195</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4756,7 +4675,7 @@
         <v>196</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4770,7 +4689,7 @@
         <v>197</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4784,7 +4703,7 @@
         <v>198</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4798,7 +4717,7 @@
         <v>199</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4824,7 +4743,7 @@
         <v>201</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4838,7 +4757,7 @@
         <v>202</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4852,7 +4771,7 @@
         <v>203</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4866,7 +4785,7 @@
         <v>127</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4880,7 +4799,7 @@
         <v>204</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4894,7 +4813,7 @@
         <v>205</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4908,7 +4827,7 @@
         <v>207</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4922,7 +4841,7 @@
         <v>208</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4936,7 +4855,7 @@
         <v>104</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4950,7 +4869,7 @@
         <v>209</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4964,7 +4883,7 @@
         <v>186</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4978,7 +4897,7 @@
         <v>195</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4992,7 +4911,7 @@
         <v>211</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5006,7 +4925,7 @@
         <v>172</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5020,7 +4939,7 @@
         <v>151</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -5034,7 +4953,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -5048,7 +4967,7 @@
         <v>195</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -5062,7 +4981,7 @@
         <v>203</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -5076,7 +4995,7 @@
         <v>91</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -5090,7 +5009,7 @@
         <v>92</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -5104,7 +5023,7 @@
         <v>89</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -5118,7 +5037,7 @@
         <v>98</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -5132,7 +5051,7 @@
         <v>151</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -5146,7 +5065,7 @@
         <v>214</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -5160,7 +5079,7 @@
         <v>80</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -5174,7 +5093,7 @@
         <v>166</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -5188,7 +5107,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>216</v>
@@ -5204,7 +5123,7 @@
         <v>217</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>216</v>
@@ -5220,7 +5139,7 @@
         <v>219</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -5234,7 +5153,7 @@
         <v>220</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -5245,10 +5164,10 @@
         <v>218</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -5259,10 +5178,10 @@
         <v>218</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -5273,10 +5192,10 @@
         <v>218</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -5717,7 +5636,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1188" type="list">
-      <formula1>controlled_vocabulary!$A$2:$A$9999</formula1>
+      <formula1>controlled_vocabulary!$A$4:$A$9999</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5728,7 +5647,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -841,18 +841,134 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2590200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Ellipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590200" y="-25200"/>
+          <a:ext cx="2416320" cy="225360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19800">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2590200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Ellipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590200" y="149760"/>
+          <a:ext cx="2416320" cy="225720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19800">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2590200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590200" y="325080"/>
+          <a:ext cx="2416320" cy="225720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19800">
+          <a:solidFill>
+            <a:srgbClr val="ff0000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.15"/>
@@ -2473,7 +2589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -2484,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -2495,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -2506,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -2517,17 +2633,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1 B4:B6 B9:B12 B14:B16 B18 B20:B27 B33:B43 B48:B50 B52 B55 B59:B60 B62" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1066" type="list">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2539,6 +2647,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="225">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -246,6 +246,9 @@
     <t xml:space="preserve">T cell CD8+ effector memory</t>
   </si>
   <si>
+    <t xml:space="preserve">uncharacterized cell</t>
+  </si>
+  <si>
     <t xml:space="preserve">method_dataset</t>
   </si>
   <si>
@@ -577,6 +580,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dendritic.cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">epic</t>
@@ -848,23 +854,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2590200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>-25200</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Ellipse 1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590200" y="-25200"/>
-          <a:ext cx="2416320" cy="225360"/>
+          <a:off x="2590200" y="149760"/>
+          <a:ext cx="2415600" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -877,6 +883,12 @@
           <a:round/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -884,24 +896,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2590200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Ellipse 1"/>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590200" y="149760"/>
-          <a:ext cx="2416320" cy="225720"/>
+          <a:off x="2590200" y="325080"/>
+          <a:ext cx="2415600" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -914,43 +926,12 @@
           <a:round/>
         </a:ln>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2590200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590200" y="325080"/>
-          <a:ext cx="2416320" cy="225720"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19800">
-          <a:solidFill>
-            <a:srgbClr val="ff0000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -962,10 +943,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ66"/>
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2633,6 +2614,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1066" type="list">
@@ -2656,10 +2645,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D150" activeCellId="0" sqref="D150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B140" activeCellId="0" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2672,10 +2661,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2688,10 +2677,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -2702,10 +2691,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -2716,10 +2705,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -2730,10 +2719,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -2744,10 +2733,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>64</v>
@@ -2758,10 +2747,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>67</v>
@@ -2772,10 +2761,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>66</v>
@@ -2786,10 +2775,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>65</v>
@@ -2800,10 +2789,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>62</v>
@@ -2814,10 +2803,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>56</v>
@@ -2828,10 +2817,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>47</v>
@@ -2842,10 +2831,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>46</v>
@@ -2856,10 +2845,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
@@ -2870,10 +2859,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>26</v>
@@ -2884,10 +2873,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -2898,10 +2887,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>30</v>
@@ -2912,10 +2901,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>43</v>
@@ -2926,10 +2915,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>41</v>
@@ -2940,10 +2929,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>33</v>
@@ -2954,10 +2943,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>35</v>
@@ -2968,10 +2957,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>44</v>
@@ -2982,10 +2971,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>45</v>
@@ -2996,10 +2985,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -3010,10 +2999,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>8</v>
@@ -3024,10 +3013,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -3038,10 +3027,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>55</v>
@@ -3052,10 +3041,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>64</v>
@@ -3066,10 +3055,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>67</v>
@@ -3080,10 +3069,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>66</v>
@@ -3094,10 +3083,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>65</v>
@@ -3108,10 +3097,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>62</v>
@@ -3122,10 +3111,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>56</v>
@@ -3136,10 +3125,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>47</v>
@@ -3150,10 +3139,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>46</v>
@@ -3164,10 +3153,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>32</v>
@@ -3178,10 +3167,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>26</v>
@@ -3192,10 +3181,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>29</v>
@@ -3206,10 +3195,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>30</v>
@@ -3220,10 +3209,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>43</v>
@@ -3234,10 +3223,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>41</v>
@@ -3248,10 +3237,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>33</v>
@@ -3262,10 +3251,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>35</v>
@@ -3276,10 +3265,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>44</v>
@@ -3290,10 +3279,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>45</v>
@@ -3304,10 +3293,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
@@ -3318,10 +3307,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>54</v>
@@ -3332,10 +3321,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>55</v>
@@ -3346,7 +3335,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>45</v>
@@ -3360,7 +3349,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>27</v>
@@ -3374,10 +3363,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>37</v>
@@ -3388,10 +3377,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>41</v>
@@ -3402,52 +3391,52 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
@@ -3458,10 +3447,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>63</v>
@@ -3472,10 +3461,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>64</v>
@@ -3486,10 +3475,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>59</v>
@@ -3500,10 +3489,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>70</v>
@@ -3514,10 +3503,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>71</v>
@@ -3528,10 +3517,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>69</v>
@@ -3542,10 +3531,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>55</v>
@@ -3556,10 +3545,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>72</v>
@@ -3570,10 +3559,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>73</v>
@@ -3584,38 +3573,38 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -3626,10 +3615,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>22</v>
@@ -3640,10 +3629,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>39</v>
@@ -3654,10 +3643,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>37</v>
@@ -3668,10 +3657,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>49</v>
@@ -3682,10 +3671,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>44</v>
@@ -3696,38 +3685,38 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>48</v>
@@ -3738,10 +3727,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>40</v>
@@ -3752,24 +3741,24 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>19</v>
@@ -3780,52 +3769,52 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>27</v>
@@ -3836,10 +3825,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>29</v>
@@ -3850,10 +3839,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>30</v>
@@ -3864,10 +3853,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>34</v>
@@ -3878,38 +3867,38 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>8</v>
@@ -3920,38 +3909,38 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>32</v>
@@ -3962,66 +3951,66 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>10</v>
@@ -4032,24 +4021,24 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>45</v>
@@ -4060,10 +4049,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>23</v>
@@ -4074,10 +4063,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>58</v>
@@ -4088,24 +4077,24 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>24</v>
@@ -4116,24 +4105,24 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>11</v>
@@ -4144,94 +4133,94 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>56</v>
@@ -4242,10 +4231,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>60</v>
@@ -4256,10 +4245,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>61</v>
@@ -4270,10 +4259,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>62</v>
@@ -4284,10 +4273,10 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>51</v>
@@ -4298,10 +4287,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>53</v>
@@ -4312,10 +4301,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>52</v>
@@ -4326,10 +4315,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>25</v>
@@ -4340,10 +4329,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>55</v>
@@ -4354,10 +4343,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>50</v>
@@ -4368,10 +4357,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>23</v>
@@ -4382,10 +4371,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>9</v>
@@ -4396,7 +4385,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>36</v>
@@ -4405,14 +4394,14 @@
         <v>32</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>36</v>
@@ -4421,17 +4410,17 @@
         <v>31</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>37</v>
@@ -4442,10 +4431,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>45</v>
@@ -4456,10 +4445,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>49</v>
@@ -4470,10 +4459,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>48</v>
@@ -4484,10 +4473,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>9</v>
@@ -4498,10 +4487,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>29</v>
@@ -4512,10 +4501,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>30</v>
@@ -4526,10 +4515,10 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>32</v>
@@ -4540,10 +4529,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>45</v>
@@ -4554,10 +4543,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>23</v>
@@ -4568,10 +4557,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>59</v>
@@ -4582,10 +4571,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>55</v>
@@ -4596,10 +4585,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>62</v>
@@ -4610,10 +4599,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>37</v>
@@ -4624,13 +4613,13 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>186</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4638,13 +4627,13 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4652,13 +4641,13 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4666,13 +4655,13 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4680,13 +4669,13 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4694,13 +4683,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4708,13 +4697,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4722,13 +4711,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4736,13 +4725,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4750,41 +4739,43 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="C150" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4792,13 +4783,13 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4806,13 +4797,13 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4820,13 +4811,13 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4834,39 +4825,39 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C155" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4874,13 +4865,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4888,13 +4879,13 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4902,13 +4893,13 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4916,13 +4907,13 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4930,13 +4921,13 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4944,13 +4935,13 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4958,13 +4949,13 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4972,13 +4963,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4986,13 +4977,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5000,10 +4991,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>9</v>
@@ -5014,13 +5005,13 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5028,13 +5019,13 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5042,13 +5033,13 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -5056,13 +5047,13 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -5070,13 +5061,13 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -5084,13 +5075,13 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -5098,13 +5089,13 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -5112,13 +5103,13 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -5126,13 +5117,13 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -5140,13 +5131,13 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -5154,13 +5145,13 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -5168,13 +5159,13 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -5182,13 +5173,13 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -5196,13 +5187,13 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -5213,56 +5204,56 @@
         <v>215</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D184" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -5270,13 +5261,13 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -5284,13 +5275,13 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -5298,22 +5289,28 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
+      <c r="A189" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -5742,9 +5739,17 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1188" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1189" type="list">
       <formula1>controlled_vocabulary!$A$4:$A$9999</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5777,12 +5782,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="224">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Class-switched memory B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cell</t>
   </si>
   <si>
     <t xml:space="preserve">Melanoma cell</t>
@@ -851,16 +848,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2590200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -870,7 +867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2590200" y="149760"/>
-          <a:ext cx="2415600" cy="225000"/>
+          <a:ext cx="1399320" cy="224640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -894,14 +891,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2590200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
@@ -912,8 +909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590200" y="325080"/>
-          <a:ext cx="2415600" cy="225000"/>
+          <a:off x="2590200" y="325440"/>
+          <a:ext cx="1399320" cy="224640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -943,20 +940,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ67"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,21 +1025,24 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1066,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1077,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,34 +1085,35 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O17" s="2"/>
     </row>
@@ -1121,8 +1122,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1133,8 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+        <v>19</v>
+      </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,23 +1142,23 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="O21" s="2"/>
     </row>
@@ -1166,25 +1167,29 @@
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
+      <c r="C23" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="O23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -1197,38 +1202,34 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="O25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="O26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="O27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -1237,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O29" s="2"/>
     </row>
@@ -1246,7 +1247,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="O30" s="2"/>
     </row>
@@ -1255,7 +1259,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
@@ -1267,25 +1271,28 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="O32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O33" s="2"/>
     </row>
@@ -1294,40 +1301,33 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1335,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1343,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,23 +1351,23 @@
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1375,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1407,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,7 +1415,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,22 +1423,25 @@
         <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,10 +1449,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,1049 +1457,1049 @@
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
+      <c r="V52" s="0"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="0"/>
+      <c r="Y52" s="0"/>
+      <c r="Z52" s="0"/>
+      <c r="AA52" s="0"/>
+      <c r="AB52" s="0"/>
+      <c r="AC52" s="0"/>
+      <c r="AD52" s="0"/>
+      <c r="AE52" s="0"/>
+      <c r="AF52" s="0"/>
+      <c r="AG52" s="0"/>
+      <c r="AH52" s="0"/>
+      <c r="AI52" s="0"/>
+      <c r="AJ52" s="0"/>
+      <c r="AK52" s="0"/>
+      <c r="AL52" s="0"/>
+      <c r="AM52" s="0"/>
+      <c r="AN52" s="0"/>
+      <c r="AO52" s="0"/>
+      <c r="AP52" s="0"/>
+      <c r="AQ52" s="0"/>
+      <c r="AR52" s="0"/>
+      <c r="AS52" s="0"/>
+      <c r="AT52" s="0"/>
+      <c r="AU52" s="0"/>
+      <c r="AV52" s="0"/>
+      <c r="AW52" s="0"/>
+      <c r="AX52" s="0"/>
+      <c r="AY52" s="0"/>
+      <c r="AZ52" s="0"/>
+      <c r="BA52" s="0"/>
+      <c r="BB52" s="0"/>
+      <c r="BC52" s="0"/>
+      <c r="BD52" s="0"/>
+      <c r="BE52" s="0"/>
+      <c r="BF52" s="0"/>
+      <c r="BG52" s="0"/>
+      <c r="BH52" s="0"/>
+      <c r="BI52" s="0"/>
+      <c r="BJ52" s="0"/>
+      <c r="BK52" s="0"/>
+      <c r="BL52" s="0"/>
+      <c r="BM52" s="0"/>
+      <c r="BN52" s="0"/>
+      <c r="BO52" s="0"/>
+      <c r="BP52" s="0"/>
+      <c r="BQ52" s="0"/>
+      <c r="BR52" s="0"/>
+      <c r="BS52" s="0"/>
+      <c r="BT52" s="0"/>
+      <c r="BU52" s="0"/>
+      <c r="BV52" s="0"/>
+      <c r="BW52" s="0"/>
+      <c r="BX52" s="0"/>
+      <c r="BY52" s="0"/>
+      <c r="BZ52" s="0"/>
+      <c r="CA52" s="0"/>
+      <c r="CB52" s="0"/>
+      <c r="CC52" s="0"/>
+      <c r="CD52" s="0"/>
+      <c r="CE52" s="0"/>
+      <c r="CF52" s="0"/>
+      <c r="CG52" s="0"/>
+      <c r="CH52" s="0"/>
+      <c r="CI52" s="0"/>
+      <c r="CJ52" s="0"/>
+      <c r="CK52" s="0"/>
+      <c r="CL52" s="0"/>
+      <c r="CM52" s="0"/>
+      <c r="CN52" s="0"/>
+      <c r="CO52" s="0"/>
+      <c r="CP52" s="0"/>
+      <c r="CQ52" s="0"/>
+      <c r="CR52" s="0"/>
+      <c r="CS52" s="0"/>
+      <c r="CT52" s="0"/>
+      <c r="CU52" s="0"/>
+      <c r="CV52" s="0"/>
+      <c r="CW52" s="0"/>
+      <c r="CX52" s="0"/>
+      <c r="CY52" s="0"/>
+      <c r="CZ52" s="0"/>
+      <c r="DA52" s="0"/>
+      <c r="DB52" s="0"/>
+      <c r="DC52" s="0"/>
+      <c r="DD52" s="0"/>
+      <c r="DE52" s="0"/>
+      <c r="DF52" s="0"/>
+      <c r="DG52" s="0"/>
+      <c r="DH52" s="0"/>
+      <c r="DI52" s="0"/>
+      <c r="DJ52" s="0"/>
+      <c r="DK52" s="0"/>
+      <c r="DL52" s="0"/>
+      <c r="DM52" s="0"/>
+      <c r="DN52" s="0"/>
+      <c r="DO52" s="0"/>
+      <c r="DP52" s="0"/>
+      <c r="DQ52" s="0"/>
+      <c r="DR52" s="0"/>
+      <c r="DS52" s="0"/>
+      <c r="DT52" s="0"/>
+      <c r="DU52" s="0"/>
+      <c r="DV52" s="0"/>
+      <c r="DW52" s="0"/>
+      <c r="DX52" s="0"/>
+      <c r="DY52" s="0"/>
+      <c r="DZ52" s="0"/>
+      <c r="EA52" s="0"/>
+      <c r="EB52" s="0"/>
+      <c r="EC52" s="0"/>
+      <c r="ED52" s="0"/>
+      <c r="EE52" s="0"/>
+      <c r="EF52" s="0"/>
+      <c r="EG52" s="0"/>
+      <c r="EH52" s="0"/>
+      <c r="EI52" s="0"/>
+      <c r="EJ52" s="0"/>
+      <c r="EK52" s="0"/>
+      <c r="EL52" s="0"/>
+      <c r="EM52" s="0"/>
+      <c r="EN52" s="0"/>
+      <c r="EO52" s="0"/>
+      <c r="EP52" s="0"/>
+      <c r="EQ52" s="0"/>
+      <c r="ER52" s="0"/>
+      <c r="ES52" s="0"/>
+      <c r="ET52" s="0"/>
+      <c r="EU52" s="0"/>
+      <c r="EV52" s="0"/>
+      <c r="EW52" s="0"/>
+      <c r="EX52" s="0"/>
+      <c r="EY52" s="0"/>
+      <c r="EZ52" s="0"/>
+      <c r="FA52" s="0"/>
+      <c r="FB52" s="0"/>
+      <c r="FC52" s="0"/>
+      <c r="FD52" s="0"/>
+      <c r="FE52" s="0"/>
+      <c r="FF52" s="0"/>
+      <c r="FG52" s="0"/>
+      <c r="FH52" s="0"/>
+      <c r="FI52" s="0"/>
+      <c r="FJ52" s="0"/>
+      <c r="FK52" s="0"/>
+      <c r="FL52" s="0"/>
+      <c r="FM52" s="0"/>
+      <c r="FN52" s="0"/>
+      <c r="FO52" s="0"/>
+      <c r="FP52" s="0"/>
+      <c r="FQ52" s="0"/>
+      <c r="FR52" s="0"/>
+      <c r="FS52" s="0"/>
+      <c r="FT52" s="0"/>
+      <c r="FU52" s="0"/>
+      <c r="FV52" s="0"/>
+      <c r="FW52" s="0"/>
+      <c r="FX52" s="0"/>
+      <c r="FY52" s="0"/>
+      <c r="FZ52" s="0"/>
+      <c r="GA52" s="0"/>
+      <c r="GB52" s="0"/>
+      <c r="GC52" s="0"/>
+      <c r="GD52" s="0"/>
+      <c r="GE52" s="0"/>
+      <c r="GF52" s="0"/>
+      <c r="GG52" s="0"/>
+      <c r="GH52" s="0"/>
+      <c r="GI52" s="0"/>
+      <c r="GJ52" s="0"/>
+      <c r="GK52" s="0"/>
+      <c r="GL52" s="0"/>
+      <c r="GM52" s="0"/>
+      <c r="GN52" s="0"/>
+      <c r="GO52" s="0"/>
+      <c r="GP52" s="0"/>
+      <c r="GQ52" s="0"/>
+      <c r="GR52" s="0"/>
+      <c r="GS52" s="0"/>
+      <c r="GT52" s="0"/>
+      <c r="GU52" s="0"/>
+      <c r="GV52" s="0"/>
+      <c r="GW52" s="0"/>
+      <c r="GX52" s="0"/>
+      <c r="GY52" s="0"/>
+      <c r="GZ52" s="0"/>
+      <c r="HA52" s="0"/>
+      <c r="HB52" s="0"/>
+      <c r="HC52" s="0"/>
+      <c r="HD52" s="0"/>
+      <c r="HE52" s="0"/>
+      <c r="HF52" s="0"/>
+      <c r="HG52" s="0"/>
+      <c r="HH52" s="0"/>
+      <c r="HI52" s="0"/>
+      <c r="HJ52" s="0"/>
+      <c r="HK52" s="0"/>
+      <c r="HL52" s="0"/>
+      <c r="HM52" s="0"/>
+      <c r="HN52" s="0"/>
+      <c r="HO52" s="0"/>
+      <c r="HP52" s="0"/>
+      <c r="HQ52" s="0"/>
+      <c r="HR52" s="0"/>
+      <c r="HS52" s="0"/>
+      <c r="HT52" s="0"/>
+      <c r="HU52" s="0"/>
+      <c r="HV52" s="0"/>
+      <c r="HW52" s="0"/>
+      <c r="HX52" s="0"/>
+      <c r="HY52" s="0"/>
+      <c r="HZ52" s="0"/>
+      <c r="IA52" s="0"/>
+      <c r="IB52" s="0"/>
+      <c r="IC52" s="0"/>
+      <c r="ID52" s="0"/>
+      <c r="IE52" s="0"/>
+      <c r="IF52" s="0"/>
+      <c r="IG52" s="0"/>
+      <c r="IH52" s="0"/>
+      <c r="II52" s="0"/>
+      <c r="IJ52" s="0"/>
+      <c r="IK52" s="0"/>
+      <c r="IL52" s="0"/>
+      <c r="IM52" s="0"/>
+      <c r="IN52" s="0"/>
+      <c r="IO52" s="0"/>
+      <c r="IP52" s="0"/>
+      <c r="IQ52" s="0"/>
+      <c r="IR52" s="0"/>
+      <c r="IS52" s="0"/>
+      <c r="IT52" s="0"/>
+      <c r="IU52" s="0"/>
+      <c r="IV52" s="0"/>
+      <c r="IW52" s="0"/>
+      <c r="IX52" s="0"/>
+      <c r="IY52" s="0"/>
+      <c r="IZ52" s="0"/>
+      <c r="JA52" s="0"/>
+      <c r="JB52" s="0"/>
+      <c r="JC52" s="0"/>
+      <c r="JD52" s="0"/>
+      <c r="JE52" s="0"/>
+      <c r="JF52" s="0"/>
+      <c r="JG52" s="0"/>
+      <c r="JH52" s="0"/>
+      <c r="JI52" s="0"/>
+      <c r="JJ52" s="0"/>
+      <c r="JK52" s="0"/>
+      <c r="JL52" s="0"/>
+      <c r="JM52" s="0"/>
+      <c r="JN52" s="0"/>
+      <c r="JO52" s="0"/>
+      <c r="JP52" s="0"/>
+      <c r="JQ52" s="0"/>
+      <c r="JR52" s="0"/>
+      <c r="JS52" s="0"/>
+      <c r="JT52" s="0"/>
+      <c r="JU52" s="0"/>
+      <c r="JV52" s="0"/>
+      <c r="JW52" s="0"/>
+      <c r="JX52" s="0"/>
+      <c r="JY52" s="0"/>
+      <c r="JZ52" s="0"/>
+      <c r="KA52" s="0"/>
+      <c r="KB52" s="0"/>
+      <c r="KC52" s="0"/>
+      <c r="KD52" s="0"/>
+      <c r="KE52" s="0"/>
+      <c r="KF52" s="0"/>
+      <c r="KG52" s="0"/>
+      <c r="KH52" s="0"/>
+      <c r="KI52" s="0"/>
+      <c r="KJ52" s="0"/>
+      <c r="KK52" s="0"/>
+      <c r="KL52" s="0"/>
+      <c r="KM52" s="0"/>
+      <c r="KN52" s="0"/>
+      <c r="KO52" s="0"/>
+      <c r="KP52" s="0"/>
+      <c r="KQ52" s="0"/>
+      <c r="KR52" s="0"/>
+      <c r="KS52" s="0"/>
+      <c r="KT52" s="0"/>
+      <c r="KU52" s="0"/>
+      <c r="KV52" s="0"/>
+      <c r="KW52" s="0"/>
+      <c r="KX52" s="0"/>
+      <c r="KY52" s="0"/>
+      <c r="KZ52" s="0"/>
+      <c r="LA52" s="0"/>
+      <c r="LB52" s="0"/>
+      <c r="LC52" s="0"/>
+      <c r="LD52" s="0"/>
+      <c r="LE52" s="0"/>
+      <c r="LF52" s="0"/>
+      <c r="LG52" s="0"/>
+      <c r="LH52" s="0"/>
+      <c r="LI52" s="0"/>
+      <c r="LJ52" s="0"/>
+      <c r="LK52" s="0"/>
+      <c r="LL52" s="0"/>
+      <c r="LM52" s="0"/>
+      <c r="LN52" s="0"/>
+      <c r="LO52" s="0"/>
+      <c r="LP52" s="0"/>
+      <c r="LQ52" s="0"/>
+      <c r="LR52" s="0"/>
+      <c r="LS52" s="0"/>
+      <c r="LT52" s="0"/>
+      <c r="LU52" s="0"/>
+      <c r="LV52" s="0"/>
+      <c r="LW52" s="0"/>
+      <c r="LX52" s="0"/>
+      <c r="LY52" s="0"/>
+      <c r="LZ52" s="0"/>
+      <c r="MA52" s="0"/>
+      <c r="MB52" s="0"/>
+      <c r="MC52" s="0"/>
+      <c r="MD52" s="0"/>
+      <c r="ME52" s="0"/>
+      <c r="MF52" s="0"/>
+      <c r="MG52" s="0"/>
+      <c r="MH52" s="0"/>
+      <c r="MI52" s="0"/>
+      <c r="MJ52" s="0"/>
+      <c r="MK52" s="0"/>
+      <c r="ML52" s="0"/>
+      <c r="MM52" s="0"/>
+      <c r="MN52" s="0"/>
+      <c r="MO52" s="0"/>
+      <c r="MP52" s="0"/>
+      <c r="MQ52" s="0"/>
+      <c r="MR52" s="0"/>
+      <c r="MS52" s="0"/>
+      <c r="MT52" s="0"/>
+      <c r="MU52" s="0"/>
+      <c r="MV52" s="0"/>
+      <c r="MW52" s="0"/>
+      <c r="MX52" s="0"/>
+      <c r="MY52" s="0"/>
+      <c r="MZ52" s="0"/>
+      <c r="NA52" s="0"/>
+      <c r="NB52" s="0"/>
+      <c r="NC52" s="0"/>
+      <c r="ND52" s="0"/>
+      <c r="NE52" s="0"/>
+      <c r="NF52" s="0"/>
+      <c r="NG52" s="0"/>
+      <c r="NH52" s="0"/>
+      <c r="NI52" s="0"/>
+      <c r="NJ52" s="0"/>
+      <c r="NK52" s="0"/>
+      <c r="NL52" s="0"/>
+      <c r="NM52" s="0"/>
+      <c r="NN52" s="0"/>
+      <c r="NO52" s="0"/>
+      <c r="NP52" s="0"/>
+      <c r="NQ52" s="0"/>
+      <c r="NR52" s="0"/>
+      <c r="NS52" s="0"/>
+      <c r="NT52" s="0"/>
+      <c r="NU52" s="0"/>
+      <c r="NV52" s="0"/>
+      <c r="NW52" s="0"/>
+      <c r="NX52" s="0"/>
+      <c r="NY52" s="0"/>
+      <c r="NZ52" s="0"/>
+      <c r="OA52" s="0"/>
+      <c r="OB52" s="0"/>
+      <c r="OC52" s="0"/>
+      <c r="OD52" s="0"/>
+      <c r="OE52" s="0"/>
+      <c r="OF52" s="0"/>
+      <c r="OG52" s="0"/>
+      <c r="OH52" s="0"/>
+      <c r="OI52" s="0"/>
+      <c r="OJ52" s="0"/>
+      <c r="OK52" s="0"/>
+      <c r="OL52" s="0"/>
+      <c r="OM52" s="0"/>
+      <c r="ON52" s="0"/>
+      <c r="OO52" s="0"/>
+      <c r="OP52" s="0"/>
+      <c r="OQ52" s="0"/>
+      <c r="OR52" s="0"/>
+      <c r="OS52" s="0"/>
+      <c r="OT52" s="0"/>
+      <c r="OU52" s="0"/>
+      <c r="OV52" s="0"/>
+      <c r="OW52" s="0"/>
+      <c r="OX52" s="0"/>
+      <c r="OY52" s="0"/>
+      <c r="OZ52" s="0"/>
+      <c r="PA52" s="0"/>
+      <c r="PB52" s="0"/>
+      <c r="PC52" s="0"/>
+      <c r="PD52" s="0"/>
+      <c r="PE52" s="0"/>
+      <c r="PF52" s="0"/>
+      <c r="PG52" s="0"/>
+      <c r="PH52" s="0"/>
+      <c r="PI52" s="0"/>
+      <c r="PJ52" s="0"/>
+      <c r="PK52" s="0"/>
+      <c r="PL52" s="0"/>
+      <c r="PM52" s="0"/>
+      <c r="PN52" s="0"/>
+      <c r="PO52" s="0"/>
+      <c r="PP52" s="0"/>
+      <c r="PQ52" s="0"/>
+      <c r="PR52" s="0"/>
+      <c r="PS52" s="0"/>
+      <c r="PT52" s="0"/>
+      <c r="PU52" s="0"/>
+      <c r="PV52" s="0"/>
+      <c r="PW52" s="0"/>
+      <c r="PX52" s="0"/>
+      <c r="PY52" s="0"/>
+      <c r="PZ52" s="0"/>
+      <c r="QA52" s="0"/>
+      <c r="QB52" s="0"/>
+      <c r="QC52" s="0"/>
+      <c r="QD52" s="0"/>
+      <c r="QE52" s="0"/>
+      <c r="QF52" s="0"/>
+      <c r="QG52" s="0"/>
+      <c r="QH52" s="0"/>
+      <c r="QI52" s="0"/>
+      <c r="QJ52" s="0"/>
+      <c r="QK52" s="0"/>
+      <c r="QL52" s="0"/>
+      <c r="QM52" s="0"/>
+      <c r="QN52" s="0"/>
+      <c r="QO52" s="0"/>
+      <c r="QP52" s="0"/>
+      <c r="QQ52" s="0"/>
+      <c r="QR52" s="0"/>
+      <c r="QS52" s="0"/>
+      <c r="QT52" s="0"/>
+      <c r="QU52" s="0"/>
+      <c r="QV52" s="0"/>
+      <c r="QW52" s="0"/>
+      <c r="QX52" s="0"/>
+      <c r="QY52" s="0"/>
+      <c r="QZ52" s="0"/>
+      <c r="RA52" s="0"/>
+      <c r="RB52" s="0"/>
+      <c r="RC52" s="0"/>
+      <c r="RD52" s="0"/>
+      <c r="RE52" s="0"/>
+      <c r="RF52" s="0"/>
+      <c r="RG52" s="0"/>
+      <c r="RH52" s="0"/>
+      <c r="RI52" s="0"/>
+      <c r="RJ52" s="0"/>
+      <c r="RK52" s="0"/>
+      <c r="RL52" s="0"/>
+      <c r="RM52" s="0"/>
+      <c r="RN52" s="0"/>
+      <c r="RO52" s="0"/>
+      <c r="RP52" s="0"/>
+      <c r="RQ52" s="0"/>
+      <c r="RR52" s="0"/>
+      <c r="RS52" s="0"/>
+      <c r="RT52" s="0"/>
+      <c r="RU52" s="0"/>
+      <c r="RV52" s="0"/>
+      <c r="RW52" s="0"/>
+      <c r="RX52" s="0"/>
+      <c r="RY52" s="0"/>
+      <c r="RZ52" s="0"/>
+      <c r="SA52" s="0"/>
+      <c r="SB52" s="0"/>
+      <c r="SC52" s="0"/>
+      <c r="SD52" s="0"/>
+      <c r="SE52" s="0"/>
+      <c r="SF52" s="0"/>
+      <c r="SG52" s="0"/>
+      <c r="SH52" s="0"/>
+      <c r="SI52" s="0"/>
+      <c r="SJ52" s="0"/>
+      <c r="SK52" s="0"/>
+      <c r="SL52" s="0"/>
+      <c r="SM52" s="0"/>
+      <c r="SN52" s="0"/>
+      <c r="SO52" s="0"/>
+      <c r="SP52" s="0"/>
+      <c r="SQ52" s="0"/>
+      <c r="SR52" s="0"/>
+      <c r="SS52" s="0"/>
+      <c r="ST52" s="0"/>
+      <c r="SU52" s="0"/>
+      <c r="SV52" s="0"/>
+      <c r="SW52" s="0"/>
+      <c r="SX52" s="0"/>
+      <c r="SY52" s="0"/>
+      <c r="SZ52" s="0"/>
+      <c r="TA52" s="0"/>
+      <c r="TB52" s="0"/>
+      <c r="TC52" s="0"/>
+      <c r="TD52" s="0"/>
+      <c r="TE52" s="0"/>
+      <c r="TF52" s="0"/>
+      <c r="TG52" s="0"/>
+      <c r="TH52" s="0"/>
+      <c r="TI52" s="0"/>
+      <c r="TJ52" s="0"/>
+      <c r="TK52" s="0"/>
+      <c r="TL52" s="0"/>
+      <c r="TM52" s="0"/>
+      <c r="TN52" s="0"/>
+      <c r="TO52" s="0"/>
+      <c r="TP52" s="0"/>
+      <c r="TQ52" s="0"/>
+      <c r="TR52" s="0"/>
+      <c r="TS52" s="0"/>
+      <c r="TT52" s="0"/>
+      <c r="TU52" s="0"/>
+      <c r="TV52" s="0"/>
+      <c r="TW52" s="0"/>
+      <c r="TX52" s="0"/>
+      <c r="TY52" s="0"/>
+      <c r="TZ52" s="0"/>
+      <c r="UA52" s="0"/>
+      <c r="UB52" s="0"/>
+      <c r="UC52" s="0"/>
+      <c r="UD52" s="0"/>
+      <c r="UE52" s="0"/>
+      <c r="UF52" s="0"/>
+      <c r="UG52" s="0"/>
+      <c r="UH52" s="0"/>
+      <c r="UI52" s="0"/>
+      <c r="UJ52" s="0"/>
+      <c r="UK52" s="0"/>
+      <c r="UL52" s="0"/>
+      <c r="UM52" s="0"/>
+      <c r="UN52" s="0"/>
+      <c r="UO52" s="0"/>
+      <c r="UP52" s="0"/>
+      <c r="UQ52" s="0"/>
+      <c r="UR52" s="0"/>
+      <c r="US52" s="0"/>
+      <c r="UT52" s="0"/>
+      <c r="UU52" s="0"/>
+      <c r="UV52" s="0"/>
+      <c r="UW52" s="0"/>
+      <c r="UX52" s="0"/>
+      <c r="UY52" s="0"/>
+      <c r="UZ52" s="0"/>
+      <c r="VA52" s="0"/>
+      <c r="VB52" s="0"/>
+      <c r="VC52" s="0"/>
+      <c r="VD52" s="0"/>
+      <c r="VE52" s="0"/>
+      <c r="VF52" s="0"/>
+      <c r="VG52" s="0"/>
+      <c r="VH52" s="0"/>
+      <c r="VI52" s="0"/>
+      <c r="VJ52" s="0"/>
+      <c r="VK52" s="0"/>
+      <c r="VL52" s="0"/>
+      <c r="VM52" s="0"/>
+      <c r="VN52" s="0"/>
+      <c r="VO52" s="0"/>
+      <c r="VP52" s="0"/>
+      <c r="VQ52" s="0"/>
+      <c r="VR52" s="0"/>
+      <c r="VS52" s="0"/>
+      <c r="VT52" s="0"/>
+      <c r="VU52" s="0"/>
+      <c r="VV52" s="0"/>
+      <c r="VW52" s="0"/>
+      <c r="VX52" s="0"/>
+      <c r="VY52" s="0"/>
+      <c r="VZ52" s="0"/>
+      <c r="WA52" s="0"/>
+      <c r="WB52" s="0"/>
+      <c r="WC52" s="0"/>
+      <c r="WD52" s="0"/>
+      <c r="WE52" s="0"/>
+      <c r="WF52" s="0"/>
+      <c r="WG52" s="0"/>
+      <c r="WH52" s="0"/>
+      <c r="WI52" s="0"/>
+      <c r="WJ52" s="0"/>
+      <c r="WK52" s="0"/>
+      <c r="WL52" s="0"/>
+      <c r="WM52" s="0"/>
+      <c r="WN52" s="0"/>
+      <c r="WO52" s="0"/>
+      <c r="WP52" s="0"/>
+      <c r="WQ52" s="0"/>
+      <c r="WR52" s="0"/>
+      <c r="WS52" s="0"/>
+      <c r="WT52" s="0"/>
+      <c r="WU52" s="0"/>
+      <c r="WV52" s="0"/>
+      <c r="WW52" s="0"/>
+      <c r="WX52" s="0"/>
+      <c r="WY52" s="0"/>
+      <c r="WZ52" s="0"/>
+      <c r="XA52" s="0"/>
+      <c r="XB52" s="0"/>
+      <c r="XC52" s="0"/>
+      <c r="XD52" s="0"/>
+      <c r="XE52" s="0"/>
+      <c r="XF52" s="0"/>
+      <c r="XG52" s="0"/>
+      <c r="XH52" s="0"/>
+      <c r="XI52" s="0"/>
+      <c r="XJ52" s="0"/>
+      <c r="XK52" s="0"/>
+      <c r="XL52" s="0"/>
+      <c r="XM52" s="0"/>
+      <c r="XN52" s="0"/>
+      <c r="XO52" s="0"/>
+      <c r="XP52" s="0"/>
+      <c r="XQ52" s="0"/>
+      <c r="XR52" s="0"/>
+      <c r="XS52" s="0"/>
+      <c r="XT52" s="0"/>
+      <c r="XU52" s="0"/>
+      <c r="XV52" s="0"/>
+      <c r="XW52" s="0"/>
+      <c r="XX52" s="0"/>
+      <c r="XY52" s="0"/>
+      <c r="XZ52" s="0"/>
+      <c r="YA52" s="0"/>
+      <c r="YB52" s="0"/>
+      <c r="YC52" s="0"/>
+      <c r="YD52" s="0"/>
+      <c r="YE52" s="0"/>
+      <c r="YF52" s="0"/>
+      <c r="YG52" s="0"/>
+      <c r="YH52" s="0"/>
+      <c r="YI52" s="0"/>
+      <c r="YJ52" s="0"/>
+      <c r="YK52" s="0"/>
+      <c r="YL52" s="0"/>
+      <c r="YM52" s="0"/>
+      <c r="YN52" s="0"/>
+      <c r="YO52" s="0"/>
+      <c r="YP52" s="0"/>
+      <c r="YQ52" s="0"/>
+      <c r="YR52" s="0"/>
+      <c r="YS52" s="0"/>
+      <c r="YT52" s="0"/>
+      <c r="YU52" s="0"/>
+      <c r="YV52" s="0"/>
+      <c r="YW52" s="0"/>
+      <c r="YX52" s="0"/>
+      <c r="YY52" s="0"/>
+      <c r="YZ52" s="0"/>
+      <c r="ZA52" s="0"/>
+      <c r="ZB52" s="0"/>
+      <c r="ZC52" s="0"/>
+      <c r="ZD52" s="0"/>
+      <c r="ZE52" s="0"/>
+      <c r="ZF52" s="0"/>
+      <c r="ZG52" s="0"/>
+      <c r="ZH52" s="0"/>
+      <c r="ZI52" s="0"/>
+      <c r="ZJ52" s="0"/>
+      <c r="ZK52" s="0"/>
+      <c r="ZL52" s="0"/>
+      <c r="ZM52" s="0"/>
+      <c r="ZN52" s="0"/>
+      <c r="ZO52" s="0"/>
+      <c r="ZP52" s="0"/>
+      <c r="ZQ52" s="0"/>
+      <c r="ZR52" s="0"/>
+      <c r="ZS52" s="0"/>
+      <c r="ZT52" s="0"/>
+      <c r="ZU52" s="0"/>
+      <c r="ZV52" s="0"/>
+      <c r="ZW52" s="0"/>
+      <c r="ZX52" s="0"/>
+      <c r="ZY52" s="0"/>
+      <c r="ZZ52" s="0"/>
+      <c r="AAA52" s="0"/>
+      <c r="AAB52" s="0"/>
+      <c r="AAC52" s="0"/>
+      <c r="AAD52" s="0"/>
+      <c r="AAE52" s="0"/>
+      <c r="AAF52" s="0"/>
+      <c r="AAG52" s="0"/>
+      <c r="AAH52" s="0"/>
+      <c r="AAI52" s="0"/>
+      <c r="AAJ52" s="0"/>
+      <c r="AAK52" s="0"/>
+      <c r="AAL52" s="0"/>
+      <c r="AAM52" s="0"/>
+      <c r="AAN52" s="0"/>
+      <c r="AAO52" s="0"/>
+      <c r="AAP52" s="0"/>
+      <c r="AAQ52" s="0"/>
+      <c r="AAR52" s="0"/>
+      <c r="AAS52" s="0"/>
+      <c r="AAT52" s="0"/>
+      <c r="AAU52" s="0"/>
+      <c r="AAV52" s="0"/>
+      <c r="AAW52" s="0"/>
+      <c r="AAX52" s="0"/>
+      <c r="AAY52" s="0"/>
+      <c r="AAZ52" s="0"/>
+      <c r="ABA52" s="0"/>
+      <c r="ABB52" s="0"/>
+      <c r="ABC52" s="0"/>
+      <c r="ABD52" s="0"/>
+      <c r="ABE52" s="0"/>
+      <c r="ABF52" s="0"/>
+      <c r="ABG52" s="0"/>
+      <c r="ABH52" s="0"/>
+      <c r="ABI52" s="0"/>
+      <c r="ABJ52" s="0"/>
+      <c r="ABK52" s="0"/>
+      <c r="ABL52" s="0"/>
+      <c r="ABM52" s="0"/>
+      <c r="ABN52" s="0"/>
+      <c r="ABO52" s="0"/>
+      <c r="ABP52" s="0"/>
+      <c r="ABQ52" s="0"/>
+      <c r="ABR52" s="0"/>
+      <c r="ABS52" s="0"/>
+      <c r="ABT52" s="0"/>
+      <c r="ABU52" s="0"/>
+      <c r="ABV52" s="0"/>
+      <c r="ABW52" s="0"/>
+      <c r="ABX52" s="0"/>
+      <c r="ABY52" s="0"/>
+      <c r="ABZ52" s="0"/>
+      <c r="ACA52" s="0"/>
+      <c r="ACB52" s="0"/>
+      <c r="ACC52" s="0"/>
+      <c r="ACD52" s="0"/>
+      <c r="ACE52" s="0"/>
+      <c r="ACF52" s="0"/>
+      <c r="ACG52" s="0"/>
+      <c r="ACH52" s="0"/>
+      <c r="ACI52" s="0"/>
+      <c r="ACJ52" s="0"/>
+      <c r="ACK52" s="0"/>
+      <c r="ACL52" s="0"/>
+      <c r="ACM52" s="0"/>
+      <c r="ACN52" s="0"/>
+      <c r="ACO52" s="0"/>
+      <c r="ACP52" s="0"/>
+      <c r="ACQ52" s="0"/>
+      <c r="ACR52" s="0"/>
+      <c r="ACS52" s="0"/>
+      <c r="ACT52" s="0"/>
+      <c r="ACU52" s="0"/>
+      <c r="ACV52" s="0"/>
+      <c r="ACW52" s="0"/>
+      <c r="ACX52" s="0"/>
+      <c r="ACY52" s="0"/>
+      <c r="ACZ52" s="0"/>
+      <c r="ADA52" s="0"/>
+      <c r="ADB52" s="0"/>
+      <c r="ADC52" s="0"/>
+      <c r="ADD52" s="0"/>
+      <c r="ADE52" s="0"/>
+      <c r="ADF52" s="0"/>
+      <c r="ADG52" s="0"/>
+      <c r="ADH52" s="0"/>
+      <c r="ADI52" s="0"/>
+      <c r="ADJ52" s="0"/>
+      <c r="ADK52" s="0"/>
+      <c r="ADL52" s="0"/>
+      <c r="ADM52" s="0"/>
+      <c r="ADN52" s="0"/>
+      <c r="ADO52" s="0"/>
+      <c r="ADP52" s="0"/>
+      <c r="ADQ52" s="0"/>
+      <c r="ADR52" s="0"/>
+      <c r="ADS52" s="0"/>
+      <c r="ADT52" s="0"/>
+      <c r="ADU52" s="0"/>
+      <c r="ADV52" s="0"/>
+      <c r="ADW52" s="0"/>
+      <c r="ADX52" s="0"/>
+      <c r="ADY52" s="0"/>
+      <c r="ADZ52" s="0"/>
+      <c r="AEA52" s="0"/>
+      <c r="AEB52" s="0"/>
+      <c r="AEC52" s="0"/>
+      <c r="AED52" s="0"/>
+      <c r="AEE52" s="0"/>
+      <c r="AEF52" s="0"/>
+      <c r="AEG52" s="0"/>
+      <c r="AEH52" s="0"/>
+      <c r="AEI52" s="0"/>
+      <c r="AEJ52" s="0"/>
+      <c r="AEK52" s="0"/>
+      <c r="AEL52" s="0"/>
+      <c r="AEM52" s="0"/>
+      <c r="AEN52" s="0"/>
+      <c r="AEO52" s="0"/>
+      <c r="AEP52" s="0"/>
+      <c r="AEQ52" s="0"/>
+      <c r="AER52" s="0"/>
+      <c r="AES52" s="0"/>
+      <c r="AET52" s="0"/>
+      <c r="AEU52" s="0"/>
+      <c r="AEV52" s="0"/>
+      <c r="AEW52" s="0"/>
+      <c r="AEX52" s="0"/>
+      <c r="AEY52" s="0"/>
+      <c r="AEZ52" s="0"/>
+      <c r="AFA52" s="0"/>
+      <c r="AFB52" s="0"/>
+      <c r="AFC52" s="0"/>
+      <c r="AFD52" s="0"/>
+      <c r="AFE52" s="0"/>
+      <c r="AFF52" s="0"/>
+      <c r="AFG52" s="0"/>
+      <c r="AFH52" s="0"/>
+      <c r="AFI52" s="0"/>
+      <c r="AFJ52" s="0"/>
+      <c r="AFK52" s="0"/>
+      <c r="AFL52" s="0"/>
+      <c r="AFM52" s="0"/>
+      <c r="AFN52" s="0"/>
+      <c r="AFO52" s="0"/>
+      <c r="AFP52" s="0"/>
+      <c r="AFQ52" s="0"/>
+      <c r="AFR52" s="0"/>
+      <c r="AFS52" s="0"/>
+      <c r="AFT52" s="0"/>
+      <c r="AFU52" s="0"/>
+      <c r="AFV52" s="0"/>
+      <c r="AFW52" s="0"/>
+      <c r="AFX52" s="0"/>
+      <c r="AFY52" s="0"/>
+      <c r="AFZ52" s="0"/>
+      <c r="AGA52" s="0"/>
+      <c r="AGB52" s="0"/>
+      <c r="AGC52" s="0"/>
+      <c r="AGD52" s="0"/>
+      <c r="AGE52" s="0"/>
+      <c r="AGF52" s="0"/>
+      <c r="AGG52" s="0"/>
+      <c r="AGH52" s="0"/>
+      <c r="AGI52" s="0"/>
+      <c r="AGJ52" s="0"/>
+      <c r="AGK52" s="0"/>
+      <c r="AGL52" s="0"/>
+      <c r="AGM52" s="0"/>
+      <c r="AGN52" s="0"/>
+      <c r="AGO52" s="0"/>
+      <c r="AGP52" s="0"/>
+      <c r="AGQ52" s="0"/>
+      <c r="AGR52" s="0"/>
+      <c r="AGS52" s="0"/>
+      <c r="AGT52" s="0"/>
+      <c r="AGU52" s="0"/>
+      <c r="AGV52" s="0"/>
+      <c r="AGW52" s="0"/>
+      <c r="AGX52" s="0"/>
+      <c r="AGY52" s="0"/>
+      <c r="AGZ52" s="0"/>
+      <c r="AHA52" s="0"/>
+      <c r="AHB52" s="0"/>
+      <c r="AHC52" s="0"/>
+      <c r="AHD52" s="0"/>
+      <c r="AHE52" s="0"/>
+      <c r="AHF52" s="0"/>
+      <c r="AHG52" s="0"/>
+      <c r="AHH52" s="0"/>
+      <c r="AHI52" s="0"/>
+      <c r="AHJ52" s="0"/>
+      <c r="AHK52" s="0"/>
+      <c r="AHL52" s="0"/>
+      <c r="AHM52" s="0"/>
+      <c r="AHN52" s="0"/>
+      <c r="AHO52" s="0"/>
+      <c r="AHP52" s="0"/>
+      <c r="AHQ52" s="0"/>
+      <c r="AHR52" s="0"/>
+      <c r="AHS52" s="0"/>
+      <c r="AHT52" s="0"/>
+      <c r="AHU52" s="0"/>
+      <c r="AHV52" s="0"/>
+      <c r="AHW52" s="0"/>
+      <c r="AHX52" s="0"/>
+      <c r="AHY52" s="0"/>
+      <c r="AHZ52" s="0"/>
+      <c r="AIA52" s="0"/>
+      <c r="AIB52" s="0"/>
+      <c r="AIC52" s="0"/>
+      <c r="AID52" s="0"/>
+      <c r="AIE52" s="0"/>
+      <c r="AIF52" s="0"/>
+      <c r="AIG52" s="0"/>
+      <c r="AIH52" s="0"/>
+      <c r="AII52" s="0"/>
+      <c r="AIJ52" s="0"/>
+      <c r="AIK52" s="0"/>
+      <c r="AIL52" s="0"/>
+      <c r="AIM52" s="0"/>
+      <c r="AIN52" s="0"/>
+      <c r="AIO52" s="0"/>
+      <c r="AIP52" s="0"/>
+      <c r="AIQ52" s="0"/>
+      <c r="AIR52" s="0"/>
+      <c r="AIS52" s="0"/>
+      <c r="AIT52" s="0"/>
+      <c r="AIU52" s="0"/>
+      <c r="AIV52" s="0"/>
+      <c r="AIW52" s="0"/>
+      <c r="AIX52" s="0"/>
+      <c r="AIY52" s="0"/>
+      <c r="AIZ52" s="0"/>
+      <c r="AJA52" s="0"/>
+      <c r="AJB52" s="0"/>
+      <c r="AJC52" s="0"/>
+      <c r="AJD52" s="0"/>
+      <c r="AJE52" s="0"/>
+      <c r="AJF52" s="0"/>
+      <c r="AJG52" s="0"/>
+      <c r="AJH52" s="0"/>
+      <c r="AJI52" s="0"/>
+      <c r="AJJ52" s="0"/>
+      <c r="AJK52" s="0"/>
+      <c r="AJL52" s="0"/>
+      <c r="AJM52" s="0"/>
+      <c r="AJN52" s="0"/>
+      <c r="AJO52" s="0"/>
+      <c r="AJP52" s="0"/>
+      <c r="AJQ52" s="0"/>
+      <c r="AJR52" s="0"/>
+      <c r="AJS52" s="0"/>
+      <c r="AJT52" s="0"/>
+      <c r="AJU52" s="0"/>
+      <c r="AJV52" s="0"/>
+      <c r="AJW52" s="0"/>
+      <c r="AJX52" s="0"/>
+      <c r="AJY52" s="0"/>
+      <c r="AJZ52" s="0"/>
+      <c r="AKA52" s="0"/>
+      <c r="AKB52" s="0"/>
+      <c r="AKC52" s="0"/>
+      <c r="AKD52" s="0"/>
+      <c r="AKE52" s="0"/>
+      <c r="AKF52" s="0"/>
+      <c r="AKG52" s="0"/>
+      <c r="AKH52" s="0"/>
+      <c r="AKI52" s="0"/>
+      <c r="AKJ52" s="0"/>
+      <c r="AKK52" s="0"/>
+      <c r="AKL52" s="0"/>
+      <c r="AKM52" s="0"/>
+      <c r="AKN52" s="0"/>
+      <c r="AKO52" s="0"/>
+      <c r="AKP52" s="0"/>
+      <c r="AKQ52" s="0"/>
+      <c r="AKR52" s="0"/>
+      <c r="AKS52" s="0"/>
+      <c r="AKT52" s="0"/>
+      <c r="AKU52" s="0"/>
+      <c r="AKV52" s="0"/>
+      <c r="AKW52" s="0"/>
+      <c r="AKX52" s="0"/>
+      <c r="AKY52" s="0"/>
+      <c r="AKZ52" s="0"/>
+      <c r="ALA52" s="0"/>
+      <c r="ALB52" s="0"/>
+      <c r="ALC52" s="0"/>
+      <c r="ALD52" s="0"/>
+      <c r="ALE52" s="0"/>
+      <c r="ALF52" s="0"/>
+      <c r="ALG52" s="0"/>
+      <c r="ALH52" s="0"/>
+      <c r="ALI52" s="0"/>
+      <c r="ALJ52" s="0"/>
+      <c r="ALK52" s="0"/>
+      <c r="ALL52" s="0"/>
+      <c r="ALM52" s="0"/>
+      <c r="ALN52" s="0"/>
+      <c r="ALO52" s="0"/>
+      <c r="ALP52" s="0"/>
+      <c r="ALQ52" s="0"/>
+      <c r="ALR52" s="0"/>
+      <c r="ALS52" s="0"/>
+      <c r="ALT52" s="0"/>
+      <c r="ALU52" s="0"/>
+      <c r="ALV52" s="0"/>
+      <c r="ALW52" s="0"/>
+      <c r="ALX52" s="0"/>
+      <c r="ALY52" s="0"/>
+      <c r="ALZ52" s="0"/>
+      <c r="AMA52" s="0"/>
+      <c r="AMB52" s="0"/>
+      <c r="AMC52" s="0"/>
+      <c r="AMD52" s="0"/>
+      <c r="AME52" s="0"/>
+      <c r="AMF52" s="0"/>
+      <c r="AMG52" s="0"/>
+      <c r="AMH52" s="0"/>
+      <c r="AMI52" s="0"/>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="0"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
-      <c r="AJ53" s="0"/>
-      <c r="AK53" s="0"/>
-      <c r="AL53" s="0"/>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0"/>
-      <c r="AT53" s="0"/>
-      <c r="AU53" s="0"/>
-      <c r="AV53" s="0"/>
-      <c r="AW53" s="0"/>
-      <c r="AX53" s="0"/>
-      <c r="AY53" s="0"/>
-      <c r="AZ53" s="0"/>
-      <c r="BA53" s="0"/>
-      <c r="BB53" s="0"/>
-      <c r="BC53" s="0"/>
-      <c r="BD53" s="0"/>
-      <c r="BE53" s="0"/>
-      <c r="BF53" s="0"/>
-      <c r="BG53" s="0"/>
-      <c r="BH53" s="0"/>
-      <c r="BI53" s="0"/>
-      <c r="BJ53" s="0"/>
-      <c r="BK53" s="0"/>
-      <c r="BL53" s="0"/>
-      <c r="BM53" s="0"/>
-      <c r="BN53" s="0"/>
-      <c r="BO53" s="0"/>
-      <c r="BP53" s="0"/>
-      <c r="BQ53" s="0"/>
-      <c r="BR53" s="0"/>
-      <c r="BS53" s="0"/>
-      <c r="BT53" s="0"/>
-      <c r="BU53" s="0"/>
-      <c r="BV53" s="0"/>
-      <c r="BW53" s="0"/>
-      <c r="BX53" s="0"/>
-      <c r="BY53" s="0"/>
-      <c r="BZ53" s="0"/>
-      <c r="CA53" s="0"/>
-      <c r="CB53" s="0"/>
-      <c r="CC53" s="0"/>
-      <c r="CD53" s="0"/>
-      <c r="CE53" s="0"/>
-      <c r="CF53" s="0"/>
-      <c r="CG53" s="0"/>
-      <c r="CH53" s="0"/>
-      <c r="CI53" s="0"/>
-      <c r="CJ53" s="0"/>
-      <c r="CK53" s="0"/>
-      <c r="CL53" s="0"/>
-      <c r="CM53" s="0"/>
-      <c r="CN53" s="0"/>
-      <c r="CO53" s="0"/>
-      <c r="CP53" s="0"/>
-      <c r="CQ53" s="0"/>
-      <c r="CR53" s="0"/>
-      <c r="CS53" s="0"/>
-      <c r="CT53" s="0"/>
-      <c r="CU53" s="0"/>
-      <c r="CV53" s="0"/>
-      <c r="CW53" s="0"/>
-      <c r="CX53" s="0"/>
-      <c r="CY53" s="0"/>
-      <c r="CZ53" s="0"/>
-      <c r="DA53" s="0"/>
-      <c r="DB53" s="0"/>
-      <c r="DC53" s="0"/>
-      <c r="DD53" s="0"/>
-      <c r="DE53" s="0"/>
-      <c r="DF53" s="0"/>
-      <c r="DG53" s="0"/>
-      <c r="DH53" s="0"/>
-      <c r="DI53" s="0"/>
-      <c r="DJ53" s="0"/>
-      <c r="DK53" s="0"/>
-      <c r="DL53" s="0"/>
-      <c r="DM53" s="0"/>
-      <c r="DN53" s="0"/>
-      <c r="DO53" s="0"/>
-      <c r="DP53" s="0"/>
-      <c r="DQ53" s="0"/>
-      <c r="DR53" s="0"/>
-      <c r="DS53" s="0"/>
-      <c r="DT53" s="0"/>
-      <c r="DU53" s="0"/>
-      <c r="DV53" s="0"/>
-      <c r="DW53" s="0"/>
-      <c r="DX53" s="0"/>
-      <c r="DY53" s="0"/>
-      <c r="DZ53" s="0"/>
-      <c r="EA53" s="0"/>
-      <c r="EB53" s="0"/>
-      <c r="EC53" s="0"/>
-      <c r="ED53" s="0"/>
-      <c r="EE53" s="0"/>
-      <c r="EF53" s="0"/>
-      <c r="EG53" s="0"/>
-      <c r="EH53" s="0"/>
-      <c r="EI53" s="0"/>
-      <c r="EJ53" s="0"/>
-      <c r="EK53" s="0"/>
-      <c r="EL53" s="0"/>
-      <c r="EM53" s="0"/>
-      <c r="EN53" s="0"/>
-      <c r="EO53" s="0"/>
-      <c r="EP53" s="0"/>
-      <c r="EQ53" s="0"/>
-      <c r="ER53" s="0"/>
-      <c r="ES53" s="0"/>
-      <c r="ET53" s="0"/>
-      <c r="EU53" s="0"/>
-      <c r="EV53" s="0"/>
-      <c r="EW53" s="0"/>
-      <c r="EX53" s="0"/>
-      <c r="EY53" s="0"/>
-      <c r="EZ53" s="0"/>
-      <c r="FA53" s="0"/>
-      <c r="FB53" s="0"/>
-      <c r="FC53" s="0"/>
-      <c r="FD53" s="0"/>
-      <c r="FE53" s="0"/>
-      <c r="FF53" s="0"/>
-      <c r="FG53" s="0"/>
-      <c r="FH53" s="0"/>
-      <c r="FI53" s="0"/>
-      <c r="FJ53" s="0"/>
-      <c r="FK53" s="0"/>
-      <c r="FL53" s="0"/>
-      <c r="FM53" s="0"/>
-      <c r="FN53" s="0"/>
-      <c r="FO53" s="0"/>
-      <c r="FP53" s="0"/>
-      <c r="FQ53" s="0"/>
-      <c r="FR53" s="0"/>
-      <c r="FS53" s="0"/>
-      <c r="FT53" s="0"/>
-      <c r="FU53" s="0"/>
-      <c r="FV53" s="0"/>
-      <c r="FW53" s="0"/>
-      <c r="FX53" s="0"/>
-      <c r="FY53" s="0"/>
-      <c r="FZ53" s="0"/>
-      <c r="GA53" s="0"/>
-      <c r="GB53" s="0"/>
-      <c r="GC53" s="0"/>
-      <c r="GD53" s="0"/>
-      <c r="GE53" s="0"/>
-      <c r="GF53" s="0"/>
-      <c r="GG53" s="0"/>
-      <c r="GH53" s="0"/>
-      <c r="GI53" s="0"/>
-      <c r="GJ53" s="0"/>
-      <c r="GK53" s="0"/>
-      <c r="GL53" s="0"/>
-      <c r="GM53" s="0"/>
-      <c r="GN53" s="0"/>
-      <c r="GO53" s="0"/>
-      <c r="GP53" s="0"/>
-      <c r="GQ53" s="0"/>
-      <c r="GR53" s="0"/>
-      <c r="GS53" s="0"/>
-      <c r="GT53" s="0"/>
-      <c r="GU53" s="0"/>
-      <c r="GV53" s="0"/>
-      <c r="GW53" s="0"/>
-      <c r="GX53" s="0"/>
-      <c r="GY53" s="0"/>
-      <c r="GZ53" s="0"/>
-      <c r="HA53" s="0"/>
-      <c r="HB53" s="0"/>
-      <c r="HC53" s="0"/>
-      <c r="HD53" s="0"/>
-      <c r="HE53" s="0"/>
-      <c r="HF53" s="0"/>
-      <c r="HG53" s="0"/>
-      <c r="HH53" s="0"/>
-      <c r="HI53" s="0"/>
-      <c r="HJ53" s="0"/>
-      <c r="HK53" s="0"/>
-      <c r="HL53" s="0"/>
-      <c r="HM53" s="0"/>
-      <c r="HN53" s="0"/>
-      <c r="HO53" s="0"/>
-      <c r="HP53" s="0"/>
-      <c r="HQ53" s="0"/>
-      <c r="HR53" s="0"/>
-      <c r="HS53" s="0"/>
-      <c r="HT53" s="0"/>
-      <c r="HU53" s="0"/>
-      <c r="HV53" s="0"/>
-      <c r="HW53" s="0"/>
-      <c r="HX53" s="0"/>
-      <c r="HY53" s="0"/>
-      <c r="HZ53" s="0"/>
-      <c r="IA53" s="0"/>
-      <c r="IB53" s="0"/>
-      <c r="IC53" s="0"/>
-      <c r="ID53" s="0"/>
-      <c r="IE53" s="0"/>
-      <c r="IF53" s="0"/>
-      <c r="IG53" s="0"/>
-      <c r="IH53" s="0"/>
-      <c r="II53" s="0"/>
-      <c r="IJ53" s="0"/>
-      <c r="IK53" s="0"/>
-      <c r="IL53" s="0"/>
-      <c r="IM53" s="0"/>
-      <c r="IN53" s="0"/>
-      <c r="IO53" s="0"/>
-      <c r="IP53" s="0"/>
-      <c r="IQ53" s="0"/>
-      <c r="IR53" s="0"/>
-      <c r="IS53" s="0"/>
-      <c r="IT53" s="0"/>
-      <c r="IU53" s="0"/>
-      <c r="IV53" s="0"/>
-      <c r="IW53" s="0"/>
-      <c r="IX53" s="0"/>
-      <c r="IY53" s="0"/>
-      <c r="IZ53" s="0"/>
-      <c r="JA53" s="0"/>
-      <c r="JB53" s="0"/>
-      <c r="JC53" s="0"/>
-      <c r="JD53" s="0"/>
-      <c r="JE53" s="0"/>
-      <c r="JF53" s="0"/>
-      <c r="JG53" s="0"/>
-      <c r="JH53" s="0"/>
-      <c r="JI53" s="0"/>
-      <c r="JJ53" s="0"/>
-      <c r="JK53" s="0"/>
-      <c r="JL53" s="0"/>
-      <c r="JM53" s="0"/>
-      <c r="JN53" s="0"/>
-      <c r="JO53" s="0"/>
-      <c r="JP53" s="0"/>
-      <c r="JQ53" s="0"/>
-      <c r="JR53" s="0"/>
-      <c r="JS53" s="0"/>
-      <c r="JT53" s="0"/>
-      <c r="JU53" s="0"/>
-      <c r="JV53" s="0"/>
-      <c r="JW53" s="0"/>
-      <c r="JX53" s="0"/>
-      <c r="JY53" s="0"/>
-      <c r="JZ53" s="0"/>
-      <c r="KA53" s="0"/>
-      <c r="KB53" s="0"/>
-      <c r="KC53" s="0"/>
-      <c r="KD53" s="0"/>
-      <c r="KE53" s="0"/>
-      <c r="KF53" s="0"/>
-      <c r="KG53" s="0"/>
-      <c r="KH53" s="0"/>
-      <c r="KI53" s="0"/>
-      <c r="KJ53" s="0"/>
-      <c r="KK53" s="0"/>
-      <c r="KL53" s="0"/>
-      <c r="KM53" s="0"/>
-      <c r="KN53" s="0"/>
-      <c r="KO53" s="0"/>
-      <c r="KP53" s="0"/>
-      <c r="KQ53" s="0"/>
-      <c r="KR53" s="0"/>
-      <c r="KS53" s="0"/>
-      <c r="KT53" s="0"/>
-      <c r="KU53" s="0"/>
-      <c r="KV53" s="0"/>
-      <c r="KW53" s="0"/>
-      <c r="KX53" s="0"/>
-      <c r="KY53" s="0"/>
-      <c r="KZ53" s="0"/>
-      <c r="LA53" s="0"/>
-      <c r="LB53" s="0"/>
-      <c r="LC53" s="0"/>
-      <c r="LD53" s="0"/>
-      <c r="LE53" s="0"/>
-      <c r="LF53" s="0"/>
-      <c r="LG53" s="0"/>
-      <c r="LH53" s="0"/>
-      <c r="LI53" s="0"/>
-      <c r="LJ53" s="0"/>
-      <c r="LK53" s="0"/>
-      <c r="LL53" s="0"/>
-      <c r="LM53" s="0"/>
-      <c r="LN53" s="0"/>
-      <c r="LO53" s="0"/>
-      <c r="LP53" s="0"/>
-      <c r="LQ53" s="0"/>
-      <c r="LR53" s="0"/>
-      <c r="LS53" s="0"/>
-      <c r="LT53" s="0"/>
-      <c r="LU53" s="0"/>
-      <c r="LV53" s="0"/>
-      <c r="LW53" s="0"/>
-      <c r="LX53" s="0"/>
-      <c r="LY53" s="0"/>
-      <c r="LZ53" s="0"/>
-      <c r="MA53" s="0"/>
-      <c r="MB53" s="0"/>
-      <c r="MC53" s="0"/>
-      <c r="MD53" s="0"/>
-      <c r="ME53" s="0"/>
-      <c r="MF53" s="0"/>
-      <c r="MG53" s="0"/>
-      <c r="MH53" s="0"/>
-      <c r="MI53" s="0"/>
-      <c r="MJ53" s="0"/>
-      <c r="MK53" s="0"/>
-      <c r="ML53" s="0"/>
-      <c r="MM53" s="0"/>
-      <c r="MN53" s="0"/>
-      <c r="MO53" s="0"/>
-      <c r="MP53" s="0"/>
-      <c r="MQ53" s="0"/>
-      <c r="MR53" s="0"/>
-      <c r="MS53" s="0"/>
-      <c r="MT53" s="0"/>
-      <c r="MU53" s="0"/>
-      <c r="MV53" s="0"/>
-      <c r="MW53" s="0"/>
-      <c r="MX53" s="0"/>
-      <c r="MY53" s="0"/>
-      <c r="MZ53" s="0"/>
-      <c r="NA53" s="0"/>
-      <c r="NB53" s="0"/>
-      <c r="NC53" s="0"/>
-      <c r="ND53" s="0"/>
-      <c r="NE53" s="0"/>
-      <c r="NF53" s="0"/>
-      <c r="NG53" s="0"/>
-      <c r="NH53" s="0"/>
-      <c r="NI53" s="0"/>
-      <c r="NJ53" s="0"/>
-      <c r="NK53" s="0"/>
-      <c r="NL53" s="0"/>
-      <c r="NM53" s="0"/>
-      <c r="NN53" s="0"/>
-      <c r="NO53" s="0"/>
-      <c r="NP53" s="0"/>
-      <c r="NQ53" s="0"/>
-      <c r="NR53" s="0"/>
-      <c r="NS53" s="0"/>
-      <c r="NT53" s="0"/>
-      <c r="NU53" s="0"/>
-      <c r="NV53" s="0"/>
-      <c r="NW53" s="0"/>
-      <c r="NX53" s="0"/>
-      <c r="NY53" s="0"/>
-      <c r="NZ53" s="0"/>
-      <c r="OA53" s="0"/>
-      <c r="OB53" s="0"/>
-      <c r="OC53" s="0"/>
-      <c r="OD53" s="0"/>
-      <c r="OE53" s="0"/>
-      <c r="OF53" s="0"/>
-      <c r="OG53" s="0"/>
-      <c r="OH53" s="0"/>
-      <c r="OI53" s="0"/>
-      <c r="OJ53" s="0"/>
-      <c r="OK53" s="0"/>
-      <c r="OL53" s="0"/>
-      <c r="OM53" s="0"/>
-      <c r="ON53" s="0"/>
-      <c r="OO53" s="0"/>
-      <c r="OP53" s="0"/>
-      <c r="OQ53" s="0"/>
-      <c r="OR53" s="0"/>
-      <c r="OS53" s="0"/>
-      <c r="OT53" s="0"/>
-      <c r="OU53" s="0"/>
-      <c r="OV53" s="0"/>
-      <c r="OW53" s="0"/>
-      <c r="OX53" s="0"/>
-      <c r="OY53" s="0"/>
-      <c r="OZ53" s="0"/>
-      <c r="PA53" s="0"/>
-      <c r="PB53" s="0"/>
-      <c r="PC53" s="0"/>
-      <c r="PD53" s="0"/>
-      <c r="PE53" s="0"/>
-      <c r="PF53" s="0"/>
-      <c r="PG53" s="0"/>
-      <c r="PH53" s="0"/>
-      <c r="PI53" s="0"/>
-      <c r="PJ53" s="0"/>
-      <c r="PK53" s="0"/>
-      <c r="PL53" s="0"/>
-      <c r="PM53" s="0"/>
-      <c r="PN53" s="0"/>
-      <c r="PO53" s="0"/>
-      <c r="PP53" s="0"/>
-      <c r="PQ53" s="0"/>
-      <c r="PR53" s="0"/>
-      <c r="PS53" s="0"/>
-      <c r="PT53" s="0"/>
-      <c r="PU53" s="0"/>
-      <c r="PV53" s="0"/>
-      <c r="PW53" s="0"/>
-      <c r="PX53" s="0"/>
-      <c r="PY53" s="0"/>
-      <c r="PZ53" s="0"/>
-      <c r="QA53" s="0"/>
-      <c r="QB53" s="0"/>
-      <c r="QC53" s="0"/>
-      <c r="QD53" s="0"/>
-      <c r="QE53" s="0"/>
-      <c r="QF53" s="0"/>
-      <c r="QG53" s="0"/>
-      <c r="QH53" s="0"/>
-      <c r="QI53" s="0"/>
-      <c r="QJ53" s="0"/>
-      <c r="QK53" s="0"/>
-      <c r="QL53" s="0"/>
-      <c r="QM53" s="0"/>
-      <c r="QN53" s="0"/>
-      <c r="QO53" s="0"/>
-      <c r="QP53" s="0"/>
-      <c r="QQ53" s="0"/>
-      <c r="QR53" s="0"/>
-      <c r="QS53" s="0"/>
-      <c r="QT53" s="0"/>
-      <c r="QU53" s="0"/>
-      <c r="QV53" s="0"/>
-      <c r="QW53" s="0"/>
-      <c r="QX53" s="0"/>
-      <c r="QY53" s="0"/>
-      <c r="QZ53" s="0"/>
-      <c r="RA53" s="0"/>
-      <c r="RB53" s="0"/>
-      <c r="RC53" s="0"/>
-      <c r="RD53" s="0"/>
-      <c r="RE53" s="0"/>
-      <c r="RF53" s="0"/>
-      <c r="RG53" s="0"/>
-      <c r="RH53" s="0"/>
-      <c r="RI53" s="0"/>
-      <c r="RJ53" s="0"/>
-      <c r="RK53" s="0"/>
-      <c r="RL53" s="0"/>
-      <c r="RM53" s="0"/>
-      <c r="RN53" s="0"/>
-      <c r="RO53" s="0"/>
-      <c r="RP53" s="0"/>
-      <c r="RQ53" s="0"/>
-      <c r="RR53" s="0"/>
-      <c r="RS53" s="0"/>
-      <c r="RT53" s="0"/>
-      <c r="RU53" s="0"/>
-      <c r="RV53" s="0"/>
-      <c r="RW53" s="0"/>
-      <c r="RX53" s="0"/>
-      <c r="RY53" s="0"/>
-      <c r="RZ53" s="0"/>
-      <c r="SA53" s="0"/>
-      <c r="SB53" s="0"/>
-      <c r="SC53" s="0"/>
-      <c r="SD53" s="0"/>
-      <c r="SE53" s="0"/>
-      <c r="SF53" s="0"/>
-      <c r="SG53" s="0"/>
-      <c r="SH53" s="0"/>
-      <c r="SI53" s="0"/>
-      <c r="SJ53" s="0"/>
-      <c r="SK53" s="0"/>
-      <c r="SL53" s="0"/>
-      <c r="SM53" s="0"/>
-      <c r="SN53" s="0"/>
-      <c r="SO53" s="0"/>
-      <c r="SP53" s="0"/>
-      <c r="SQ53" s="0"/>
-      <c r="SR53" s="0"/>
-      <c r="SS53" s="0"/>
-      <c r="ST53" s="0"/>
-      <c r="SU53" s="0"/>
-      <c r="SV53" s="0"/>
-      <c r="SW53" s="0"/>
-      <c r="SX53" s="0"/>
-      <c r="SY53" s="0"/>
-      <c r="SZ53" s="0"/>
-      <c r="TA53" s="0"/>
-      <c r="TB53" s="0"/>
-      <c r="TC53" s="0"/>
-      <c r="TD53" s="0"/>
-      <c r="TE53" s="0"/>
-      <c r="TF53" s="0"/>
-      <c r="TG53" s="0"/>
-      <c r="TH53" s="0"/>
-      <c r="TI53" s="0"/>
-      <c r="TJ53" s="0"/>
-      <c r="TK53" s="0"/>
-      <c r="TL53" s="0"/>
-      <c r="TM53" s="0"/>
-      <c r="TN53" s="0"/>
-      <c r="TO53" s="0"/>
-      <c r="TP53" s="0"/>
-      <c r="TQ53" s="0"/>
-      <c r="TR53" s="0"/>
-      <c r="TS53" s="0"/>
-      <c r="TT53" s="0"/>
-      <c r="TU53" s="0"/>
-      <c r="TV53" s="0"/>
-      <c r="TW53" s="0"/>
-      <c r="TX53" s="0"/>
-      <c r="TY53" s="0"/>
-      <c r="TZ53" s="0"/>
-      <c r="UA53" s="0"/>
-      <c r="UB53" s="0"/>
-      <c r="UC53" s="0"/>
-      <c r="UD53" s="0"/>
-      <c r="UE53" s="0"/>
-      <c r="UF53" s="0"/>
-      <c r="UG53" s="0"/>
-      <c r="UH53" s="0"/>
-      <c r="UI53" s="0"/>
-      <c r="UJ53" s="0"/>
-      <c r="UK53" s="0"/>
-      <c r="UL53" s="0"/>
-      <c r="UM53" s="0"/>
-      <c r="UN53" s="0"/>
-      <c r="UO53" s="0"/>
-      <c r="UP53" s="0"/>
-      <c r="UQ53" s="0"/>
-      <c r="UR53" s="0"/>
-      <c r="US53" s="0"/>
-      <c r="UT53" s="0"/>
-      <c r="UU53" s="0"/>
-      <c r="UV53" s="0"/>
-      <c r="UW53" s="0"/>
-      <c r="UX53" s="0"/>
-      <c r="UY53" s="0"/>
-      <c r="UZ53" s="0"/>
-      <c r="VA53" s="0"/>
-      <c r="VB53" s="0"/>
-      <c r="VC53" s="0"/>
-      <c r="VD53" s="0"/>
-      <c r="VE53" s="0"/>
-      <c r="VF53" s="0"/>
-      <c r="VG53" s="0"/>
-      <c r="VH53" s="0"/>
-      <c r="VI53" s="0"/>
-      <c r="VJ53" s="0"/>
-      <c r="VK53" s="0"/>
-      <c r="VL53" s="0"/>
-      <c r="VM53" s="0"/>
-      <c r="VN53" s="0"/>
-      <c r="VO53" s="0"/>
-      <c r="VP53" s="0"/>
-      <c r="VQ53" s="0"/>
-      <c r="VR53" s="0"/>
-      <c r="VS53" s="0"/>
-      <c r="VT53" s="0"/>
-      <c r="VU53" s="0"/>
-      <c r="VV53" s="0"/>
-      <c r="VW53" s="0"/>
-      <c r="VX53" s="0"/>
-      <c r="VY53" s="0"/>
-      <c r="VZ53" s="0"/>
-      <c r="WA53" s="0"/>
-      <c r="WB53" s="0"/>
-      <c r="WC53" s="0"/>
-      <c r="WD53" s="0"/>
-      <c r="WE53" s="0"/>
-      <c r="WF53" s="0"/>
-      <c r="WG53" s="0"/>
-      <c r="WH53" s="0"/>
-      <c r="WI53" s="0"/>
-      <c r="WJ53" s="0"/>
-      <c r="WK53" s="0"/>
-      <c r="WL53" s="0"/>
-      <c r="WM53" s="0"/>
-      <c r="WN53" s="0"/>
-      <c r="WO53" s="0"/>
-      <c r="WP53" s="0"/>
-      <c r="WQ53" s="0"/>
-      <c r="WR53" s="0"/>
-      <c r="WS53" s="0"/>
-      <c r="WT53" s="0"/>
-      <c r="WU53" s="0"/>
-      <c r="WV53" s="0"/>
-      <c r="WW53" s="0"/>
-      <c r="WX53" s="0"/>
-      <c r="WY53" s="0"/>
-      <c r="WZ53" s="0"/>
-      <c r="XA53" s="0"/>
-      <c r="XB53" s="0"/>
-      <c r="XC53" s="0"/>
-      <c r="XD53" s="0"/>
-      <c r="XE53" s="0"/>
-      <c r="XF53" s="0"/>
-      <c r="XG53" s="0"/>
-      <c r="XH53" s="0"/>
-      <c r="XI53" s="0"/>
-      <c r="XJ53" s="0"/>
-      <c r="XK53" s="0"/>
-      <c r="XL53" s="0"/>
-      <c r="XM53" s="0"/>
-      <c r="XN53" s="0"/>
-      <c r="XO53" s="0"/>
-      <c r="XP53" s="0"/>
-      <c r="XQ53" s="0"/>
-      <c r="XR53" s="0"/>
-      <c r="XS53" s="0"/>
-      <c r="XT53" s="0"/>
-      <c r="XU53" s="0"/>
-      <c r="XV53" s="0"/>
-      <c r="XW53" s="0"/>
-      <c r="XX53" s="0"/>
-      <c r="XY53" s="0"/>
-      <c r="XZ53" s="0"/>
-      <c r="YA53" s="0"/>
-      <c r="YB53" s="0"/>
-      <c r="YC53" s="0"/>
-      <c r="YD53" s="0"/>
-      <c r="YE53" s="0"/>
-      <c r="YF53" s="0"/>
-      <c r="YG53" s="0"/>
-      <c r="YH53" s="0"/>
-      <c r="YI53" s="0"/>
-      <c r="YJ53" s="0"/>
-      <c r="YK53" s="0"/>
-      <c r="YL53" s="0"/>
-      <c r="YM53" s="0"/>
-      <c r="YN53" s="0"/>
-      <c r="YO53" s="0"/>
-      <c r="YP53" s="0"/>
-      <c r="YQ53" s="0"/>
-      <c r="YR53" s="0"/>
-      <c r="YS53" s="0"/>
-      <c r="YT53" s="0"/>
-      <c r="YU53" s="0"/>
-      <c r="YV53" s="0"/>
-      <c r="YW53" s="0"/>
-      <c r="YX53" s="0"/>
-      <c r="YY53" s="0"/>
-      <c r="YZ53" s="0"/>
-      <c r="ZA53" s="0"/>
-      <c r="ZB53" s="0"/>
-      <c r="ZC53" s="0"/>
-      <c r="ZD53" s="0"/>
-      <c r="ZE53" s="0"/>
-      <c r="ZF53" s="0"/>
-      <c r="ZG53" s="0"/>
-      <c r="ZH53" s="0"/>
-      <c r="ZI53" s="0"/>
-      <c r="ZJ53" s="0"/>
-      <c r="ZK53" s="0"/>
-      <c r="ZL53" s="0"/>
-      <c r="ZM53" s="0"/>
-      <c r="ZN53" s="0"/>
-      <c r="ZO53" s="0"/>
-      <c r="ZP53" s="0"/>
-      <c r="ZQ53" s="0"/>
-      <c r="ZR53" s="0"/>
-      <c r="ZS53" s="0"/>
-      <c r="ZT53" s="0"/>
-      <c r="ZU53" s="0"/>
-      <c r="ZV53" s="0"/>
-      <c r="ZW53" s="0"/>
-      <c r="ZX53" s="0"/>
-      <c r="ZY53" s="0"/>
-      <c r="ZZ53" s="0"/>
-      <c r="AAA53" s="0"/>
-      <c r="AAB53" s="0"/>
-      <c r="AAC53" s="0"/>
-      <c r="AAD53" s="0"/>
-      <c r="AAE53" s="0"/>
-      <c r="AAF53" s="0"/>
-      <c r="AAG53" s="0"/>
-      <c r="AAH53" s="0"/>
-      <c r="AAI53" s="0"/>
-      <c r="AAJ53" s="0"/>
-      <c r="AAK53" s="0"/>
-      <c r="AAL53" s="0"/>
-      <c r="AAM53" s="0"/>
-      <c r="AAN53" s="0"/>
-      <c r="AAO53" s="0"/>
-      <c r="AAP53" s="0"/>
-      <c r="AAQ53" s="0"/>
-      <c r="AAR53" s="0"/>
-      <c r="AAS53" s="0"/>
-      <c r="AAT53" s="0"/>
-      <c r="AAU53" s="0"/>
-      <c r="AAV53" s="0"/>
-      <c r="AAW53" s="0"/>
-      <c r="AAX53" s="0"/>
-      <c r="AAY53" s="0"/>
-      <c r="AAZ53" s="0"/>
-      <c r="ABA53" s="0"/>
-      <c r="ABB53" s="0"/>
-      <c r="ABC53" s="0"/>
-      <c r="ABD53" s="0"/>
-      <c r="ABE53" s="0"/>
-      <c r="ABF53" s="0"/>
-      <c r="ABG53" s="0"/>
-      <c r="ABH53" s="0"/>
-      <c r="ABI53" s="0"/>
-      <c r="ABJ53" s="0"/>
-      <c r="ABK53" s="0"/>
-      <c r="ABL53" s="0"/>
-      <c r="ABM53" s="0"/>
-      <c r="ABN53" s="0"/>
-      <c r="ABO53" s="0"/>
-      <c r="ABP53" s="0"/>
-      <c r="ABQ53" s="0"/>
-      <c r="ABR53" s="0"/>
-      <c r="ABS53" s="0"/>
-      <c r="ABT53" s="0"/>
-      <c r="ABU53" s="0"/>
-      <c r="ABV53" s="0"/>
-      <c r="ABW53" s="0"/>
-      <c r="ABX53" s="0"/>
-      <c r="ABY53" s="0"/>
-      <c r="ABZ53" s="0"/>
-      <c r="ACA53" s="0"/>
-      <c r="ACB53" s="0"/>
-      <c r="ACC53" s="0"/>
-      <c r="ACD53" s="0"/>
-      <c r="ACE53" s="0"/>
-      <c r="ACF53" s="0"/>
-      <c r="ACG53" s="0"/>
-      <c r="ACH53" s="0"/>
-      <c r="ACI53" s="0"/>
-      <c r="ACJ53" s="0"/>
-      <c r="ACK53" s="0"/>
-      <c r="ACL53" s="0"/>
-      <c r="ACM53" s="0"/>
-      <c r="ACN53" s="0"/>
-      <c r="ACO53" s="0"/>
-      <c r="ACP53" s="0"/>
-      <c r="ACQ53" s="0"/>
-      <c r="ACR53" s="0"/>
-      <c r="ACS53" s="0"/>
-      <c r="ACT53" s="0"/>
-      <c r="ACU53" s="0"/>
-      <c r="ACV53" s="0"/>
-      <c r="ACW53" s="0"/>
-      <c r="ACX53" s="0"/>
-      <c r="ACY53" s="0"/>
-      <c r="ACZ53" s="0"/>
-      <c r="ADA53" s="0"/>
-      <c r="ADB53" s="0"/>
-      <c r="ADC53" s="0"/>
-      <c r="ADD53" s="0"/>
-      <c r="ADE53" s="0"/>
-      <c r="ADF53" s="0"/>
-      <c r="ADG53" s="0"/>
-      <c r="ADH53" s="0"/>
-      <c r="ADI53" s="0"/>
-      <c r="ADJ53" s="0"/>
-      <c r="ADK53" s="0"/>
-      <c r="ADL53" s="0"/>
-      <c r="ADM53" s="0"/>
-      <c r="ADN53" s="0"/>
-      <c r="ADO53" s="0"/>
-      <c r="ADP53" s="0"/>
-      <c r="ADQ53" s="0"/>
-      <c r="ADR53" s="0"/>
-      <c r="ADS53" s="0"/>
-      <c r="ADT53" s="0"/>
-      <c r="ADU53" s="0"/>
-      <c r="ADV53" s="0"/>
-      <c r="ADW53" s="0"/>
-      <c r="ADX53" s="0"/>
-      <c r="ADY53" s="0"/>
-      <c r="ADZ53" s="0"/>
-      <c r="AEA53" s="0"/>
-      <c r="AEB53" s="0"/>
-      <c r="AEC53" s="0"/>
-      <c r="AED53" s="0"/>
-      <c r="AEE53" s="0"/>
-      <c r="AEF53" s="0"/>
-      <c r="AEG53" s="0"/>
-      <c r="AEH53" s="0"/>
-      <c r="AEI53" s="0"/>
-      <c r="AEJ53" s="0"/>
-      <c r="AEK53" s="0"/>
-      <c r="AEL53" s="0"/>
-      <c r="AEM53" s="0"/>
-      <c r="AEN53" s="0"/>
-      <c r="AEO53" s="0"/>
-      <c r="AEP53" s="0"/>
-      <c r="AEQ53" s="0"/>
-      <c r="AER53" s="0"/>
-      <c r="AES53" s="0"/>
-      <c r="AET53" s="0"/>
-      <c r="AEU53" s="0"/>
-      <c r="AEV53" s="0"/>
-      <c r="AEW53" s="0"/>
-      <c r="AEX53" s="0"/>
-      <c r="AEY53" s="0"/>
-      <c r="AEZ53" s="0"/>
-      <c r="AFA53" s="0"/>
-      <c r="AFB53" s="0"/>
-      <c r="AFC53" s="0"/>
-      <c r="AFD53" s="0"/>
-      <c r="AFE53" s="0"/>
-      <c r="AFF53" s="0"/>
-      <c r="AFG53" s="0"/>
-      <c r="AFH53" s="0"/>
-      <c r="AFI53" s="0"/>
-      <c r="AFJ53" s="0"/>
-      <c r="AFK53" s="0"/>
-      <c r="AFL53" s="0"/>
-      <c r="AFM53" s="0"/>
-      <c r="AFN53" s="0"/>
-      <c r="AFO53" s="0"/>
-      <c r="AFP53" s="0"/>
-      <c r="AFQ53" s="0"/>
-      <c r="AFR53" s="0"/>
-      <c r="AFS53" s="0"/>
-      <c r="AFT53" s="0"/>
-      <c r="AFU53" s="0"/>
-      <c r="AFV53" s="0"/>
-      <c r="AFW53" s="0"/>
-      <c r="AFX53" s="0"/>
-      <c r="AFY53" s="0"/>
-      <c r="AFZ53" s="0"/>
-      <c r="AGA53" s="0"/>
-      <c r="AGB53" s="0"/>
-      <c r="AGC53" s="0"/>
-      <c r="AGD53" s="0"/>
-      <c r="AGE53" s="0"/>
-      <c r="AGF53" s="0"/>
-      <c r="AGG53" s="0"/>
-      <c r="AGH53" s="0"/>
-      <c r="AGI53" s="0"/>
-      <c r="AGJ53" s="0"/>
-      <c r="AGK53" s="0"/>
-      <c r="AGL53" s="0"/>
-      <c r="AGM53" s="0"/>
-      <c r="AGN53" s="0"/>
-      <c r="AGO53" s="0"/>
-      <c r="AGP53" s="0"/>
-      <c r="AGQ53" s="0"/>
-      <c r="AGR53" s="0"/>
-      <c r="AGS53" s="0"/>
-      <c r="AGT53" s="0"/>
-      <c r="AGU53" s="0"/>
-      <c r="AGV53" s="0"/>
-      <c r="AGW53" s="0"/>
-      <c r="AGX53" s="0"/>
-      <c r="AGY53" s="0"/>
-      <c r="AGZ53" s="0"/>
-      <c r="AHA53" s="0"/>
-      <c r="AHB53" s="0"/>
-      <c r="AHC53" s="0"/>
-      <c r="AHD53" s="0"/>
-      <c r="AHE53" s="0"/>
-      <c r="AHF53" s="0"/>
-      <c r="AHG53" s="0"/>
-      <c r="AHH53" s="0"/>
-      <c r="AHI53" s="0"/>
-      <c r="AHJ53" s="0"/>
-      <c r="AHK53" s="0"/>
-      <c r="AHL53" s="0"/>
-      <c r="AHM53" s="0"/>
-      <c r="AHN53" s="0"/>
-      <c r="AHO53" s="0"/>
-      <c r="AHP53" s="0"/>
-      <c r="AHQ53" s="0"/>
-      <c r="AHR53" s="0"/>
-      <c r="AHS53" s="0"/>
-      <c r="AHT53" s="0"/>
-      <c r="AHU53" s="0"/>
-      <c r="AHV53" s="0"/>
-      <c r="AHW53" s="0"/>
-      <c r="AHX53" s="0"/>
-      <c r="AHY53" s="0"/>
-      <c r="AHZ53" s="0"/>
-      <c r="AIA53" s="0"/>
-      <c r="AIB53" s="0"/>
-      <c r="AIC53" s="0"/>
-      <c r="AID53" s="0"/>
-      <c r="AIE53" s="0"/>
-      <c r="AIF53" s="0"/>
-      <c r="AIG53" s="0"/>
-      <c r="AIH53" s="0"/>
-      <c r="AII53" s="0"/>
-      <c r="AIJ53" s="0"/>
-      <c r="AIK53" s="0"/>
-      <c r="AIL53" s="0"/>
-      <c r="AIM53" s="0"/>
-      <c r="AIN53" s="0"/>
-      <c r="AIO53" s="0"/>
-      <c r="AIP53" s="0"/>
-      <c r="AIQ53" s="0"/>
-      <c r="AIR53" s="0"/>
-      <c r="AIS53" s="0"/>
-      <c r="AIT53" s="0"/>
-      <c r="AIU53" s="0"/>
-      <c r="AIV53" s="0"/>
-      <c r="AIW53" s="0"/>
-      <c r="AIX53" s="0"/>
-      <c r="AIY53" s="0"/>
-      <c r="AIZ53" s="0"/>
-      <c r="AJA53" s="0"/>
-      <c r="AJB53" s="0"/>
-      <c r="AJC53" s="0"/>
-      <c r="AJD53" s="0"/>
-      <c r="AJE53" s="0"/>
-      <c r="AJF53" s="0"/>
-      <c r="AJG53" s="0"/>
-      <c r="AJH53" s="0"/>
-      <c r="AJI53" s="0"/>
-      <c r="AJJ53" s="0"/>
-      <c r="AJK53" s="0"/>
-      <c r="AJL53" s="0"/>
-      <c r="AJM53" s="0"/>
-      <c r="AJN53" s="0"/>
-      <c r="AJO53" s="0"/>
-      <c r="AJP53" s="0"/>
-      <c r="AJQ53" s="0"/>
-      <c r="AJR53" s="0"/>
-      <c r="AJS53" s="0"/>
-      <c r="AJT53" s="0"/>
-      <c r="AJU53" s="0"/>
-      <c r="AJV53" s="0"/>
-      <c r="AJW53" s="0"/>
-      <c r="AJX53" s="0"/>
-      <c r="AJY53" s="0"/>
-      <c r="AJZ53" s="0"/>
-      <c r="AKA53" s="0"/>
-      <c r="AKB53" s="0"/>
-      <c r="AKC53" s="0"/>
-      <c r="AKD53" s="0"/>
-      <c r="AKE53" s="0"/>
-      <c r="AKF53" s="0"/>
-      <c r="AKG53" s="0"/>
-      <c r="AKH53" s="0"/>
-      <c r="AKI53" s="0"/>
-      <c r="AKJ53" s="0"/>
-      <c r="AKK53" s="0"/>
-      <c r="AKL53" s="0"/>
-      <c r="AKM53" s="0"/>
-      <c r="AKN53" s="0"/>
-      <c r="AKO53" s="0"/>
-      <c r="AKP53" s="0"/>
-      <c r="AKQ53" s="0"/>
-      <c r="AKR53" s="0"/>
-      <c r="AKS53" s="0"/>
-      <c r="AKT53" s="0"/>
-      <c r="AKU53" s="0"/>
-      <c r="AKV53" s="0"/>
-      <c r="AKW53" s="0"/>
-      <c r="AKX53" s="0"/>
-      <c r="AKY53" s="0"/>
-      <c r="AKZ53" s="0"/>
-      <c r="ALA53" s="0"/>
-      <c r="ALB53" s="0"/>
-      <c r="ALC53" s="0"/>
-      <c r="ALD53" s="0"/>
-      <c r="ALE53" s="0"/>
-      <c r="ALF53" s="0"/>
-      <c r="ALG53" s="0"/>
-      <c r="ALH53" s="0"/>
-      <c r="ALI53" s="0"/>
-      <c r="ALJ53" s="0"/>
-      <c r="ALK53" s="0"/>
-      <c r="ALL53" s="0"/>
-      <c r="ALM53" s="0"/>
-      <c r="ALN53" s="0"/>
-      <c r="ALO53" s="0"/>
-      <c r="ALP53" s="0"/>
-      <c r="ALQ53" s="0"/>
-      <c r="ALR53" s="0"/>
-      <c r="ALS53" s="0"/>
-      <c r="ALT53" s="0"/>
-      <c r="ALU53" s="0"/>
-      <c r="ALV53" s="0"/>
-      <c r="ALW53" s="0"/>
-      <c r="ALX53" s="0"/>
-      <c r="ALY53" s="0"/>
-      <c r="ALZ53" s="0"/>
-      <c r="AMA53" s="0"/>
-      <c r="AMB53" s="0"/>
-      <c r="AMC53" s="0"/>
-      <c r="AMD53" s="0"/>
-      <c r="AME53" s="0"/>
-      <c r="AMF53" s="0"/>
-      <c r="AMG53" s="0"/>
-      <c r="AMH53" s="0"/>
-      <c r="AMI53" s="0"/>
-      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2507,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,7 +2515,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,7 +2523,11 @@
         <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,11 +2535,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,7 +2543,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2551,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,7 +2559,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,7 +2567,10 @@
         <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,7 +2578,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
@@ -2586,7 +2589,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>1</v>
@@ -2597,7 +2600,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1</v>
@@ -2608,23 +2611,13 @@
         <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1066" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B1065" type="list">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2647,24 +2640,23 @@
   </sheetPr>
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B140" activeCellId="0" sqref="B140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2677,10 +2669,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -2691,10 +2683,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -2705,10 +2697,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
@@ -2719,13 +2711,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2733,13 +2725,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2747,13 +2739,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2761,13 +2753,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2775,13 +2767,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2789,13 +2781,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2803,13 +2795,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2817,13 +2809,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2831,13 +2823,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2845,13 +2837,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2859,13 +2851,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2873,13 +2865,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2887,13 +2879,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2901,13 +2893,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2915,13 +2907,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2929,13 +2921,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2943,13 +2935,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2957,13 +2949,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2971,13 +2963,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2985,10 +2977,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -2999,10 +2991,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>8</v>
@@ -3013,10 +3005,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -3027,13 +3019,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3041,13 +3033,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3055,13 +3047,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -3069,13 +3061,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3083,13 +3075,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3097,13 +3089,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3111,13 +3103,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3125,13 +3117,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3139,13 +3131,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -3153,13 +3145,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3167,13 +3159,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3181,13 +3173,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3195,13 +3187,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3209,13 +3201,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3223,13 +3215,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -3237,13 +3229,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -3251,13 +3243,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3265,13 +3257,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3279,13 +3271,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3293,10 +3285,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
@@ -3307,13 +3299,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3321,13 +3313,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3335,13 +3327,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3349,13 +3341,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3363,13 +3355,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3377,13 +3369,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3391,52 +3383,52 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
@@ -3447,13 +3439,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3461,13 +3453,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3475,13 +3467,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3489,13 +3481,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3503,13 +3495,13 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3517,13 +3509,13 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3531,13 +3523,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3545,13 +3537,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3559,13 +3551,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3573,38 +3565,38 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -3615,13 +3607,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3629,13 +3621,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3643,13 +3635,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3657,13 +3649,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3671,13 +3663,13 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3685,41 +3677,41 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3727,13 +3719,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3741,27 +3733,27 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3769,55 +3761,55 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3825,13 +3817,13 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3839,13 +3831,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3853,13 +3845,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3867,38 +3859,38 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>8</v>
@@ -3909,41 +3901,41 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3951,66 +3943,66 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>10</v>
@@ -4021,27 +4013,27 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4049,13 +4041,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4063,13 +4055,13 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4077,27 +4069,27 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4105,24 +4097,24 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>11</v>
@@ -4133,97 +4125,97 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4231,13 +4223,13 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4245,13 +4237,13 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4259,13 +4251,13 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4273,13 +4265,13 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4287,13 +4279,13 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4301,13 +4293,13 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4315,13 +4307,13 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4329,13 +4321,13 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4343,13 +4335,13 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4357,13 +4349,13 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4371,10 +4363,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>9</v>
@@ -4385,45 +4377,45 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4431,13 +4423,13 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4445,13 +4437,13 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4459,13 +4451,13 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4473,10 +4465,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>9</v>
@@ -4487,13 +4479,13 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4501,13 +4493,13 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4515,13 +4507,13 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4529,13 +4521,13 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4543,13 +4535,13 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4557,13 +4549,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4571,13 +4563,13 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4585,13 +4577,13 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4599,13 +4591,13 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4613,13 +4605,13 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4627,10 +4619,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>9</v>
@@ -4641,13 +4633,13 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4655,13 +4647,13 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4669,13 +4661,13 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4683,13 +4675,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4697,13 +4689,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4711,13 +4703,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4725,13 +4717,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4739,13 +4731,13 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4753,26 +4745,26 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>9</v>
@@ -4783,13 +4775,13 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4797,13 +4789,13 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4811,13 +4803,13 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4825,13 +4817,13 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4839,10 +4831,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4851,13 +4843,13 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4865,13 +4857,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4879,13 +4871,13 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4893,13 +4885,13 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4907,13 +4899,13 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4921,13 +4913,13 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4935,13 +4927,13 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="C163" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4949,13 +4941,13 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4963,13 +4955,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4977,13 +4969,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4991,10 +4983,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>9</v>
@@ -5005,10 +4997,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>9</v>
@@ -5019,13 +5011,13 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="C169" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5033,13 +5025,13 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -5047,13 +5039,13 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -5061,13 +5053,13 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -5075,10 +5067,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>9</v>
@@ -5089,13 +5081,13 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -5103,13 +5095,13 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -5117,13 +5109,13 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -5131,13 +5123,13 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -5145,13 +5137,13 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -5159,13 +5151,13 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -5173,13 +5165,13 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="C180" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -5187,13 +5179,13 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -5201,13 +5193,13 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -5215,45 +5207,45 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="C185" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -5261,13 +5253,13 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -5275,13 +5267,13 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -5289,13 +5281,13 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -5303,13 +5295,13 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -5750,7 +5742,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1189" type="list">
-      <formula1>controlled_vocabulary!$A$4:$A$9999</formula1>
+      <formula1>controlled_vocabulary!$A$4:$A$9998</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5775,19 +5767,16 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2de447d5b5f1ff5a/Desktop/Master_thesis/immunedeconv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_B9E004A660C9D12CF4E0EE8B9BCDFA07B1516133" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0DC99A-65DC-414F-929D-C2EA4BCAFD13}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_B9E004A660C9D12CF4E0EE8B9BCDFA07B1516133" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D55A49-094B-4021-B6EE-04E2B268F5A9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="294">
   <si>
     <t>cell_type</t>
   </si>
@@ -849,9 +849,6 @@
     <t>mmcp_counter</t>
   </si>
   <si>
-    <t>seqImmuCC</t>
-  </si>
-  <si>
     <t>B Cells</t>
   </si>
   <si>
@@ -870,9 +867,6 @@
     <t>NK Cells</t>
   </si>
   <si>
-    <t>DCQ</t>
-  </si>
-  <si>
     <t>Dev_B_cells</t>
   </si>
   <si>
@@ -916,6 +910,15 @@
   </si>
   <si>
     <t>Stem cell</t>
+  </si>
+  <si>
+    <t>seqimmucc</t>
+  </si>
+  <si>
+    <t>dcq</t>
+  </si>
+  <si>
+    <t>base</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
@@ -3203,7 +3206,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
@@ -3224,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6608,10 +6611,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B241" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>9</v>
@@ -6622,10 +6625,10 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>53</v>
@@ -6636,10 +6639,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>54</v>
@@ -6650,10 +6653,10 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>36</v>
@@ -6661,7 +6664,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>97</v>
@@ -6672,7 +6675,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>138</v>
@@ -6683,10 +6686,10 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>261</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>89</v>
@@ -6705,7 +6708,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>98</v>
@@ -6716,10 +6719,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>22</v>
@@ -6727,9 +6730,9 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B251" t="s">
+        <v>292</v>
+      </c>
+      <c r="B251" s="7" t="s">
         <v>249</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -6738,10 +6741,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B252" t="s">
-        <v>278</v>
+        <v>292</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>10</v>
@@ -6749,10 +6752,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B253" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B253" t="s">
-        <v>279</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>52</v>
@@ -6760,9 +6763,9 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B254" t="s">
+        <v>292</v>
+      </c>
+      <c r="B254" s="7" t="s">
         <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -6771,10 +6774,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B255" t="s">
-        <v>280</v>
+        <v>292</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>23</v>
@@ -6782,9 +6785,9 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B256" t="s">
+        <v>292</v>
+      </c>
+      <c r="B256" s="7" t="s">
         <v>265</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -6793,9 +6796,9 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B257" t="s">
+        <v>292</v>
+      </c>
+      <c r="B257" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -6804,20 +6807,20 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B258" t="s">
-        <v>281</v>
+        <v>292</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B259" t="s">
+        <v>292</v>
+      </c>
+      <c r="B259" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -6826,9 +6829,9 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B260" t="s">
+        <v>292</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -6837,10 +6840,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B261" t="s">
-        <v>282</v>
+        <v>292</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>57</v>
@@ -6848,21 +6851,21 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B262" t="s">
-        <v>283</v>
+        <v>292</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B263" t="s">
-        <v>284</v>
+        <v>292</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>63</v>
@@ -6870,10 +6873,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B264" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>61</v>
@@ -6881,10 +6884,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B265" t="s">
-        <v>286</v>
+        <v>292</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>62</v>
@@ -6892,10 +6895,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B266" t="s">
-        <v>287</v>
+        <v>292</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>72</v>
@@ -6903,10 +6906,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B267" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>67</v>
@@ -6914,10 +6917,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B268" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>68</v>
@@ -6925,12 +6928,221 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>293</v>
+      </c>
+      <c r="B270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>293</v>
+      </c>
+      <c r="B271" t="s">
+        <v>276</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>293</v>
+      </c>
+      <c r="B272" t="s">
         <v>277</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C272" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>293</v>
+      </c>
+      <c r="B273" t="s">
+        <v>251</v>
+      </c>
+      <c r="C273" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>293</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>293</v>
+      </c>
+      <c r="B275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C275" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>293</v>
+      </c>
+      <c r="B276" t="s">
+        <v>138</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>293</v>
+      </c>
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
         <v>290</v>
       </c>
-      <c r="C269" s="7" t="s">
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>293</v>
+      </c>
+      <c r="B278" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>293</v>
+      </c>
+      <c r="B279" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>293</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>293</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>293</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>293</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>293</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+      <c r="C284" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288" t="s">
         <v>55</v>
       </c>
     </row>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2de447d5b5f1ff5a/Desktop/Master_thesis/immunedeconv/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_B9E004A660C9D12CF4E0EE8B9BCDFA07B1516133" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D55A49-094B-4021-B6EE-04E2B268F5A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF74A6EB-5D72-4E6A-9AE3-B2ABC2451C54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
   <si>
     <t>cell_type</t>
   </si>
@@ -919,6 +909,24 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>StromalScore</t>
+  </si>
+  <si>
+    <t>ESTIMATEScore</t>
+  </si>
+  <si>
+    <t>TumorPurity</t>
+  </si>
+  <si>
+    <t>tumor purity score</t>
+  </si>
+  <si>
+    <t>tumor purity fraction</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1047,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1466,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK75"/>
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1954,7 +1962,7 @@
     </row>
     <row r="50" spans="1:1024">
       <c r="A50" s="9" t="s">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
@@ -1962,73 +1970,61 @@
     </row>
     <row r="51" spans="1:1024">
       <c r="A51" s="9" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:1024">
       <c r="A52" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:1024">
       <c r="A53" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="1" t="b">
+    </row>
+    <row r="54" spans="1:1024">
+      <c r="A54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1024">
+      <c r="A55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1024">
-      <c r="A54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1024">
-      <c r="A55" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1024">
       <c r="A56" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
@@ -3043,111 +3039,117 @@
     </row>
     <row r="57" spans="1:1024">
       <c r="A57" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1024">
       <c r="A58" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
     </row>
     <row r="59" spans="1:1024">
       <c r="A59" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:1024">
       <c r="A60" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1024">
       <c r="A61" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="1" t="b">
+    </row>
+    <row r="62" spans="1:1024">
+      <c r="A62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1024">
+      <c r="A63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1024">
-      <c r="A62" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1024">
-      <c r="A63" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="64" spans="1:1024">
       <c r="A64" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3155,10 +3157,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3166,55 +3168,77 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="10" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="9" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B1068 B73 B1:B70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B1070 B75 B1:B72" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3227,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -7146,6 +7170,50 @@
         <v>55</v>
       </c>
     </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" t="s">
+        <v>295</v>
+      </c>
+      <c r="C289" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290" t="s">
+        <v>167</v>
+      </c>
+      <c r="C290" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>297</v>
+      </c>
+      <c r="C292" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7154,7 +7222,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>controlled_vocabulary!$A$4:$A$10001</xm:f>
+            <xm:f>controlled_vocabulary!$A$4:$A$10003</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="298">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -186,384 +186,387 @@
     <t xml:space="preserve">cytotoxicity score</t>
   </si>
   <si>
+    <t xml:space="preserve">ImmuneScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microenvironment score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TumorPurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATEScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StromalScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ Th1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ Th2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell follicular helper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ central memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ effector memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ central memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ effector memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell MAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta VD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta non-VD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell immature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_cell_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibersort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B cells naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B cells memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells follicular helper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells gamma delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eosinophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibersort_abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cell.CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cell.CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chondrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epithelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibroblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keratinocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ly Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megakaryocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesangial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naive B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osteoblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pericytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preadipocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeletal muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tgd cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th1 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th2 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tregs</t>
+  </si>
+  <si>
     <t xml:space="preserve">immune score</t>
   </si>
   <si>
-    <t xml:space="preserve">microenvironment score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tumor purity fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tumor purity score</t>
+    <t xml:space="preserve">StromaScore</t>
   </si>
   <si>
     <t xml:space="preserve">stroma score</t>
   </si>
   <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta non-VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncharacterized cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmuneScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
     <t xml:space="preserve">MicroenvironmentScore</t>
   </si>
   <si>
@@ -907,15 +910,6 @@
   </si>
   <si>
     <t xml:space="preserve">estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromalScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATEScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TumorPurity</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
@@ -1061,7 +1055,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,7 +1076,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1110,10 +1104,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1148,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590200" y="149760"/>
-          <a:ext cx="1399320" cy="254880"/>
+          <a:off x="2872080" y="149760"/>
+          <a:ext cx="1633680" cy="254520"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1180,9 +1170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1191,8 +1181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590200" y="340920"/>
-          <a:ext cx="1399320" cy="254880"/>
+          <a:off x="2872080" y="340920"/>
+          <a:ext cx="1633680" cy="254160"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1224,11 +1214,11 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="C292 A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
@@ -1440,7 +1430,7 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1473,7 +1463,7 @@
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="3"/>
@@ -1485,7 +1475,7 @@
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="3"/>
@@ -1687,8 +1677,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1703,24 +1693,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1750,7 +1740,7 @@
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1829,7 +1819,7 @@
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,7 +1961,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1986,17 +1976,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1189"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B290" activeCellId="0" sqref="B290"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C292" activeCellId="0" sqref="C292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -3633,7 +3623,7 @@
         <v>179</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3644,7 +3634,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>55</v>
@@ -3655,10 +3645,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>26</v>
@@ -3669,10 +3659,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>60</v>
@@ -3683,10 +3673,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>53</v>
@@ -3697,7 +3687,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>162</v>
@@ -3711,10 +3701,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>9</v>
@@ -3725,7 +3715,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>37</v>
@@ -3734,14 +3724,14 @@
         <v>33</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>37</v>
@@ -3750,17 +3740,17 @@
         <v>32</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>38</v>
@@ -3771,7 +3761,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>109</v>
@@ -3785,7 +3775,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>138</v>
@@ -3799,7 +3789,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>141</v>
@@ -3813,10 +3803,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>9</v>
@@ -3827,10 +3817,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>30</v>
@@ -3841,10 +3831,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>31</v>
@@ -3855,7 +3845,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>100</v>
@@ -3869,7 +3859,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>109</v>
@@ -3883,10 +3873,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>24</v>
@@ -3897,10 +3887,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>64</v>
@@ -3911,10 +3901,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>60</v>
@@ -3925,7 +3915,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>177</v>
@@ -3939,10 +3929,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>38</v>
@@ -3953,10 +3943,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>82</v>
@@ -3967,10 +3957,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>9</v>
@@ -3981,10 +3971,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>51</v>
@@ -3995,10 +3985,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>59</v>
@@ -4009,10 +3999,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>60</v>
@@ -4023,10 +4013,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>52</v>
@@ -4037,7 +4027,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>149</v>
@@ -4051,7 +4041,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>100</v>
@@ -4065,10 +4055,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>24</v>
@@ -4079,7 +4069,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>109</v>
@@ -4093,26 +4083,26 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>9</v>
@@ -4123,10 +4113,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>60</v>
@@ -4137,10 +4127,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>15</v>
@@ -4151,10 +4141,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>64</v>
@@ -4165,10 +4155,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>32</v>
@@ -4179,10 +4169,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -4191,10 +4181,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>67</v>
@@ -4205,10 +4195,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>51</v>
@@ -4219,10 +4209,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>25</v>
@@ -4233,7 +4223,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>138</v>
@@ -4247,10 +4237,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>24</v>
@@ -4261,10 +4251,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>17</v>
@@ -4275,10 +4265,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>26</v>
@@ -4289,10 +4279,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>24</v>
@@ -4303,7 +4293,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>115</v>
@@ -4317,10 +4307,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>33</v>
@@ -4331,10 +4321,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>9</v>
@@ -4345,10 +4335,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>9</v>
@@ -4359,10 +4349,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>59</v>
@@ -4373,10 +4363,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>60</v>
@@ -4387,7 +4377,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>162</v>
@@ -4401,10 +4391,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>16</v>
@@ -4415,10 +4405,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>9</v>
@@ -4429,10 +4419,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>42</v>
@@ -4443,7 +4433,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>102</v>
@@ -4457,7 +4447,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>103</v>
@@ -4471,7 +4461,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>100</v>
@@ -4485,7 +4475,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>109</v>
@@ -4499,7 +4489,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>162</v>
@@ -4513,10 +4503,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>59</v>
@@ -4527,7 +4517,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>91</v>
@@ -4541,7 +4531,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>177</v>
@@ -4555,42 +4545,42 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>59</v>
@@ -4601,10 +4591,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>60</v>
@@ -4615,7 +4605,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>24</v>
@@ -4629,7 +4619,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>28</v>
@@ -4643,7 +4633,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>33</v>
@@ -4657,10 +4647,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>46</v>
@@ -4671,10 +4661,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>24</v>
@@ -4685,10 +4675,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>73</v>
@@ -4699,10 +4689,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>69</v>
@@ -4713,10 +4703,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>74</v>
@@ -4727,10 +4717,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>10</v>
@@ -4741,10 +4731,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>68</v>
@@ -4755,10 +4745,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>79</v>
@@ -4769,10 +4759,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>80</v>
@@ -4783,10 +4773,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>48</v>
@@ -4797,10 +4787,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>81</v>
@@ -4811,10 +4801,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>39</v>
@@ -4825,10 +4815,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>47</v>
@@ -4839,10 +4829,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>8</v>
@@ -4852,10 +4842,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>38</v>
@@ -4866,10 +4856,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>25</v>
@@ -4880,10 +4870,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>14</v>
@@ -4894,10 +4884,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>9</v>
@@ -4908,10 +4898,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>53</v>
@@ -4922,10 +4912,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>38</v>
@@ -4936,7 +4926,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>108</v>
@@ -4950,7 +4940,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>149</v>
@@ -4964,13 +4954,13 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -4978,10 +4968,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>24</v>
@@ -4992,7 +4982,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>109</v>
@@ -5006,10 +4996,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C215" s="10" t="s">
         <v>59</v>
@@ -5020,10 +5010,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C216" s="10" t="s">
         <v>60</v>
@@ -5034,10 +5024,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>61</v>
@@ -5048,10 +5038,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C218" s="10" t="s">
         <v>67</v>
@@ -5062,10 +5052,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C219" s="10" t="s">
         <v>30</v>
@@ -5076,10 +5066,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C220" s="10" t="s">
         <v>31</v>
@@ -5090,10 +5080,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C221" s="10" t="s">
         <v>52</v>
@@ -5104,7 +5094,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>141</v>
@@ -5118,7 +5108,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>100</v>
@@ -5132,13 +5122,13 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -5146,10 +5136,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>26</v>
@@ -5160,10 +5150,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>60</v>
@@ -5174,7 +5164,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>162</v>
@@ -5188,10 +5178,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>9</v>
@@ -5202,10 +5192,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>8</v>
@@ -5216,10 +5206,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>32</v>
@@ -5230,7 +5220,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>100</v>
@@ -5244,10 +5234,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>41</v>
@@ -5258,13 +5248,13 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -5272,7 +5262,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>108</v>
@@ -5286,7 +5276,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>109</v>
@@ -5300,7 +5290,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>121</v>
@@ -5314,10 +5304,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9" t="s">
@@ -5328,10 +5318,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9" t="s">
@@ -5342,7 +5332,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>138</v>
@@ -5356,10 +5346,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>51</v>
@@ -5370,10 +5360,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>9</v>
@@ -5384,10 +5374,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>59</v>
@@ -5398,10 +5388,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>60</v>
@@ -5412,10 +5402,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>38</v>
@@ -5423,7 +5413,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>108</v>
@@ -5434,7 +5424,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>149</v>
@@ -5445,18 +5435,18 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>100</v>
@@ -5467,7 +5457,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>109</v>
@@ -5478,10 +5468,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>24</v>
@@ -5489,10 +5479,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>9</v>
@@ -5500,10 +5490,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>10</v>
@@ -5511,21 +5501,21 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>38</v>
@@ -5533,10 +5523,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>25</v>
@@ -5544,10 +5534,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>41</v>
@@ -5555,7 +5545,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>149</v>
@@ -5566,10 +5556,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>84</v>
@@ -5577,7 +5567,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>100</v>
@@ -5588,10 +5578,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>24</v>
@@ -5599,10 +5589,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>63</v>
@@ -5610,10 +5600,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>83</v>
@@ -5621,10 +5611,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>69</v>
@@ -5632,10 +5622,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>67</v>
@@ -5643,10 +5633,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>68</v>
@@ -5654,10 +5644,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>78</v>
@@ -5665,10 +5655,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>73</v>
@@ -5676,10 +5666,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>74</v>
@@ -5687,2968 +5677,277 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C269" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C271" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C272" s="12" t="s">
+      <c r="C288" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C279" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C283" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B289" s="0" t="s">
+      <c r="C289" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C289" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C290" s="12" t="s">
+      <c r="B290" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C291" s="12" t="s">
+      <c r="C290" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B291" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C292" s="12" t="s">
+      <c r="C291" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="12"/>
-    </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="12"/>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="12"/>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="12"/>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="12"/>
-    </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="12"/>
-    </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="12"/>
-    </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="12"/>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="12"/>
-    </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="12"/>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="12"/>
-    </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="12"/>
-    </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="12"/>
-    </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="12"/>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="12"/>
-    </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="12"/>
-    </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="12"/>
-    </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="12"/>
-    </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="12"/>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="12"/>
-    </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="12"/>
-    </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="12"/>
-    </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="12"/>
-    </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="12"/>
-    </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="12"/>
-    </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="12"/>
-    </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="12"/>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="12"/>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="12"/>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="12"/>
-    </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="12"/>
-    </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="12"/>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="12"/>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="12"/>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="12"/>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="12"/>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="12"/>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="12"/>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="12"/>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="12"/>
-    </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="12"/>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="12"/>
-    </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="12"/>
-    </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="12"/>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="12"/>
-    </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="12"/>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="12"/>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="12"/>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="12"/>
-    </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="12"/>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="12"/>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="12"/>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="12"/>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="12"/>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="12"/>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="12"/>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="12"/>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="12"/>
-    </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="12"/>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="12"/>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="12"/>
-    </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="12"/>
-    </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="12"/>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="12"/>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="12"/>
-    </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="12"/>
-    </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="12"/>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="12"/>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="12"/>
-    </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="12"/>
-    </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="12"/>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="12"/>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="12"/>
-    </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="12"/>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="12"/>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="12"/>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="12"/>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="12"/>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="12"/>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="12"/>
-    </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="12"/>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="12"/>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="12"/>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="12"/>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="12"/>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="12"/>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="12"/>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="12"/>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="12"/>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="12"/>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="12"/>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="12"/>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="12"/>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="12"/>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="12"/>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="12"/>
-    </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="12"/>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="12"/>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="12"/>
-    </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="12"/>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="12"/>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="12"/>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="12"/>
-    </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="12"/>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="12"/>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="12"/>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="12"/>
-    </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="12"/>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="12"/>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="12"/>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="12"/>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="12"/>
-    </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="12"/>
-    </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="12"/>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="12"/>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="12"/>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="12"/>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="12"/>
-    </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="12"/>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="12"/>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="12"/>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="12"/>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="12"/>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="12"/>
-    </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="12"/>
-    </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="12"/>
-    </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="12"/>
-    </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="12"/>
-    </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="12"/>
-    </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="12"/>
-    </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="12"/>
-    </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="12"/>
-    </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="12"/>
-    </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="12"/>
-    </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="12"/>
-    </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="12"/>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="12"/>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="12"/>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="12"/>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="12"/>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="12"/>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="12"/>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="12"/>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="12"/>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="12"/>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="12"/>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="12"/>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="12"/>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="12"/>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="12"/>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="12"/>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="12"/>
-    </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="12"/>
-    </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="12"/>
-    </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="12"/>
-    </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="12"/>
-    </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="12"/>
-    </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="12"/>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="12"/>
-    </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="12"/>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="12"/>
-    </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="12"/>
-    </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="12"/>
-    </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="12"/>
-    </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="12"/>
-    </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="12"/>
-    </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="12"/>
-    </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="12"/>
-    </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="12"/>
-    </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="12"/>
-    </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="12"/>
-    </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="12"/>
-    </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="12"/>
-    </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="12"/>
-    </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="12"/>
-    </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="12"/>
-    </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="12"/>
-    </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="12"/>
-    </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="12"/>
-    </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="12"/>
-    </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="12"/>
-    </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="12"/>
-    </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="12"/>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="12"/>
-    </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="12"/>
-    </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="12"/>
-    </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="12"/>
-    </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="12"/>
-    </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="12"/>
-    </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="12"/>
-    </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="12"/>
-    </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="12"/>
-    </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="12"/>
-    </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="12"/>
-    </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="12"/>
-    </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="12"/>
-    </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="12"/>
-    </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="12"/>
-    </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="12"/>
-    </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="12"/>
-    </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="12"/>
-    </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="12"/>
-    </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="12"/>
-    </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="12"/>
-    </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="12"/>
-    </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="12"/>
-    </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="12"/>
-    </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="12"/>
-    </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="12"/>
-    </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="12"/>
-    </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="12"/>
-    </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="12"/>
-    </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="12"/>
-    </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="12"/>
-    </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="12"/>
-    </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="12"/>
-    </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="12"/>
-    </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="12"/>
-    </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="12"/>
-    </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="12"/>
-    </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="12"/>
-    </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="12"/>
-    </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="12"/>
-    </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="12"/>
-    </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="12"/>
-    </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="12"/>
-    </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="12"/>
-    </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="12"/>
-    </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="12"/>
-    </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="12"/>
-    </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="12"/>
-    </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="12"/>
-    </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="12"/>
-    </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="12"/>
-    </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="12"/>
-    </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="12"/>
-    </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="12"/>
-    </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="12"/>
-    </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="12"/>
-    </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="12"/>
-    </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="12"/>
-    </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="12"/>
-    </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="12"/>
-    </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="12"/>
-    </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="12"/>
-    </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="12"/>
-    </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="12"/>
-    </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="12"/>
-    </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="12"/>
-    </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="12"/>
-    </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="12"/>
-    </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="12"/>
-    </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="12"/>
-    </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="12"/>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="12"/>
-    </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="12"/>
-    </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="12"/>
-    </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="12"/>
-    </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="12"/>
-    </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="12"/>
-    </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="12"/>
-    </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="12"/>
-    </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="12"/>
-    </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="12"/>
-    </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="12"/>
-    </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="12"/>
-    </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="12"/>
-    </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="12"/>
-    </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="12"/>
-    </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="12"/>
-    </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="12"/>
-    </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="12"/>
-    </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="12"/>
-    </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="12"/>
-    </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="12"/>
-    </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="12"/>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="12"/>
-    </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="12"/>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="12"/>
-    </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="12"/>
-    </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="12"/>
-    </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="12"/>
-    </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="12"/>
-    </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="12"/>
-    </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="12"/>
-    </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="12"/>
-    </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="12"/>
-    </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="12"/>
-    </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="12"/>
-    </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="12"/>
-    </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="12"/>
-    </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="12"/>
-    </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="12"/>
-    </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="12"/>
-    </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="12"/>
-    </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="12"/>
-    </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="12"/>
-    </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="12"/>
-    </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="12"/>
-    </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="12"/>
-    </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="12"/>
-    </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="12"/>
-    </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="12"/>
-    </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="12"/>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="12"/>
-    </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="12"/>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="12"/>
-    </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="12"/>
-    </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="12"/>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="12"/>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="12"/>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="12"/>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="12"/>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="12"/>
-    </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="12"/>
-    </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="12"/>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="12"/>
-    </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="12"/>
-    </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="12"/>
-    </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="12"/>
-    </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="12"/>
-    </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="12"/>
-    </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="12"/>
-    </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="12"/>
-    </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="12"/>
-    </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="12"/>
-    </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="12"/>
-    </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="12"/>
-    </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="12"/>
-    </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="12"/>
-    </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="12"/>
-    </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="12"/>
-    </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="12"/>
-    </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="12"/>
-    </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="12"/>
-    </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="12"/>
-    </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="12"/>
-    </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="12"/>
-    </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="12"/>
-    </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="12"/>
-    </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="12"/>
-    </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="12"/>
-    </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="12"/>
-    </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="12"/>
-    </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="12"/>
-    </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="12"/>
-    </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="12"/>
-    </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="12"/>
-    </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="12"/>
-    </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="12"/>
-    </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="12"/>
-    </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="12"/>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="12"/>
-    </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="12"/>
-    </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="12"/>
-    </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="12"/>
-    </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="12"/>
-    </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="12"/>
-    </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="12"/>
-    </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="12"/>
-    </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="12"/>
-    </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="12"/>
-    </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="12"/>
-    </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="12"/>
-    </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="12"/>
-    </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="12"/>
-    </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="12"/>
-    </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="12"/>
-    </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="12"/>
-    </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="12"/>
-    </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="12"/>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="12"/>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="12"/>
-    </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="12"/>
-    </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="12"/>
-    </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="12"/>
-    </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="12"/>
-    </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="12"/>
-    </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="12"/>
-    </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="12"/>
-    </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="12"/>
-    </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="12"/>
-    </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="12"/>
-    </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="12"/>
-    </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="12"/>
-    </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="12"/>
-    </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="12"/>
-    </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="12"/>
-    </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="12"/>
-    </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="12"/>
-    </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="12"/>
-    </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="12"/>
-    </row>
-    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="12"/>
-    </row>
-    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="12"/>
-    </row>
-    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="12"/>
-    </row>
-    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="12"/>
-    </row>
-    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="12"/>
-    </row>
-    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="12"/>
-    </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="12"/>
-    </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="12"/>
-    </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="12"/>
-    </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="12"/>
-    </row>
-    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="12"/>
-    </row>
-    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="12"/>
-    </row>
-    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="12"/>
-    </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="12"/>
-    </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="12"/>
-    </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="12"/>
-    </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="12"/>
-    </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="12"/>
-    </row>
-    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="12"/>
-    </row>
-    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="12"/>
-    </row>
-    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="12"/>
-    </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="12"/>
-    </row>
-    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="12"/>
-    </row>
-    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="12"/>
-    </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="12"/>
-    </row>
-    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="12"/>
-    </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="12"/>
-    </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="12"/>
-    </row>
-    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="12"/>
-    </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="12"/>
-    </row>
-    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="12"/>
-    </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="12"/>
-    </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="12"/>
-    </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="12"/>
-    </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="12"/>
-    </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="12"/>
-    </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="12"/>
-    </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="12"/>
-    </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="12"/>
-    </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="12"/>
-    </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="12"/>
-    </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="12"/>
-    </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="12"/>
-    </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="12"/>
-    </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="12"/>
-    </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="12"/>
-    </row>
-    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="12"/>
-    </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="12"/>
-    </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="12"/>
-    </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="12"/>
-    </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="12"/>
-    </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="12"/>
-    </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="12"/>
-    </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="12"/>
-    </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="12"/>
-    </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="12"/>
-    </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="12"/>
-    </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="12"/>
-    </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="12"/>
-    </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="12"/>
-    </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="12"/>
-    </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="12"/>
-    </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="12"/>
-    </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="12"/>
-    </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="12"/>
-    </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="12"/>
-    </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="12"/>
-    </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="12"/>
-    </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="12"/>
-    </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="12"/>
-    </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="12"/>
-    </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="12"/>
-    </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="12"/>
-    </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="12"/>
-    </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="12"/>
-    </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="12"/>
-    </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="12"/>
-    </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="12"/>
-    </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="12"/>
-    </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="12"/>
-    </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="12"/>
-    </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="12"/>
-    </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="12"/>
-    </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="12"/>
-    </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="12"/>
-    </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="12"/>
-    </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="12"/>
-    </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="12"/>
-    </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="12"/>
-    </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="12"/>
-    </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="12"/>
-    </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="12"/>
-    </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="12"/>
-    </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="12"/>
-    </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="12"/>
-    </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="12"/>
-    </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="12"/>
-    </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="12"/>
-    </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="12"/>
-    </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="12"/>
-    </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="12"/>
-    </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="12"/>
-    </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="12"/>
-    </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="12"/>
-    </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="12"/>
-    </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="12"/>
-    </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="12"/>
-    </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="12"/>
-    </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="12"/>
-    </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="12"/>
-    </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="12"/>
-    </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="12"/>
-    </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="12"/>
-    </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="12"/>
-    </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="12"/>
-    </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="12"/>
-    </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="12"/>
-    </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="12"/>
-    </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="12"/>
-    </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="12"/>
-    </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="12"/>
-    </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="12"/>
-    </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="12"/>
-    </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="12"/>
-    </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="12"/>
-    </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="12"/>
-    </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="12"/>
-    </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="12"/>
-    </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="12"/>
-    </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="12"/>
-    </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="12"/>
-    </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="12"/>
-    </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="12"/>
-    </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="12"/>
-    </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="12"/>
-    </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="12"/>
-    </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="12"/>
-    </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="12"/>
-    </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="12"/>
-    </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="12"/>
-    </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="12"/>
-    </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="12"/>
-    </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="12"/>
-    </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="12"/>
-    </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="12"/>
-    </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="12"/>
-    </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="12"/>
-    </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="12"/>
-    </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="12"/>
-    </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="12"/>
-    </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="12"/>
-    </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="12"/>
-    </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="12"/>
-    </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="12"/>
-    </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="12"/>
-    </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="12"/>
-    </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="12"/>
-    </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="12"/>
-    </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="12"/>
-    </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="12"/>
-    </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="12"/>
-    </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="12"/>
-    </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="12"/>
-    </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="12"/>
-    </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="12"/>
-    </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="12"/>
-    </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="12"/>
-    </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="12"/>
-    </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="12"/>
-    </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="12"/>
-    </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="12"/>
-    </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="12"/>
-    </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="12"/>
-    </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="12"/>
-    </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="12"/>
-    </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="12"/>
-    </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="12"/>
-    </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="12"/>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="12"/>
-    </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="12"/>
-    </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="12"/>
-    </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="12"/>
-    </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="12"/>
-    </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="12"/>
-    </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="12"/>
-    </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="12"/>
-    </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="12"/>
-    </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="12"/>
-    </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="12"/>
-    </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="12"/>
-    </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="12"/>
-    </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="12"/>
-    </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="12"/>
-    </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="12"/>
-    </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="12"/>
-    </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="12"/>
-    </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="12"/>
-    </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="12"/>
-    </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="12"/>
-    </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="12"/>
-    </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="12"/>
-    </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="12"/>
-    </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="12"/>
-    </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="12"/>
-    </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="12"/>
-    </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="12"/>
-    </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="12"/>
-    </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="12"/>
-    </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="12"/>
-    </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="12"/>
-    </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="12"/>
-    </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="12"/>
-    </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="12"/>
-    </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="12"/>
-    </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="12"/>
-    </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="12"/>
-    </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="12"/>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="12"/>
-    </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="12"/>
-    </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="12"/>
-    </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="12"/>
-    </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="12"/>
-    </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="12"/>
-    </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="12"/>
-    </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="12"/>
-    </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="12"/>
-    </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="12"/>
-    </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="12"/>
-    </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="12"/>
-    </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="12"/>
-    </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="12"/>
-    </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="12"/>
-    </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="12"/>
-    </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="12"/>
-    </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="12"/>
-    </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="12"/>
-    </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="12"/>
-    </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="12"/>
-    </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="12"/>
-    </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="12"/>
-    </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="12"/>
-    </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="12"/>
-    </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="12"/>
-    </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="12"/>
-    </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="12"/>
-    </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="12"/>
-    </row>
-    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="12"/>
-    </row>
-    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="12"/>
-    </row>
-    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="12"/>
-    </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="12"/>
-    </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="12"/>
-    </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="12"/>
-    </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="12"/>
-    </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="12"/>
-    </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="12"/>
-    </row>
-    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="12"/>
-    </row>
-    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="12"/>
-    </row>
-    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="12"/>
-    </row>
-    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="12"/>
-    </row>
-    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="12"/>
-    </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="12"/>
-    </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="12"/>
-    </row>
-    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="12"/>
-    </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="12"/>
-    </row>
-    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="12"/>
-    </row>
-    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="12"/>
-    </row>
-    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="12"/>
-    </row>
-    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="12"/>
-    </row>
-    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="12"/>
-    </row>
-    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="12"/>
-    </row>
-    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="12"/>
-    </row>
-    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="12"/>
-    </row>
-    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="12"/>
-    </row>
-    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="12"/>
-    </row>
-    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="12"/>
-    </row>
-    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="12"/>
-    </row>
-    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="12"/>
-    </row>
-    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="12"/>
-    </row>
-    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="12"/>
-    </row>
-    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="12"/>
-    </row>
-    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="12"/>
-    </row>
-    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="12"/>
-    </row>
-    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="12"/>
-    </row>
-    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="12"/>
-    </row>
-    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="12"/>
-    </row>
-    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="12"/>
-    </row>
-    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="12"/>
-    </row>
-    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="12"/>
-    </row>
-    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="12"/>
-    </row>
-    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="12"/>
-    </row>
-    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="12"/>
-    </row>
-    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="12"/>
-    </row>
-    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="12"/>
-    </row>
-    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="12"/>
-    </row>
-    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="12"/>
-    </row>
-    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="12"/>
-    </row>
-    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="12"/>
-    </row>
-    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="12"/>
-    </row>
-    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="12"/>
-    </row>
-    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="12"/>
-    </row>
-    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="12"/>
-    </row>
-    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="12"/>
-    </row>
-    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="12"/>
-    </row>
-    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="12"/>
-    </row>
-    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="12"/>
-    </row>
-    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="12"/>
-    </row>
-    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="12"/>
-    </row>
-    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="12"/>
-    </row>
-    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="12"/>
-    </row>
-    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="12"/>
-    </row>
-    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="12"/>
-    </row>
-    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="12"/>
-    </row>
-    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="12"/>
-    </row>
-    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="12"/>
-    </row>
-    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="12"/>
-    </row>
-    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="12"/>
-    </row>
-    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1001" s="12"/>
-    </row>
-    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1002" s="12"/>
-    </row>
-    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1003" s="12"/>
-    </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1004" s="12"/>
-    </row>
-    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1005" s="12"/>
-    </row>
-    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1006" s="12"/>
-    </row>
-    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1007" s="12"/>
-    </row>
-    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1008" s="12"/>
-    </row>
-    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1009" s="12"/>
-    </row>
-    <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1010" s="12"/>
-    </row>
-    <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1011" s="12"/>
-    </row>
-    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1012" s="12"/>
-    </row>
-    <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1013" s="12"/>
-    </row>
-    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1014" s="12"/>
-    </row>
-    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1015" s="12"/>
-    </row>
-    <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1016" s="12"/>
-    </row>
-    <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1017" s="12"/>
-    </row>
-    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1018" s="12"/>
-    </row>
-    <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1019" s="12"/>
-    </row>
-    <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1020" s="12"/>
-    </row>
-    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1021" s="12"/>
-    </row>
-    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1022" s="12"/>
-    </row>
-    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1023" s="12"/>
-    </row>
-    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1024" s="12"/>
-    </row>
-    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1025" s="12"/>
-    </row>
-    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1026" s="12"/>
-    </row>
-    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1027" s="12"/>
-    </row>
-    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1028" s="12"/>
-    </row>
-    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1029" s="12"/>
-    </row>
-    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1030" s="12"/>
-    </row>
-    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1031" s="12"/>
-    </row>
-    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1032" s="12"/>
-    </row>
-    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1033" s="12"/>
-    </row>
-    <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1034" s="12"/>
-    </row>
-    <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1035" s="12"/>
-    </row>
-    <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1036" s="12"/>
-    </row>
-    <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1037" s="12"/>
-    </row>
-    <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1038" s="12"/>
-    </row>
-    <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1039" s="12"/>
-    </row>
-    <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1040" s="12"/>
-    </row>
-    <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1041" s="12"/>
-    </row>
-    <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1042" s="12"/>
-    </row>
-    <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1043" s="12"/>
-    </row>
-    <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1044" s="12"/>
-    </row>
-    <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1045" s="12"/>
-    </row>
-    <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1046" s="12"/>
-    </row>
-    <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1047" s="12"/>
-    </row>
-    <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1048" s="12"/>
-    </row>
-    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1049" s="12"/>
-    </row>
-    <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1050" s="12"/>
-    </row>
-    <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1051" s="12"/>
-    </row>
-    <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1052" s="12"/>
-    </row>
-    <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1053" s="12"/>
-    </row>
-    <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1054" s="12"/>
-    </row>
-    <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1055" s="12"/>
-    </row>
-    <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1056" s="12"/>
-    </row>
-    <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1057" s="12"/>
-    </row>
-    <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1058" s="12"/>
-    </row>
-    <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1059" s="12"/>
-    </row>
-    <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1060" s="12"/>
-    </row>
-    <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1061" s="12"/>
-    </row>
-    <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1062" s="12"/>
-    </row>
-    <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1063" s="12"/>
-    </row>
-    <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1064" s="12"/>
-    </row>
-    <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1065" s="12"/>
-    </row>
-    <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1066" s="12"/>
-    </row>
-    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1067" s="12"/>
-    </row>
-    <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1068" s="12"/>
-    </row>
-    <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1069" s="12"/>
-    </row>
-    <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1070" s="12"/>
-    </row>
-    <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1071" s="12"/>
-    </row>
-    <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1072" s="12"/>
-    </row>
-    <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1073" s="12"/>
-    </row>
-    <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1074" s="12"/>
-    </row>
-    <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1075" s="12"/>
-    </row>
-    <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1076" s="12"/>
-    </row>
-    <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1077" s="12"/>
-    </row>
-    <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1078" s="12"/>
-    </row>
-    <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1079" s="12"/>
-    </row>
-    <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1080" s="12"/>
-    </row>
-    <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1081" s="12"/>
-    </row>
-    <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1082" s="12"/>
-    </row>
-    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1083" s="12"/>
-    </row>
-    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1084" s="12"/>
-    </row>
-    <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1085" s="12"/>
-    </row>
-    <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1086" s="12"/>
-    </row>
-    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1087" s="12"/>
-    </row>
-    <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1088" s="12"/>
-    </row>
-    <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1089" s="12"/>
-    </row>
-    <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1090" s="12"/>
-    </row>
-    <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1091" s="12"/>
-    </row>
-    <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1092" s="12"/>
-    </row>
-    <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1093" s="12"/>
-    </row>
-    <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1094" s="12"/>
-    </row>
-    <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1095" s="12"/>
-    </row>
-    <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1096" s="12"/>
-    </row>
-    <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1097" s="12"/>
-    </row>
-    <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1098" s="12"/>
-    </row>
-    <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1099" s="12"/>
-    </row>
-    <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1100" s="12"/>
-    </row>
-    <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1101" s="12"/>
-    </row>
-    <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1102" s="12"/>
-    </row>
-    <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1103" s="12"/>
-    </row>
-    <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1104" s="12"/>
-    </row>
-    <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1105" s="12"/>
-    </row>
-    <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1106" s="12"/>
-    </row>
-    <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1107" s="12"/>
-    </row>
-    <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1108" s="12"/>
-    </row>
-    <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1109" s="12"/>
-    </row>
-    <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1110" s="12"/>
-    </row>
-    <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1111" s="12"/>
-    </row>
-    <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1112" s="12"/>
-    </row>
-    <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1113" s="12"/>
-    </row>
-    <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1114" s="12"/>
-    </row>
-    <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1115" s="12"/>
-    </row>
-    <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1116" s="12"/>
-    </row>
-    <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1117" s="12"/>
-    </row>
-    <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1118" s="12"/>
-    </row>
-    <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1119" s="12"/>
-    </row>
-    <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1120" s="12"/>
-    </row>
-    <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1121" s="12"/>
-    </row>
-    <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1122" s="12"/>
-    </row>
-    <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1123" s="12"/>
-    </row>
-    <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1124" s="12"/>
-    </row>
-    <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1125" s="12"/>
-    </row>
-    <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1126" s="12"/>
-    </row>
-    <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1127" s="12"/>
-    </row>
-    <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1128" s="12"/>
-    </row>
-    <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1129" s="12"/>
-    </row>
-    <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1130" s="12"/>
-    </row>
-    <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1131" s="12"/>
-    </row>
-    <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1132" s="12"/>
-    </row>
-    <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1133" s="12"/>
-    </row>
-    <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1134" s="12"/>
-    </row>
-    <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1135" s="12"/>
-    </row>
-    <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1136" s="12"/>
-    </row>
-    <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1137" s="12"/>
-    </row>
-    <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1138" s="12"/>
-    </row>
-    <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1139" s="12"/>
-    </row>
-    <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1140" s="12"/>
-    </row>
-    <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1141" s="12"/>
-    </row>
-    <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1142" s="12"/>
-    </row>
-    <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1143" s="12"/>
-    </row>
-    <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1144" s="12"/>
-    </row>
-    <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1145" s="12"/>
-    </row>
-    <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1146" s="12"/>
-    </row>
-    <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1147" s="12"/>
-    </row>
-    <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1148" s="12"/>
-    </row>
-    <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1149" s="12"/>
-    </row>
-    <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1150" s="12"/>
-    </row>
-    <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1151" s="12"/>
-    </row>
-    <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1152" s="12"/>
-    </row>
-    <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1153" s="12"/>
-    </row>
-    <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1154" s="12"/>
-    </row>
-    <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1155" s="12"/>
-    </row>
-    <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1156" s="12"/>
-    </row>
-    <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1157" s="12"/>
-    </row>
-    <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1158" s="12"/>
-    </row>
-    <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1159" s="12"/>
-    </row>
-    <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1160" s="12"/>
-    </row>
-    <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1161" s="12"/>
-    </row>
-    <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1162" s="12"/>
-    </row>
-    <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1163" s="12"/>
-    </row>
-    <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1164" s="12"/>
-    </row>
-    <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1165" s="12"/>
-    </row>
-    <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1166" s="12"/>
-    </row>
-    <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1167" s="12"/>
-    </row>
-    <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1168" s="12"/>
-    </row>
-    <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1169" s="12"/>
-    </row>
-    <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1170" s="12"/>
-    </row>
-    <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1171" s="12"/>
-    </row>
-    <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1172" s="12"/>
-    </row>
-    <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1173" s="12"/>
-    </row>
-    <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1174" s="12"/>
-    </row>
-    <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1175" s="12"/>
-    </row>
-    <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1176" s="12"/>
-    </row>
-    <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1177" s="12"/>
-    </row>
-    <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1178" s="12"/>
-    </row>
-    <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1179" s="12"/>
-    </row>
-    <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1180" s="12"/>
-    </row>
-    <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1181" s="12"/>
-    </row>
-    <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1182" s="12"/>
-    </row>
-    <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1183" s="12"/>
-    </row>
-    <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1184" s="12"/>
-    </row>
-    <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1185" s="12"/>
-    </row>
-    <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1186" s="12"/>
-    </row>
-    <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1187" s="12"/>
-    </row>
-    <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1188" s="12"/>
-    </row>
-    <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1189" s="12"/>
+      <c r="C292" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C1189" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C288 C293:C1189" type="list">
       <formula1>controlled_vocabulary!$A$4:$A$10003</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -8665,24 +5964,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="C292 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>298</v>
+      <c r="A1" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>299</v>
+      <c r="A3" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
   <si>
     <t xml:space="preserve">cell_type</t>
   </si>
@@ -186,730 +186,736 @@
     <t xml:space="preserve">cytotoxicity score</t>
   </si>
   <si>
+    <t xml:space="preserve">immune score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microenvironment score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumor purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroma score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ Th1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ Th2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell follicular helper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ central memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD4+ effector memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ central memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell CD8+ effector memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell MAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta VD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell gamma delta non-VD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncharacterized cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cell immature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_cell_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibersort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B cells naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B cells memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells follicular helper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells gamma delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eosinophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cibersort_abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cell.CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cell.CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basophils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ T-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chondrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epithelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythrocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibroblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keratinocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ly Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megakaryocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesangial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv Endothelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naive B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osteoblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pericytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preadipocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro B-cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeletal muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tgd cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th1 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th2 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tregs</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImmuneScore</t>
   </si>
   <si>
-    <t xml:space="preserve">microenvironment score</t>
+    <t xml:space="preserve">StromaScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8 T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B lineage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantiseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages.M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages.M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK.cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.cells.CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.cells.CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic.cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4_Tcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8_Tcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endothelial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKcells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherCells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available as 1-SUM(scores), no mapping required here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schelker_single_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanoma cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages/Monocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer associated fibroblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural killer cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovarian carcinoma cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">racle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4 T cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancer cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantiseq_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_method1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method for unit test. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages.M0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4+ Tcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8+ Tcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD8 Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 Naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD8 Naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T CD4 Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T gd Vd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophils LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T gd non-Vd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basophils LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes NC+I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mDCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pDCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasmablasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consensus_tme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytotoxic_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAST cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cells_CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cells_CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cells_gamma_delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_regulatory_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages_M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrophages_M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immune_Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmcp_counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B derived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory B cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocytes / macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granulocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vessels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibroblasts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqimmucc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4 T Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8 T Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendritic Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev_B_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stromal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plasmacytoid_DCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKT_cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4_Naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4_Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8_Eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8_Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8_Naive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_cells_gamma_delta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StromalScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATEScore</t>
   </si>
   <si>
     <t xml:space="preserve">TumorPurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATEScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromalScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta non-VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncharacterized cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stroma score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroenvironmentScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic lymphocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherCells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">available as 1-SUM(scores), no mapping required here. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">schelker_single_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages/Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_method1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method for unit test. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd non-Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes NC+I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmablasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consensus_tme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAST cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_gamma_delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_regulatory_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune_Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B derived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes / macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vessels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphatics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seqimmucc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev_B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stromal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmacytoid_DCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_gamma_delta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
@@ -1127,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1139,7 +1145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2872080" y="149760"/>
-          <a:ext cx="1633680" cy="254520"/>
+          <a:ext cx="1633320" cy="254160"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1170,9 +1176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1182,7 +1188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2872080" y="340920"/>
-          <a:ext cx="1633680" cy="254160"/>
+          <a:ext cx="1633320" cy="253800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1214,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="C292 A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1978,11 +1984,11 @@
   </sheetPr>
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C292" activeCellId="0" sqref="C292"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C295" activeCellId="0" sqref="C295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.71"/>
@@ -3606,10 +3612,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -3623,7 +3629,7 @@
         <v>179</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3634,7 +3640,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>55</v>
@@ -3645,10 +3651,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>26</v>
@@ -3659,10 +3665,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>60</v>
@@ -3673,10 +3679,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>53</v>
@@ -3687,7 +3693,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>162</v>
@@ -3701,10 +3707,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>9</v>
@@ -3715,7 +3721,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>37</v>
@@ -3724,14 +3730,14 @@
         <v>33</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>37</v>
@@ -3740,17 +3746,17 @@
         <v>32</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>38</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>109</v>
@@ -3775,7 +3781,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>138</v>
@@ -3789,7 +3795,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>141</v>
@@ -3803,10 +3809,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>9</v>
@@ -3817,10 +3823,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>30</v>
@@ -3831,10 +3837,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>31</v>
@@ -3845,7 +3851,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>100</v>
@@ -3859,7 +3865,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>109</v>
@@ -3873,10 +3879,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>24</v>
@@ -3887,10 +3893,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>64</v>
@@ -3901,10 +3907,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>60</v>
@@ -3915,7 +3921,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>177</v>
@@ -3929,10 +3935,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>38</v>
@@ -3943,10 +3949,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>82</v>
@@ -3957,10 +3963,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>9</v>
@@ -3971,10 +3977,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>51</v>
@@ -3985,10 +3991,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>59</v>
@@ -3999,10 +4005,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>60</v>
@@ -4013,10 +4019,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>52</v>
@@ -4027,7 +4033,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>149</v>
@@ -4041,7 +4047,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>100</v>
@@ -4055,10 +4061,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>24</v>
@@ -4069,7 +4075,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>109</v>
@@ -4083,26 +4089,26 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>9</v>
@@ -4113,10 +4119,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>60</v>
@@ -4127,10 +4133,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>15</v>
@@ -4141,10 +4147,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>64</v>
@@ -4155,10 +4161,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>32</v>
@@ -4169,10 +4175,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="9"/>
@@ -4181,10 +4187,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>67</v>
@@ -4195,10 +4201,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>51</v>
@@ -4209,10 +4215,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>25</v>
@@ -4223,7 +4229,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>138</v>
@@ -4237,10 +4243,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>24</v>
@@ -4251,10 +4257,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>17</v>
@@ -4265,10 +4271,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>26</v>
@@ -4279,10 +4285,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>24</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>115</v>
@@ -4307,10 +4313,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>33</v>
@@ -4321,10 +4327,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>9</v>
@@ -4335,10 +4341,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>9</v>
@@ -4349,10 +4355,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>59</v>
@@ -4363,10 +4369,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>60</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>162</v>
@@ -4391,10 +4397,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>16</v>
@@ -4405,10 +4411,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>9</v>
@@ -4419,10 +4425,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>42</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>102</v>
@@ -4447,7 +4453,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>103</v>
@@ -4461,7 +4467,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>100</v>
@@ -4475,7 +4481,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>109</v>
@@ -4489,7 +4495,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>162</v>
@@ -4503,10 +4509,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>59</v>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>91</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>177</v>
@@ -4545,42 +4551,42 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>59</v>
@@ -4591,10 +4597,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>60</v>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>24</v>
@@ -4619,7 +4625,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>28</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>33</v>
@@ -4647,10 +4653,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>46</v>
@@ -4661,10 +4667,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>24</v>
@@ -4675,10 +4681,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>73</v>
@@ -4689,10 +4695,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>69</v>
@@ -4703,10 +4709,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>74</v>
@@ -4717,10 +4723,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>10</v>
@@ -4731,10 +4737,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>68</v>
@@ -4745,10 +4751,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>79</v>
@@ -4759,10 +4765,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>80</v>
@@ -4773,10 +4779,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>48</v>
@@ -4787,10 +4793,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>81</v>
@@ -4801,10 +4807,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>39</v>
@@ -4815,10 +4821,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>47</v>
@@ -4829,10 +4835,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>8</v>
@@ -4842,10 +4848,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>38</v>
@@ -4856,10 +4862,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>25</v>
@@ -4870,10 +4876,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>14</v>
@@ -4884,10 +4890,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>9</v>
@@ -4898,10 +4904,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>53</v>
@@ -4912,10 +4918,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>38</v>
@@ -4926,7 +4932,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>108</v>
@@ -4940,7 +4946,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>149</v>
@@ -4954,13 +4960,13 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B212" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -4968,10 +4974,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>24</v>
@@ -4982,7 +4988,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>109</v>
@@ -4996,10 +5002,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C215" s="10" t="s">
         <v>59</v>
@@ -5010,10 +5016,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C216" s="10" t="s">
         <v>60</v>
@@ -5024,10 +5030,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>61</v>
@@ -5038,10 +5044,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C218" s="10" t="s">
         <v>67</v>
@@ -5052,10 +5058,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C219" s="10" t="s">
         <v>30</v>
@@ -5066,10 +5072,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C220" s="10" t="s">
         <v>31</v>
@@ -5080,10 +5086,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" s="10" t="s">
         <v>52</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>141</v>
@@ -5108,7 +5114,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>100</v>
@@ -5122,13 +5128,13 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -5136,10 +5142,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>26</v>
@@ -5150,10 +5156,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>60</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>162</v>
@@ -5178,10 +5184,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>9</v>
@@ -5192,10 +5198,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>8</v>
@@ -5206,10 +5212,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>32</v>
@@ -5220,7 +5226,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>100</v>
@@ -5234,10 +5240,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>41</v>
@@ -5248,13 +5254,13 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>108</v>
@@ -5276,7 +5282,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>109</v>
@@ -5290,7 +5296,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>121</v>
@@ -5304,10 +5310,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9" t="s">
@@ -5318,10 +5324,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9" t="s">
@@ -5332,7 +5338,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>138</v>
@@ -5346,10 +5352,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>51</v>
@@ -5360,10 +5366,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>9</v>
@@ -5374,10 +5380,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>59</v>
@@ -5388,10 +5394,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>60</v>
@@ -5402,10 +5408,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>38</v>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>108</v>
@@ -5424,7 +5430,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>149</v>
@@ -5435,18 +5441,18 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>100</v>
@@ -5457,7 +5463,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>109</v>
@@ -5468,10 +5474,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>24</v>
@@ -5479,10 +5485,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>9</v>
@@ -5490,10 +5496,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>10</v>
@@ -5501,21 +5507,21 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C254" s="9" t="s">
         <v>38</v>
@@ -5523,10 +5529,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>25</v>
@@ -5534,10 +5540,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>41</v>
@@ -5545,7 +5551,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>149</v>
@@ -5556,10 +5562,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>84</v>
@@ -5567,7 +5573,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>100</v>
@@ -5578,10 +5584,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>24</v>
@@ -5589,10 +5595,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>63</v>
@@ -5600,10 +5606,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>83</v>
@@ -5611,10 +5617,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>69</v>
@@ -5622,10 +5628,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>67</v>
@@ -5633,10 +5639,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>68</v>
@@ -5644,10 +5650,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>78</v>
@@ -5655,10 +5661,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>73</v>
@@ -5666,10 +5672,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>74</v>
@@ -5677,10 +5683,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C269" s="10" t="s">
         <v>61</v>
@@ -5688,10 +5694,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>9</v>
@@ -5699,10 +5705,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -5710,21 +5716,21 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>38</v>
@@ -5732,10 +5738,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>25</v>
@@ -5743,10 +5749,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>41</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>149</v>
@@ -5765,10 +5771,10 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>84</v>
@@ -5776,7 +5782,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>100</v>
@@ -5787,10 +5793,10 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>24</v>
@@ -5798,10 +5804,10 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>63</v>
@@ -5809,10 +5815,10 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>83</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>69</v>
@@ -5831,10 +5837,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>67</v>
@@ -5842,10 +5848,10 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>68</v>
@@ -5853,10 +5859,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>78</v>
@@ -5864,10 +5870,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>73</v>
@@ -5875,10 +5881,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>74</v>
@@ -5886,10 +5892,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>61</v>
@@ -5897,10 +5903,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>58</v>
@@ -5908,10 +5914,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>54</v>
@@ -5919,10 +5925,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>57</v>
@@ -5930,10 +5936,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>56</v>
@@ -5964,19 +5970,19 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="C292 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19560992-888F-4C02-9FE9-0DC03BA43680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-13635" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="mapping" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,937 +27,1021 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
-  <si>
-    <t xml:space="preserve">cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root is a protected entity in the data.tree library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma mature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myeloid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common lymphoid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmacytoid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all macro cells" if they do only distinguish M1/M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage/Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytic lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common myeloid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocyte-monocyte progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte conventional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte non-conventional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytotoxicity score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microenvironment score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tumor purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stroma score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="334">
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>root2</t>
+  </si>
+  <si>
+    <t>root is a protected entity in the data.tree library</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>B cell memory</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>B cell naive</t>
+  </si>
+  <si>
+    <t>B cell plasma</t>
+  </si>
+  <si>
+    <t>Class-switched memory B cell</t>
+  </si>
+  <si>
+    <t>B cell plasma mature</t>
+  </si>
+  <si>
+    <t>B cell plasma immature</t>
+  </si>
+  <si>
+    <t>Melanoma cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cell</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>other cell</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell</t>
+  </si>
+  <si>
+    <t>lymphoid</t>
+  </si>
+  <si>
+    <t>myeloid</t>
+  </si>
+  <si>
+    <t>Common lymphoid progenitor</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t>Plasmacytoid dendritic cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Macrophage M0</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all macro cells" if they do only distinguish M1/M2</t>
+  </si>
+  <si>
+    <t>Macrophage M1</t>
+  </si>
+  <si>
+    <t>Macrophage M2</t>
+  </si>
+  <si>
+    <t>Macrophage/Monocyte</t>
+  </si>
+  <si>
+    <t>Monocyte</t>
+  </si>
+  <si>
+    <t>Mast cell activated</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>Mast cell resting</t>
+  </si>
+  <si>
+    <t>Monocytic lineage</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>Basophil</t>
+  </si>
+  <si>
+    <t>Common myeloid progenitor</t>
+  </si>
+  <si>
+    <t>Granulocyte-monocyte progenitor</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell activated</t>
+  </si>
+  <si>
+    <t>only in cibersort</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell resting</t>
+  </si>
+  <si>
+    <t>Eosinophil</t>
+  </si>
+  <si>
+    <t>Monocyte conventional</t>
+  </si>
+  <si>
+    <t>Monocyte non-conventional</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>NK cell activated</t>
+  </si>
+  <si>
+    <t>NK cell resting</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>cytotoxicity score</t>
+  </si>
+  <si>
+    <t>immune score</t>
+  </si>
+  <si>
+    <t>microenvironment score</t>
+  </si>
+  <si>
+    <t>tumor purity</t>
+  </si>
+  <si>
+    <t>estimate score</t>
+  </si>
+  <si>
+    <t>stroma score</t>
+  </si>
+  <si>
+    <t>T cell CD4+</t>
+  </si>
+  <si>
+    <t>T cell CD8+</t>
+  </si>
+  <si>
+    <t>T cell gamma delta</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t>T cell NK</t>
+  </si>
+  <si>
+    <t>T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th1</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th2</t>
+  </si>
+  <si>
+    <t>T cell regulatory (Tregs)</t>
   </si>
   <si>
     <t xml:space="preserve">T cell CD4+ memory </t>
   </si>
   <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta non-VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncharacterized cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
+    <t>T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t>T cell follicular helper</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t>T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t>T cell CD4+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD4+ effector memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ effector memory</t>
+  </si>
+  <si>
+    <t>T cell MAIT</t>
+  </si>
+  <si>
+    <t>T cell gamma delta VD2</t>
+  </si>
+  <si>
+    <t>T cell gamma delta non-VD2</t>
+  </si>
+  <si>
+    <t>uncharacterized cell</t>
+  </si>
+  <si>
+    <t>T cell immature</t>
+  </si>
+  <si>
+    <t>Stem cell</t>
+  </si>
+  <si>
+    <t>method_dataset</t>
+  </si>
+  <si>
+    <t>method_cell_type</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t>B cells naive</t>
+  </si>
+  <si>
+    <t>B cells memory</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>T cells CD8</t>
+  </si>
+  <si>
+    <t>T cells CD4 naive</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t>T cells follicular helper</t>
+  </si>
+  <si>
+    <t>T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cells gamma delta</t>
+  </si>
+  <si>
+    <t>NK cells resting</t>
+  </si>
+  <si>
+    <t>NK cells activated</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Macrophages M0</t>
+  </si>
+  <si>
+    <t>Macrophages M1</t>
+  </si>
+  <si>
+    <t>Macrophages M2</t>
+  </si>
+  <si>
+    <t>Dendritic cells resting</t>
+  </si>
+  <si>
+    <t>Dendritic cells activated</t>
+  </si>
+  <si>
+    <t>Mast cells resting</t>
+  </si>
+  <si>
+    <t>Mast cells activated</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>B_cell</t>
+  </si>
+  <si>
+    <t>T_cell.CD4</t>
+  </si>
+  <si>
+    <t>T_cell.CD8</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>xcell</t>
+  </si>
+  <si>
+    <t>aDC</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>Cell-type not related to immuno-oncology</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>B-cells</t>
+  </si>
+  <si>
+    <t>CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tcm</t>
+  </si>
+  <si>
+    <t>CD4+ Tem</t>
+  </si>
+  <si>
+    <t>CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ Tcm</t>
+  </si>
+  <si>
+    <t>CD8+ Tem</t>
+  </si>
+  <si>
+    <t>cDC</t>
+  </si>
+  <si>
+    <t>another option for mDC (but already mapped to DC)</t>
+  </si>
+  <si>
+    <t>Chondrocytes</t>
+  </si>
+  <si>
+    <t>Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial cells</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Hepatocytes</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>iDC</t>
   </si>
   <si>
     <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
   </si>
   <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmuneScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroenvironmentScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic lymphocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B lineage</t>
+    <t>Keratinocytes</t>
+  </si>
+  <si>
+    <t>ly Endothelial cells</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>Melanocytes</t>
+  </si>
+  <si>
+    <t>Memory B-cells</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Mesangial cells</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>mv Endothelial cells</t>
+  </si>
+  <si>
+    <t>Myocytes</t>
+  </si>
+  <si>
+    <t>naive B-cells</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>NK cells</t>
+  </si>
+  <si>
+    <t>NKT</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Pericytes</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Preadipocytes</t>
+  </si>
+  <si>
+    <t>pro B-cells</t>
+  </si>
+  <si>
+    <t>does not fit in tree, not a distinct state</t>
+  </si>
+  <si>
+    <t>Sebocytes</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Smooth muscle</t>
+  </si>
+  <si>
+    <t>Tgd cells</t>
+  </si>
+  <si>
+    <t>Th1 cells</t>
+  </si>
+  <si>
+    <t>Th2 cells</t>
+  </si>
+  <si>
+    <t>Tregs</t>
+  </si>
+  <si>
+    <t>ImmuneScore</t>
+  </si>
+  <si>
+    <t>StromaScore</t>
+  </si>
+  <si>
+    <t>MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t>B lineage</t>
   </si>
   <si>
     <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
   </si>
   <si>
-    <t xml:space="preserve">Myeloid dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherCells</t>
+    <t>Myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>B.cells</t>
+  </si>
+  <si>
+    <t>Macrophages.M1</t>
+  </si>
+  <si>
+    <t>Macrophages.M2</t>
+  </si>
+  <si>
+    <t>NK.cells</t>
+  </si>
+  <si>
+    <t>T.cells.CD4</t>
+  </si>
+  <si>
+    <t>T.cells.CD8</t>
+  </si>
+  <si>
+    <t>Dendritic.cells</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>Bcells</t>
+  </si>
+  <si>
+    <t>CAFs</t>
+  </si>
+  <si>
+    <t>CD4_Tcells</t>
+  </si>
+  <si>
+    <t>CD8_Tcells</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>NKcells</t>
+  </si>
+  <si>
+    <t>otherCells</t>
   </si>
   <si>
     <t xml:space="preserve">available as 1-SUM(scores), no mapping required here. </t>
   </si>
   <si>
-    <t xml:space="preserve">schelker_single_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages/Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_method1</t>
+    <t>schelker_single_cell</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>CD8+ T cells</t>
+  </si>
+  <si>
+    <t>Melanoma cells</t>
+  </si>
+  <si>
+    <t>CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Macrophages/Monocytes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>regulatory T cells</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblasts</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>Natural killer cells</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cells</t>
+  </si>
+  <si>
+    <t>hoek</t>
+  </si>
+  <si>
+    <t>Tcell</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>racle</t>
+  </si>
+  <si>
+    <t>CD4 T cells</t>
+  </si>
+  <si>
+    <t>cancer cells</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>test_method1</t>
   </si>
   <si>
     <t xml:space="preserve">method for unit test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Macrophages.M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd non-Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes NC+I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmablasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consensus_tme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAST cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_gamma_delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_regulatory_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune_Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B derived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes / macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vessels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphatics</t>
+    <t>Macrophages.M0</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>CD4+ Tcell</t>
+  </si>
+  <si>
+    <t>CD8+ Tcell</t>
+  </si>
+  <si>
+    <t>abis</t>
+  </si>
+  <si>
+    <t>Monocytes C</t>
+  </si>
+  <si>
+    <t>T CD8 Memory</t>
+  </si>
+  <si>
+    <t>T CD4 Naive</t>
+  </si>
+  <si>
+    <t>T CD8 Naive</t>
+  </si>
+  <si>
+    <t>B Naive</t>
+  </si>
+  <si>
+    <t>T CD4 Memory</t>
+  </si>
+  <si>
+    <t>MAIT</t>
+  </si>
+  <si>
+    <t>T gd Vd2</t>
+  </si>
+  <si>
+    <t>Neutrophils LD</t>
+  </si>
+  <si>
+    <t>T gd non-Vd2</t>
+  </si>
+  <si>
+    <t>Basophils LD</t>
+  </si>
+  <si>
+    <t>Monocytes NC+I</t>
+  </si>
+  <si>
+    <t>B Memory</t>
+  </si>
+  <si>
+    <t>mDCs</t>
+  </si>
+  <si>
+    <t>pDCs</t>
+  </si>
+  <si>
+    <t>Plasmablasts</t>
+  </si>
+  <si>
+    <t>consensus_tme</t>
+  </si>
+  <si>
+    <t>B_cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic_cells</t>
+  </si>
+  <si>
+    <t>Dendritic_cells</t>
+  </si>
+  <si>
+    <t>Mast_cells</t>
+  </si>
+  <si>
+    <t>MAST cell</t>
+  </si>
+  <si>
+    <t>NK_cells</t>
+  </si>
+  <si>
+    <t>T_cells_CD4</t>
+  </si>
+  <si>
+    <t>T_cells_CD8</t>
+  </si>
+  <si>
+    <t>T_cells_gamma_delta</t>
+  </si>
+  <si>
+    <t>T_regulatory_cells</t>
+  </si>
+  <si>
+    <t>Macrophages_M1</t>
+  </si>
+  <si>
+    <t>Macrophages_M2</t>
+  </si>
+  <si>
+    <t>Immune_Score</t>
+  </si>
+  <si>
+    <t>mmcp_counter</t>
+  </si>
+  <si>
+    <t>B derived</t>
+  </si>
+  <si>
+    <t>Memory B cells</t>
+  </si>
+  <si>
+    <t>Monocytes / macrophages</t>
+  </si>
+  <si>
+    <t>Granulocytes</t>
+  </si>
+  <si>
+    <t>Vessels</t>
+  </si>
+  <si>
+    <t>Lymphatics</t>
   </si>
   <si>
     <t xml:space="preserve">Fibroblasts </t>
   </si>
   <si>
-    <t xml:space="preserve">seqimmucc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev_B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stromal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmacytoid_DCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Naive</t>
+    <t>seqimmucc</t>
+  </si>
+  <si>
+    <t>B Cells</t>
+  </si>
+  <si>
+    <t>CD4 T Cells</t>
+  </si>
+  <si>
+    <t>CD8 T Cells</t>
+  </si>
+  <si>
+    <t>Dendritic Cells</t>
+  </si>
+  <si>
+    <t>Mast Cells</t>
+  </si>
+  <si>
+    <t>NK Cells</t>
+  </si>
+  <si>
+    <t>dcq</t>
+  </si>
+  <si>
+    <t>Dev_B_cells</t>
+  </si>
+  <si>
+    <t>Stromal</t>
+  </si>
+  <si>
+    <t>plasmacytoid_DCs</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>NKT_cells</t>
+  </si>
+  <si>
+    <t>Thymocytes</t>
+  </si>
+  <si>
+    <t>CD4_Naive</t>
+  </si>
+  <si>
+    <t>T-reg</t>
+  </si>
+  <si>
+    <t>CD4_Memory</t>
+  </si>
+  <si>
+    <t>CD8_Eff</t>
+  </si>
+  <si>
+    <t>CD8_Memory</t>
+  </si>
+  <si>
+    <t>CD8_Naive</t>
   </si>
   <si>
     <t xml:space="preserve">T_cells_gamma_delta </t>
   </si>
   <si>
-    <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromalScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATEScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TumorPurity</t>
+    <t>base</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>StromalScore</t>
+  </si>
+  <si>
+    <t>ESTIMATEScore</t>
+  </si>
+  <si>
+    <t>TumorPurity</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
   <si>
-    <t xml:space="preserve">mapping contains the mapping between methods/datasets</t>
+    <t>mapping contains the mapping between methods/datasets</t>
+  </si>
+  <si>
+    <t>T_cell</t>
+  </si>
+  <si>
+    <t>B1_cell</t>
+  </si>
+  <si>
+    <t>Follicular_B</t>
+  </si>
+  <si>
+    <t>Germinal_center_B</t>
+  </si>
+  <si>
+    <t>Marginal_Zone_B</t>
+  </si>
+  <si>
+    <t>Memory_B</t>
+  </si>
+  <si>
+    <t>Plasma_cell</t>
+  </si>
+  <si>
+    <t>cDC1</t>
+  </si>
+  <si>
+    <t>cDC2</t>
+  </si>
+  <si>
+    <t>MoDC</t>
+  </si>
+  <si>
+    <t>M1_macrophage</t>
+  </si>
+  <si>
+    <t>M2_macrophage</t>
+  </si>
+  <si>
+    <t>CD4_T_cell</t>
+  </si>
+  <si>
+    <t>CD8_T_cell</t>
+  </si>
+  <si>
+    <t>Tgd</t>
+  </si>
+  <si>
+    <t>CD4_Tm</t>
+  </si>
+  <si>
+    <t>Naive_CD4_T</t>
+  </si>
+  <si>
+    <t>T_helper_cell</t>
+  </si>
+  <si>
+    <t>CD8_Tcm</t>
+  </si>
+  <si>
+    <t>CD8_Tc</t>
+  </si>
+  <si>
+    <t>CD8_T_em</t>
+  </si>
+  <si>
+    <t>CD8_Tex</t>
+  </si>
+  <si>
+    <t>Naive_CD8_T</t>
+  </si>
+  <si>
+    <t>immucellai_mouse</t>
+  </si>
+  <si>
+    <t>Dendritic cell</t>
+  </si>
+  <si>
+    <t>B1 cell</t>
+  </si>
+  <si>
+    <t>B cell follicular</t>
+  </si>
+  <si>
+    <t>B cell germinal center</t>
+  </si>
+  <si>
+    <t>B cell marginal zone</t>
+  </si>
+  <si>
+    <t>Monocyte-derived Dendritic cell</t>
+  </si>
+  <si>
+    <t>conventional Dendritic cell type 1</t>
+  </si>
+  <si>
+    <t>conventional Dendritic cell type 2</t>
+  </si>
+  <si>
+    <t>T cell CD8+ exhausted</t>
+  </si>
+  <si>
+    <t>T cell CD8+ cytotoxic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -962,14 +1051,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -983,7 +1072,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -991,7 +1080,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1002,7 +1091,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1015,7 +1103,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1028,7 +1115,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1036,94 +1123,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1137,9 +1177,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1153,15 +1199,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1180,9 +1232,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1196,15 +1254,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1213,28 +1277,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.14"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="27.140625" style="1" customWidth="1"/>
+    <col min="16" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1296,18 +1652,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1315,687 +1671,766 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B72 B75 B77:B1070" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84:B85 B87:B1080 B1:B81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F292"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C295" activeCellId="0" sqref="C295"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="29.86"/>
+    <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
@@ -2011,7 +2446,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2460,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2474,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
@@ -2053,7 +2488,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
@@ -2067,7 +2502,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
@@ -2081,7 +2516,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
@@ -2095,7 +2530,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>87</v>
       </c>
@@ -2109,7 +2544,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
@@ -2123,7 +2558,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>87</v>
       </c>
@@ -2137,7 +2572,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
@@ -2151,7 +2586,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +2600,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
@@ -2179,7 +2614,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
@@ -2193,7 +2628,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -2207,7 +2642,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>87</v>
       </c>
@@ -2221,7 +2656,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>87</v>
       </c>
@@ -2235,7 +2670,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
@@ -2249,7 +2684,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>87</v>
       </c>
@@ -2263,7 +2698,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
@@ -2277,7 +2712,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
@@ -2291,7 +2726,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
@@ -2305,7 +2740,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
@@ -2319,7 +2754,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -2333,7 +2768,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>110</v>
       </c>
@@ -2347,7 +2782,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
@@ -2361,7 +2796,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>110</v>
       </c>
@@ -2375,7 +2810,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>110</v>
       </c>
@@ -2389,7 +2824,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
         <v>110</v>
       </c>
@@ -2403,7 +2838,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>110</v>
       </c>
@@ -2417,7 +2852,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
@@ -2431,7 +2866,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
@@ -2445,7 +2880,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
@@ -2459,7 +2894,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
@@ -2473,7 +2908,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
@@ -2487,7 +2922,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
@@ -2501,7 +2936,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
@@ -2515,7 +2950,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
@@ -2529,7 +2964,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2543,7 +2978,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
         <v>110</v>
       </c>
@@ -2557,7 +2992,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
@@ -2571,7 +3006,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
         <v>110</v>
       </c>
@@ -2585,7 +3020,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
         <v>110</v>
       </c>
@@ -2599,7 +3034,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
         <v>110</v>
       </c>
@@ -2613,7 +3048,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
         <v>110</v>
       </c>
@@ -2627,7 +3062,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
         <v>111</v>
       </c>
@@ -2641,7 +3076,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
         <v>111</v>
       </c>
@@ -2655,7 +3090,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
@@ -2669,7 +3104,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
         <v>111</v>
       </c>
@@ -2683,7 +3118,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
         <v>111</v>
       </c>
@@ -2697,7 +3132,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
@@ -2711,7 +3146,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +3160,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
@@ -2739,7 +3174,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
@@ -2753,7 +3188,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -2767,7 +3202,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
         <v>116</v>
       </c>
@@ -2781,7 +3216,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
         <v>116</v>
       </c>
@@ -2795,7 +3230,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -2809,7 +3244,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
         <v>116</v>
       </c>
@@ -2823,7 +3258,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
         <v>116</v>
       </c>
@@ -2837,7 +3272,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
         <v>116</v>
       </c>
@@ -2851,7 +3286,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
         <v>116</v>
       </c>
@@ -2865,7 +3300,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +3314,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
         <v>116</v>
       </c>
@@ -2893,7 +3328,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
         <v>116</v>
       </c>
@@ -2907,7 +3342,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
         <v>116</v>
       </c>
@@ -2921,7 +3356,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
         <v>116</v>
       </c>
@@ -2935,7 +3370,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
@@ -2949,7 +3384,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
         <v>116</v>
       </c>
@@ -2963,7 +3398,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
         <v>116</v>
       </c>
@@ -2977,7 +3412,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
         <v>116</v>
       </c>
@@ -2991,7 +3426,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
         <v>116</v>
       </c>
@@ -3005,7 +3440,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
         <v>116</v>
       </c>
@@ -3019,7 +3454,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
         <v>116</v>
       </c>
@@ -3033,7 +3468,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
         <v>116</v>
       </c>
@@ -3047,7 +3482,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3496,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
         <v>116</v>
       </c>
@@ -3075,7 +3510,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
         <v>116</v>
       </c>
@@ -3089,7 +3524,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
         <v>116</v>
       </c>
@@ -3103,7 +3538,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
         <v>116</v>
       </c>
@@ -3117,7 +3552,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
         <v>116</v>
       </c>
@@ -3131,7 +3566,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -3145,7 +3580,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
@@ -3159,7 +3594,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
         <v>116</v>
       </c>
@@ -3173,7 +3608,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
         <v>116</v>
       </c>
@@ -3187,7 +3622,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
         <v>116</v>
       </c>
@@ -3201,7 +3636,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
         <v>116</v>
       </c>
@@ -3215,7 +3650,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
         <v>116</v>
       </c>
@@ -3229,7 +3664,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
         <v>116</v>
       </c>
@@ -3243,7 +3678,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
         <v>116</v>
       </c>
@@ -3257,7 +3692,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
         <v>116</v>
       </c>
@@ -3271,7 +3706,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
         <v>116</v>
       </c>
@@ -3285,7 +3720,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
         <v>116</v>
       </c>
@@ -3299,7 +3734,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
         <v>116</v>
       </c>
@@ -3313,7 +3748,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
         <v>116</v>
       </c>
@@ -3327,7 +3762,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
         <v>116</v>
       </c>
@@ -3341,7 +3776,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>116</v>
       </c>
@@ -3355,7 +3790,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>116</v>
       </c>
@@ -3369,7 +3804,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
         <v>116</v>
       </c>
@@ -3383,7 +3818,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>116</v>
       </c>
@@ -3397,7 +3832,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6">
       <c r="A101" s="8" t="s">
         <v>116</v>
       </c>
@@ -3411,7 +3846,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3860,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
         <v>116</v>
       </c>
@@ -3439,7 +3874,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
         <v>116</v>
       </c>
@@ -3453,7 +3888,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
         <v>116</v>
       </c>
@@ -3467,7 +3902,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
         <v>116</v>
       </c>
@@ -3481,7 +3916,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6">
       <c r="A107" s="8" t="s">
         <v>116</v>
       </c>
@@ -3495,7 +3930,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
         <v>116</v>
       </c>
@@ -3509,7 +3944,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6">
       <c r="A109" s="8" t="s">
         <v>116</v>
       </c>
@@ -3523,7 +3958,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
         <v>116</v>
       </c>
@@ -3537,7 +3972,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
         <v>116</v>
       </c>
@@ -3551,7 +3986,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6">
       <c r="A112" s="8" t="s">
         <v>116</v>
       </c>
@@ -3565,7 +4000,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
         <v>116</v>
       </c>
@@ -3579,7 +4014,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
         <v>116</v>
       </c>
@@ -3593,7 +4028,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
         <v>116</v>
       </c>
@@ -3607,7 +4042,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
@@ -3621,7 +4056,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -3635,7 +4070,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -3649,7 +4084,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
         <v>181</v>
       </c>
@@ -3663,7 +4098,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6">
       <c r="A120" s="8" t="s">
         <v>181</v>
       </c>
@@ -3677,7 +4112,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
         <v>181</v>
       </c>
@@ -3691,7 +4126,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
         <v>181</v>
       </c>
@@ -3705,7 +4140,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
         <v>181</v>
       </c>
@@ -3719,7 +4154,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
         <v>181</v>
       </c>
@@ -3735,7 +4170,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6">
       <c r="A125" s="8" t="s">
         <v>181</v>
       </c>
@@ -3751,7 +4186,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +4200,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6">
       <c r="A127" s="8" t="s">
         <v>181</v>
       </c>
@@ -3779,7 +4214,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
         <v>181</v>
       </c>
@@ -3793,7 +4228,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6">
       <c r="A129" s="8" t="s">
         <v>181</v>
       </c>
@@ -3807,7 +4242,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6">
       <c r="A130" s="8" t="s">
         <v>188</v>
       </c>
@@ -3821,7 +4256,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6">
       <c r="A131" s="8" t="s">
         <v>188</v>
       </c>
@@ -3835,7 +4270,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6">
       <c r="A132" s="8" t="s">
         <v>188</v>
       </c>
@@ -3849,7 +4284,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6">
       <c r="A133" s="8" t="s">
         <v>188</v>
       </c>
@@ -3863,7 +4298,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6">
       <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
@@ -3877,7 +4312,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6">
       <c r="A135" s="8" t="s">
         <v>188</v>
       </c>
@@ -3891,7 +4326,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6">
       <c r="A136" s="8" t="s">
         <v>188</v>
       </c>
@@ -3905,7 +4340,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6">
       <c r="A137" s="8" t="s">
         <v>188</v>
       </c>
@@ -3919,7 +4354,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6">
       <c r="A138" s="8" t="s">
         <v>188</v>
       </c>
@@ -3933,7 +4368,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6">
       <c r="A139" s="8" t="s">
         <v>188</v>
       </c>
@@ -3947,7 +4382,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6">
       <c r="A140" s="8" t="s">
         <v>188</v>
       </c>
@@ -3961,7 +4396,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6">
       <c r="A141" s="8" t="s">
         <v>197</v>
       </c>
@@ -3975,7 +4410,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6">
       <c r="A142" s="8" t="s">
         <v>197</v>
       </c>
@@ -3989,7 +4424,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
         <v>197</v>
       </c>
@@ -4003,7 +4438,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6">
       <c r="A144" s="8" t="s">
         <v>197</v>
       </c>
@@ -4017,7 +4452,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:6">
       <c r="A145" s="8" t="s">
         <v>197</v>
       </c>
@@ -4031,7 +4466,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
         <v>197</v>
       </c>
@@ -4045,7 +4480,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:6">
       <c r="A147" s="8" t="s">
         <v>197</v>
       </c>
@@ -4059,7 +4494,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
         <v>197</v>
       </c>
@@ -4073,7 +4508,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
         <v>197</v>
       </c>
@@ -4087,7 +4522,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:6">
       <c r="A150" s="8" t="s">
         <v>197</v>
       </c>
@@ -4103,7 +4538,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:6">
       <c r="A151" s="8" t="s">
         <v>206</v>
       </c>
@@ -4117,7 +4552,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:6">
       <c r="A152" s="8" t="s">
         <v>206</v>
       </c>
@@ -4131,7 +4566,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:6">
       <c r="A153" s="8" t="s">
         <v>206</v>
       </c>
@@ -4145,7 +4580,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:6">
       <c r="A154" s="8" t="s">
         <v>206</v>
       </c>
@@ -4159,7 +4594,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:6">
       <c r="A155" s="8" t="s">
         <v>206</v>
       </c>
@@ -4173,7 +4608,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
         <v>206</v>
       </c>
@@ -4185,7 +4620,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:6">
       <c r="A157" s="8" t="s">
         <v>206</v>
       </c>
@@ -4199,7 +4634,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:6">
       <c r="A158" s="8" t="s">
         <v>206</v>
       </c>
@@ -4213,7 +4648,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:6">
       <c r="A159" s="8" t="s">
         <v>206</v>
       </c>
@@ -4227,7 +4662,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:6">
       <c r="A160" s="8" t="s">
         <v>206</v>
       </c>
@@ -4241,7 +4676,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:6">
       <c r="A161" s="8" t="s">
         <v>206</v>
       </c>
@@ -4255,7 +4690,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:6">
       <c r="A162" s="8" t="s">
         <v>206</v>
       </c>
@@ -4269,7 +4704,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:6">
       <c r="A163" s="8" t="s">
         <v>218</v>
       </c>
@@ -4283,7 +4718,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:6">
       <c r="A164" s="8" t="s">
         <v>218</v>
       </c>
@@ -4297,7 +4732,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:6">
       <c r="A165" s="8" t="s">
         <v>218</v>
       </c>
@@ -4311,7 +4746,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:6">
       <c r="A166" s="8" t="s">
         <v>218</v>
       </c>
@@ -4325,7 +4760,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:6">
       <c r="A167" s="8" t="s">
         <v>218</v>
       </c>
@@ -4339,7 +4774,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:6">
       <c r="A168" s="8" t="s">
         <v>222</v>
       </c>
@@ -4353,7 +4788,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:6">
       <c r="A169" s="8" t="s">
         <v>222</v>
       </c>
@@ -4367,7 +4802,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:6">
       <c r="A170" s="8" t="s">
         <v>222</v>
       </c>
@@ -4381,7 +4816,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:6">
       <c r="A171" s="8" t="s">
         <v>222</v>
       </c>
@@ -4395,7 +4830,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:6">
       <c r="A172" s="8" t="s">
         <v>222</v>
       </c>
@@ -4409,7 +4844,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:6">
       <c r="A173" s="8" t="s">
         <v>225</v>
       </c>
@@ -4423,7 +4858,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:6">
       <c r="A174" s="8" t="s">
         <v>225</v>
       </c>
@@ -4437,7 +4872,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:6">
       <c r="A175" s="8" t="s">
         <v>225</v>
       </c>
@@ -4451,7 +4886,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:6">
       <c r="A176" s="8" t="s">
         <v>225</v>
       </c>
@@ -4465,7 +4900,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:6">
       <c r="A177" s="8" t="s">
         <v>225</v>
       </c>
@@ -4479,7 +4914,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:6">
       <c r="A178" s="8" t="s">
         <v>225</v>
       </c>
@@ -4493,7 +4928,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:6">
       <c r="A179" s="8" t="s">
         <v>225</v>
       </c>
@@ -4507,7 +4942,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:6">
       <c r="A180" s="8" t="s">
         <v>225</v>
       </c>
@@ -4521,7 +4956,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:6">
       <c r="A181" s="8" t="s">
         <v>225</v>
       </c>
@@ -4535,7 +4970,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:6">
       <c r="A182" s="8" t="s">
         <v>225</v>
       </c>
@@ -4549,7 +4984,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:6">
       <c r="A183" s="8" t="s">
         <v>227</v>
       </c>
@@ -4565,7 +5000,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:6">
       <c r="A184" s="8" t="s">
         <v>227</v>
       </c>
@@ -4581,7 +5016,7 @@
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:6">
       <c r="A185" s="8" t="s">
         <v>230</v>
       </c>
@@ -4595,7 +5030,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:6">
       <c r="A186" s="8" t="s">
         <v>230</v>
       </c>
@@ -4609,7 +5044,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:6">
       <c r="A187" s="8" t="s">
         <v>230</v>
       </c>
@@ -4623,7 +5058,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:6">
       <c r="A188" s="8" t="s">
         <v>230</v>
       </c>
@@ -4637,7 +5072,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:6">
       <c r="A189" s="8" t="s">
         <v>230</v>
       </c>
@@ -4651,7 +5086,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:6">
       <c r="A190" s="8" t="s">
         <v>233</v>
       </c>
@@ -4665,7 +5100,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:6">
       <c r="A191" s="8" t="s">
         <v>233</v>
       </c>
@@ -4679,7 +5114,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:6">
       <c r="A192" s="8" t="s">
         <v>233</v>
       </c>
@@ -4693,7 +5128,7 @@
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
         <v>233</v>
       </c>
@@ -4707,7 +5142,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
         <v>233</v>
       </c>
@@ -4721,7 +5156,7 @@
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
         <v>233</v>
       </c>
@@ -4735,7 +5170,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
         <v>233</v>
       </c>
@@ -4749,7 +5184,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
         <v>233</v>
       </c>
@@ -4763,7 +5198,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
         <v>233</v>
       </c>
@@ -4777,7 +5212,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
         <v>233</v>
       </c>
@@ -4791,7 +5226,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
         <v>233</v>
       </c>
@@ -4805,7 +5240,7 @@
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
         <v>233</v>
       </c>
@@ -4819,7 +5254,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
         <v>233</v>
       </c>
@@ -4833,7 +5268,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
         <v>233</v>
       </c>
@@ -4846,7 +5281,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
         <v>233</v>
       </c>
@@ -4860,7 +5295,7 @@
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
         <v>233</v>
       </c>
@@ -4874,7 +5309,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
         <v>233</v>
       </c>
@@ -4888,7 +5323,7 @@
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
         <v>250</v>
       </c>
@@ -4902,7 +5337,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
         <v>250</v>
       </c>
@@ -4916,7 +5351,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:6">
       <c r="A209" s="10" t="s">
         <v>250</v>
       </c>
@@ -4930,7 +5365,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:6">
       <c r="A210" s="10" t="s">
         <v>250</v>
       </c>
@@ -4944,7 +5379,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:6">
       <c r="A211" s="10" t="s">
         <v>250</v>
       </c>
@@ -4958,7 +5393,7 @@
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:6">
       <c r="A212" s="10" t="s">
         <v>250</v>
       </c>
@@ -4972,7 +5407,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:6">
       <c r="A213" s="10" t="s">
         <v>250</v>
       </c>
@@ -4986,7 +5421,7 @@
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:6">
       <c r="A214" s="10" t="s">
         <v>250</v>
       </c>
@@ -5000,7 +5435,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:6">
       <c r="A215" s="10" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5449,7 @@
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:6">
       <c r="A216" s="10" t="s">
         <v>250</v>
       </c>
@@ -5028,7 +5463,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:6">
       <c r="A217" s="10" t="s">
         <v>250</v>
       </c>
@@ -5042,7 +5477,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:6">
       <c r="A218" s="10" t="s">
         <v>250</v>
       </c>
@@ -5056,7 +5491,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:6">
       <c r="A219" s="10" t="s">
         <v>250</v>
       </c>
@@ -5070,7 +5505,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:6">
       <c r="A220" s="10" t="s">
         <v>250</v>
       </c>
@@ -5084,7 +5519,7 @@
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:6">
       <c r="A221" s="10" t="s">
         <v>250</v>
       </c>
@@ -5098,7 +5533,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:6">
       <c r="A222" s="10" t="s">
         <v>250</v>
       </c>
@@ -5112,7 +5547,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:6">
       <c r="A223" s="10" t="s">
         <v>250</v>
       </c>
@@ -5126,7 +5561,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:6">
       <c r="A224" s="10" t="s">
         <v>250</v>
       </c>
@@ -5140,7 +5575,7 @@
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:6">
       <c r="A225" s="10" t="s">
         <v>264</v>
       </c>
@@ -5154,7 +5589,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:6">
       <c r="A226" s="10" t="s">
         <v>264</v>
       </c>
@@ -5168,7 +5603,7 @@
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:6">
       <c r="A227" s="10" t="s">
         <v>264</v>
       </c>
@@ -5182,7 +5617,7 @@
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:6">
       <c r="A228" s="10" t="s">
         <v>264</v>
       </c>
@@ -5196,7 +5631,7 @@
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:6">
       <c r="A229" s="10" t="s">
         <v>264</v>
       </c>
@@ -5210,7 +5645,7 @@
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:6">
       <c r="A230" s="10" t="s">
         <v>264</v>
       </c>
@@ -5224,7 +5659,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:6">
       <c r="A231" s="10" t="s">
         <v>264</v>
       </c>
@@ -5238,7 +5673,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:6">
       <c r="A232" s="10" t="s">
         <v>264</v>
       </c>
@@ -5252,7 +5687,7 @@
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:6">
       <c r="A233" s="10" t="s">
         <v>264</v>
       </c>
@@ -5266,7 +5701,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:6">
       <c r="A234" s="10" t="s">
         <v>264</v>
       </c>
@@ -5280,7 +5715,7 @@
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:6">
       <c r="A235" s="10" t="s">
         <v>264</v>
       </c>
@@ -5294,7 +5729,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:6">
       <c r="A236" s="10" t="s">
         <v>264</v>
       </c>
@@ -5308,7 +5743,7 @@
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:6">
       <c r="A237" s="10" t="s">
         <v>264</v>
       </c>
@@ -5322,7 +5757,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:6">
       <c r="A238" s="10" t="s">
         <v>264</v>
       </c>
@@ -5336,7 +5771,7 @@
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:6">
       <c r="A239" s="10" t="s">
         <v>264</v>
       </c>
@@ -5350,7 +5785,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:6">
       <c r="A240" s="10" t="s">
         <v>264</v>
       </c>
@@ -5364,7 +5799,7 @@
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:6">
       <c r="A241" s="9" t="s">
         <v>272</v>
       </c>
@@ -5378,7 +5813,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:6">
       <c r="A242" s="9" t="s">
         <v>272</v>
       </c>
@@ -5392,7 +5827,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:6">
       <c r="A243" s="9" t="s">
         <v>272</v>
       </c>
@@ -5406,7 +5841,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:6">
       <c r="A244" s="9" t="s">
         <v>272</v>
       </c>
@@ -5417,7 +5852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:6">
       <c r="A245" s="9" t="s">
         <v>272</v>
       </c>
@@ -5428,7 +5863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:6">
       <c r="A246" s="9" t="s">
         <v>272</v>
       </c>
@@ -5439,7 +5874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:6">
       <c r="A247" s="9" t="s">
         <v>272</v>
       </c>
@@ -5450,7 +5885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:6">
       <c r="A248" s="9" t="s">
         <v>272</v>
       </c>
@@ -5461,7 +5896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:6">
       <c r="A249" s="9" t="s">
         <v>272</v>
       </c>
@@ -5472,7 +5907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:6">
       <c r="A250" s="9" t="s">
         <v>272</v>
       </c>
@@ -5483,7 +5918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:6">
       <c r="A251" s="9" t="s">
         <v>279</v>
       </c>
@@ -5494,7 +5929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:6">
       <c r="A252" s="9" t="s">
         <v>279</v>
       </c>
@@ -5505,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:6">
       <c r="A253" s="9" t="s">
         <v>279</v>
       </c>
@@ -5516,7 +5951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:6">
       <c r="A254" s="9" t="s">
         <v>279</v>
       </c>
@@ -5527,7 +5962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:6">
       <c r="A255" s="9" t="s">
         <v>279</v>
       </c>
@@ -5538,7 +5973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:6">
       <c r="A256" s="9" t="s">
         <v>279</v>
       </c>
@@ -5549,7 +5984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3">
       <c r="A257" s="9" t="s">
         <v>279</v>
       </c>
@@ -5560,7 +5995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3">
       <c r="A258" s="9" t="s">
         <v>279</v>
       </c>
@@ -5571,7 +6006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3">
       <c r="A259" s="9" t="s">
         <v>279</v>
       </c>
@@ -5582,7 +6017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3">
       <c r="A260" s="9" t="s">
         <v>279</v>
       </c>
@@ -5593,7 +6028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3">
       <c r="A261" s="9" t="s">
         <v>279</v>
       </c>
@@ -5604,7 +6039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3">
       <c r="A262" s="9" t="s">
         <v>279</v>
       </c>
@@ -5615,7 +6050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3">
       <c r="A263" s="9" t="s">
         <v>279</v>
       </c>
@@ -5626,7 +6061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3">
       <c r="A264" s="9" t="s">
         <v>279</v>
       </c>
@@ -5637,7 +6072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3">
       <c r="A265" s="9" t="s">
         <v>279</v>
       </c>
@@ -5648,7 +6083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3">
       <c r="A266" s="9" t="s">
         <v>279</v>
       </c>
@@ -5659,7 +6094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3">
       <c r="A267" s="9" t="s">
         <v>279</v>
       </c>
@@ -5670,7 +6105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3">
       <c r="A268" s="9" t="s">
         <v>279</v>
       </c>
@@ -5681,7 +6116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3">
       <c r="A269" s="9" t="s">
         <v>279</v>
       </c>
@@ -5692,7 +6127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3">
       <c r="A270" s="5" t="s">
         <v>293</v>
       </c>
@@ -5703,7 +6138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3">
       <c r="A271" s="5" t="s">
         <v>293</v>
       </c>
@@ -5714,7 +6149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3">
       <c r="A272" s="5" t="s">
         <v>293</v>
       </c>
@@ -5725,7 +6160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
         <v>293</v>
       </c>
@@ -5736,7 +6171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
         <v>293</v>
       </c>
@@ -5747,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
         <v>293</v>
       </c>
@@ -5758,7 +6193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3">
       <c r="A276" s="5" t="s">
         <v>293</v>
       </c>
@@ -5769,7 +6204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
         <v>293</v>
       </c>
@@ -5780,7 +6215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
         <v>293</v>
       </c>
@@ -5791,7 +6226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
         <v>293</v>
       </c>
@@ -5802,7 +6237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
         <v>293</v>
       </c>
@@ -5813,7 +6248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
         <v>293</v>
       </c>
@@ -5824,7 +6259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
         <v>293</v>
       </c>
@@ -5835,7 +6270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
         <v>293</v>
       </c>
@@ -5846,7 +6281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
         <v>293</v>
       </c>
@@ -5857,7 +6292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
         <v>293</v>
       </c>
@@ -5868,7 +6303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
         <v>293</v>
       </c>
@@ -5879,7 +6314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
         <v>293</v>
       </c>
@@ -5890,7 +6325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
         <v>293</v>
       </c>
@@ -5901,7 +6336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3">
       <c r="A289" s="5" t="s">
         <v>294</v>
       </c>
@@ -5912,7 +6347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3">
       <c r="A290" s="5" t="s">
         <v>294</v>
       </c>
@@ -5923,7 +6358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3">
       <c r="A291" s="5" t="s">
         <v>294</v>
       </c>
@@ -5934,7 +6369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3">
       <c r="A292" s="5" t="s">
         <v>294</v>
       </c>
@@ -5945,53 +6380,445 @@
         <v>56</v>
       </c>
     </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C288 C293:C1189" type="list">
-      <formula1>controlled_vocabulary!$A$4:$A$10003</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>controlled_vocabulary!$A$4:$A$10013</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C1:C192 C194 C270:C288 C266:C268 C228:C264 C224:C226 C219 C211:C216 C201:C208 C199 C196:C197 C293:C305 C328:C1189 C308:C323 C325:C326</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19560992-888F-4C02-9FE9-0DC03BA43680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E0A14-6D2E-4B5C-BB96-9D8AC29685DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13635" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2419,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E306" sqref="E306"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6542,7 +6542,7 @@
         <v>308</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="308" spans="1:3">

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B77015C-1872-4100-892A-4CCE12D02427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="controlled_vocabulary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="mapping" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,935 +29,917 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
   <si>
-    <t xml:space="preserve">cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root is a protected entity in the data.tree library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma mature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cell plasma immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hematopoietic stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lymphoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myeloid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common lymphoid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmacytoid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all macro cells" if they do only distinguish M1/M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophage/Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytic lineage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common myeloid progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocyte-monocyte progenitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myeloid dendritic cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte conventional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocyte non-conventional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cell resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytotoxicity score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immune score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microenvironment score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tumor purity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stroma score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ (non-regulatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ Th2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell regulatory (Tregs)</t>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>root2</t>
+  </si>
+  <si>
+    <t>root is a protected entity in the data.tree library</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>B cell memory</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>B cell naive</t>
+  </si>
+  <si>
+    <t>B cell plasma</t>
+  </si>
+  <si>
+    <t>Class-switched memory B cell</t>
+  </si>
+  <si>
+    <t>B cell plasma mature</t>
+  </si>
+  <si>
+    <t>B cell plasma immature</t>
+  </si>
+  <si>
+    <t>Melanoma cell</t>
+  </si>
+  <si>
+    <t>cancer cell</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cell</t>
+  </si>
+  <si>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>other cell</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell</t>
+  </si>
+  <si>
+    <t>lymphoid</t>
+  </si>
+  <si>
+    <t>myeloid</t>
+  </si>
+  <si>
+    <t>Common lymphoid progenitor</t>
+  </si>
+  <si>
+    <t>NK cell</t>
+  </si>
+  <si>
+    <t>Plasmacytoid dendritic cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Macrophage M0</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all macro cells" if they do only distinguish M1/M2</t>
+  </si>
+  <si>
+    <t>Macrophage M1</t>
+  </si>
+  <si>
+    <t>Macrophage M2</t>
+  </si>
+  <si>
+    <t>Macrophage/Monocyte</t>
+  </si>
+  <si>
+    <t>Monocyte</t>
+  </si>
+  <si>
+    <t>Mast cell activated</t>
+  </si>
+  <si>
+    <t>Mast cell</t>
+  </si>
+  <si>
+    <t>Mast cell resting</t>
+  </si>
+  <si>
+    <t>Monocytic lineage</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell</t>
+  </si>
+  <si>
+    <t>Basophil</t>
+  </si>
+  <si>
+    <t>Common myeloid progenitor</t>
+  </si>
+  <si>
+    <t>Granulocyte-monocyte progenitor</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell activated</t>
+  </si>
+  <si>
+    <t>only in cibersort</t>
+  </si>
+  <si>
+    <t>Myeloid dendritic cell resting</t>
+  </si>
+  <si>
+    <t>Eosinophil</t>
+  </si>
+  <si>
+    <t>Monocyte conventional</t>
+  </si>
+  <si>
+    <t>Monocyte non-conventional</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>NK cell activated</t>
+  </si>
+  <si>
+    <t>NK cell resting</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblast</t>
+  </si>
+  <si>
+    <t>Endothelial cell</t>
+  </si>
+  <si>
+    <t>cytotoxicity score</t>
+  </si>
+  <si>
+    <t>immune score</t>
+  </si>
+  <si>
+    <t>microenvironment score</t>
+  </si>
+  <si>
+    <t>tumor purity</t>
+  </si>
+  <si>
+    <t>estimate score</t>
+  </si>
+  <si>
+    <t>stroma score</t>
+  </si>
+  <si>
+    <t>T cell CD4+</t>
+  </si>
+  <si>
+    <t>T cell CD8+</t>
+  </si>
+  <si>
+    <t>T cell gamma delta</t>
+  </si>
+  <si>
+    <t>only in cibersort, still count all other subtypes as "all t cells" if they do not predict gdT</t>
+  </si>
+  <si>
+    <t>T cell NK</t>
+  </si>
+  <si>
+    <t>T cell CD4+ (non-regulatory)</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th1</t>
+  </si>
+  <si>
+    <t>T cell CD4+ Th2</t>
+  </si>
+  <si>
+    <t>T cell regulatory (Tregs)</t>
   </si>
   <si>
     <t xml:space="preserve">T cell CD4+ memory </t>
   </si>
   <si>
-    <t xml:space="preserve">T cell CD4+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD4+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ central memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell CD8+ effector memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell gamma delta non-VD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncharacterized cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell immature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method_cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4 memory activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells follicular helper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells regulatory (Tregs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells gamma delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells resting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eosinophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cibersort_abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cell.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell-type not related to immuno-oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ memory T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ naive T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another option for mDC (but already mapped to DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chondrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class-switched memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epithelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iDC</t>
+    <t>T cell CD4+ naive</t>
+  </si>
+  <si>
+    <t>T cell follicular helper</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory activated</t>
+  </si>
+  <si>
+    <t>T cell CD4+ memory resting</t>
+  </si>
+  <si>
+    <t>T cell CD8+ memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ naive</t>
+  </si>
+  <si>
+    <t>T cell CD4+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD4+ effector memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ central memory</t>
+  </si>
+  <si>
+    <t>T cell CD8+ effector memory</t>
+  </si>
+  <si>
+    <t>T cell MAIT</t>
+  </si>
+  <si>
+    <t>T cell gamma delta VD2</t>
+  </si>
+  <si>
+    <t>T cell gamma delta non-VD2</t>
+  </si>
+  <si>
+    <t>uncharacterized cell</t>
+  </si>
+  <si>
+    <t>T cell immature</t>
+  </si>
+  <si>
+    <t>Stem cell</t>
+  </si>
+  <si>
+    <t>method_dataset</t>
+  </si>
+  <si>
+    <t>method_cell_type</t>
+  </si>
+  <si>
+    <t>cibersort</t>
+  </si>
+  <si>
+    <t>B cells naive</t>
+  </si>
+  <si>
+    <t>B cells memory</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>T cells CD8</t>
+  </si>
+  <si>
+    <t>T cells CD4 naive</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory resting</t>
+  </si>
+  <si>
+    <t>T cells CD4 memory activated</t>
+  </si>
+  <si>
+    <t>T cells follicular helper</t>
+  </si>
+  <si>
+    <t>T cells regulatory (Tregs)</t>
+  </si>
+  <si>
+    <t>T cells gamma delta</t>
+  </si>
+  <si>
+    <t>NK cells resting</t>
+  </si>
+  <si>
+    <t>NK cells activated</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Macrophages M0</t>
+  </si>
+  <si>
+    <t>Macrophages M1</t>
+  </si>
+  <si>
+    <t>Macrophages M2</t>
+  </si>
+  <si>
+    <t>Dendritic cells resting</t>
+  </si>
+  <si>
+    <t>Dendritic cells activated</t>
+  </si>
+  <si>
+    <t>Mast cells resting</t>
+  </si>
+  <si>
+    <t>Mast cells activated</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>cibersort_abs</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>B_cell</t>
+  </si>
+  <si>
+    <t>T_cell.CD4</t>
+  </si>
+  <si>
+    <t>T_cell.CD8</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>xcell</t>
+  </si>
+  <si>
+    <t>aDC</t>
+  </si>
+  <si>
+    <t>Adipocytes</t>
+  </si>
+  <si>
+    <t>Cell-type not related to immuno-oncology</t>
+  </si>
+  <si>
+    <t>Astrocytes</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>B-cells</t>
+  </si>
+  <si>
+    <t>CD4+ memory T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ T-cells</t>
+  </si>
+  <si>
+    <t>CD4+ Tcm</t>
+  </si>
+  <si>
+    <t>CD4+ Tem</t>
+  </si>
+  <si>
+    <t>CD8+ naive T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ T-cells</t>
+  </si>
+  <si>
+    <t>CD8+ Tcm</t>
+  </si>
+  <si>
+    <t>CD8+ Tem</t>
+  </si>
+  <si>
+    <t>cDC</t>
+  </si>
+  <si>
+    <t>another option for mDC (but already mapped to DC)</t>
+  </si>
+  <si>
+    <t>Chondrocytes</t>
+  </si>
+  <si>
+    <t>Class-switched memory B-cells</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Endothelial cells</t>
+  </si>
+  <si>
+    <t>Epithelial cells</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Hepatocytes</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>iDC</t>
   </si>
   <si>
     <t xml:space="preserve">immature, monocyte-derived DC. Does not fit in the hierarchy and arguably rarely used. </t>
   </si>
   <si>
-    <t xml:space="preserve">Keratinocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megakaryocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesangial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mv Endothelial cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naive B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osteoblast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pericytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preadipocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro B-cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">does not fit in tree, not a distinct state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skeletal muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgd cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th1 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th2 cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmuneScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromaScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroenvironmentScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic lymphocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B lineage</t>
+    <t>Keratinocytes</t>
+  </si>
+  <si>
+    <t>ly Endothelial cells</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Mast cells</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>Melanocytes</t>
+  </si>
+  <si>
+    <t>Memory B-cells</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Mesangial cells</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>mv Endothelial cells</t>
+  </si>
+  <si>
+    <t>Myocytes</t>
+  </si>
+  <si>
+    <t>naive B-cells</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>NK cells</t>
+  </si>
+  <si>
+    <t>NKT</t>
+  </si>
+  <si>
+    <t>Osteoblast</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Pericytes</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Preadipocytes</t>
+  </si>
+  <si>
+    <t>pro B-cells</t>
+  </si>
+  <si>
+    <t>does not fit in tree, not a distinct state</t>
+  </si>
+  <si>
+    <t>Sebocytes</t>
+  </si>
+  <si>
+    <t>Skeletal muscle</t>
+  </si>
+  <si>
+    <t>Smooth muscle</t>
+  </si>
+  <si>
+    <t>Tgd cells</t>
+  </si>
+  <si>
+    <t>Th1 cells</t>
+  </si>
+  <si>
+    <t>Th2 cells</t>
+  </si>
+  <si>
+    <t>Tregs</t>
+  </si>
+  <si>
+    <t>ImmuneScore</t>
+  </si>
+  <si>
+    <t>StromaScore</t>
+  </si>
+  <si>
+    <t>MicroenvironmentScore</t>
+  </si>
+  <si>
+    <t>mcp_counter</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>CD8 T cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic lymphocytes</t>
+  </si>
+  <si>
+    <t>B lineage</t>
   </si>
   <si>
     <t xml:space="preserve"># use this as a "proxy" although it would also include dendritc cells. </t>
   </si>
   <si>
-    <t xml:space="preserve">Myeloid dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T.cells.CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic.cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Tcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endothelial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKcells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherCells</t>
+    <t>Myeloid dendritic cells</t>
+  </si>
+  <si>
+    <t>quantiseq</t>
+  </si>
+  <si>
+    <t>B.cells</t>
+  </si>
+  <si>
+    <t>Macrophages.M1</t>
+  </si>
+  <si>
+    <t>Macrophages.M2</t>
+  </si>
+  <si>
+    <t>NK.cells</t>
+  </si>
+  <si>
+    <t>T.cells.CD4</t>
+  </si>
+  <si>
+    <t>T.cells.CD8</t>
+  </si>
+  <si>
+    <t>Dendritic.cells</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>Bcells</t>
+  </si>
+  <si>
+    <t>CAFs</t>
+  </si>
+  <si>
+    <t>CD4_Tcells</t>
+  </si>
+  <si>
+    <t>CD8_Tcells</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>NKcells</t>
+  </si>
+  <si>
+    <t>otherCells</t>
   </si>
   <si>
     <t xml:space="preserve">available as 1-SUM(scores), no mapping required here. </t>
   </si>
   <si>
-    <t xml:space="preserve">schelker_single_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages/Monocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancer associated fibroblasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural killer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovarian carcinoma cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">racle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantiseq_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cells CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_method1</t>
+    <t>schelker_single_cell</t>
+  </si>
+  <si>
+    <t>B cells</t>
+  </si>
+  <si>
+    <t>CD8+ T cells</t>
+  </si>
+  <si>
+    <t>Melanoma cells</t>
+  </si>
+  <si>
+    <t>CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Macrophages/Monocytes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>regulatory T cells</t>
+  </si>
+  <si>
+    <t>Cancer associated fibroblasts</t>
+  </si>
+  <si>
+    <t>Dendritic cells</t>
+  </si>
+  <si>
+    <t>Natural killer cells</t>
+  </si>
+  <si>
+    <t>Ovarian carcinoma cells</t>
+  </si>
+  <si>
+    <t>hoek</t>
+  </si>
+  <si>
+    <t>Tcell</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>racle</t>
+  </si>
+  <si>
+    <t>CD4 T cells</t>
+  </si>
+  <si>
+    <t>cancer cells</t>
+  </si>
+  <si>
+    <t>quantiseq_reference</t>
+  </si>
+  <si>
+    <t>T cells CD4</t>
+  </si>
+  <si>
+    <t>test_method1</t>
   </si>
   <si>
     <t xml:space="preserve">method for unit test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Macrophages.M0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8+ Tcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD8 Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T CD4 Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neutrophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gd non-Vd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basophils LD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes NC+I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmablasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consensus_tme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytotoxic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAST cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_CD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_cells_gamma_delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_regulatory_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages_M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune_Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmcp_counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B derived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory B cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monocytes / macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granulocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vessels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphatics</t>
+    <t>Macrophages.M0</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>CD4+ Tcell</t>
+  </si>
+  <si>
+    <t>CD8+ Tcell</t>
+  </si>
+  <si>
+    <t>abis</t>
+  </si>
+  <si>
+    <t>Monocytes C</t>
+  </si>
+  <si>
+    <t>T CD8 Memory</t>
+  </si>
+  <si>
+    <t>T CD4 Naive</t>
+  </si>
+  <si>
+    <t>T CD8 Naive</t>
+  </si>
+  <si>
+    <t>B Naive</t>
+  </si>
+  <si>
+    <t>T CD4 Memory</t>
+  </si>
+  <si>
+    <t>MAIT</t>
+  </si>
+  <si>
+    <t>T gd Vd2</t>
+  </si>
+  <si>
+    <t>Neutrophils LD</t>
+  </si>
+  <si>
+    <t>T gd non-Vd2</t>
+  </si>
+  <si>
+    <t>Basophils LD</t>
+  </si>
+  <si>
+    <t>Monocytes NC+I</t>
+  </si>
+  <si>
+    <t>B Memory</t>
+  </si>
+  <si>
+    <t>mDCs</t>
+  </si>
+  <si>
+    <t>pDCs</t>
+  </si>
+  <si>
+    <t>Plasmablasts</t>
+  </si>
+  <si>
+    <t>consensus_tme</t>
+  </si>
+  <si>
+    <t>B_cells</t>
+  </si>
+  <si>
+    <t>Cytotoxic_cells</t>
+  </si>
+  <si>
+    <t>Dendritic_cells</t>
+  </si>
+  <si>
+    <t>Mast_cells</t>
+  </si>
+  <si>
+    <t>MAST cell</t>
+  </si>
+  <si>
+    <t>NK_cells</t>
+  </si>
+  <si>
+    <t>T_cells_CD4</t>
+  </si>
+  <si>
+    <t>T_cells_CD8</t>
+  </si>
+  <si>
+    <t>T_cells_gamma_delta</t>
+  </si>
+  <si>
+    <t>T_regulatory_cells</t>
+  </si>
+  <si>
+    <t>Macrophages_M1</t>
+  </si>
+  <si>
+    <t>Macrophages_M2</t>
+  </si>
+  <si>
+    <t>Immune_Score</t>
+  </si>
+  <si>
+    <t>mmcp_counter</t>
+  </si>
+  <si>
+    <t>B derived</t>
+  </si>
+  <si>
+    <t>Memory B cells</t>
+  </si>
+  <si>
+    <t>Monocytes / macrophages</t>
+  </si>
+  <si>
+    <t>Granulocytes</t>
+  </si>
+  <si>
+    <t>Vessels</t>
+  </si>
+  <si>
+    <t>Lymphatics</t>
   </si>
   <si>
     <t xml:space="preserve">Fibroblasts </t>
   </si>
   <si>
-    <t xml:space="preserve">seqimmucc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8 T Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendritic Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NK Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev_B_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stromal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasmacytoid_DCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKT_cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thymocytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Naive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8_Naive</t>
+    <t>seqimmucc</t>
+  </si>
+  <si>
+    <t>B Cells</t>
+  </si>
+  <si>
+    <t>CD4 T Cells</t>
+  </si>
+  <si>
+    <t>CD8 T Cells</t>
+  </si>
+  <si>
+    <t>Dendritic Cells</t>
+  </si>
+  <si>
+    <t>Mast Cells</t>
+  </si>
+  <si>
+    <t>NK Cells</t>
+  </si>
+  <si>
+    <t>dcq</t>
+  </si>
+  <si>
+    <t>Dev_B_cells</t>
+  </si>
+  <si>
+    <t>Stromal</t>
+  </si>
+  <si>
+    <t>plasmacytoid_DCs</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>NKT_cells</t>
+  </si>
+  <si>
+    <t>Thymocytes</t>
+  </si>
+  <si>
+    <t>CD4_Naive</t>
+  </si>
+  <si>
+    <t>T-reg</t>
+  </si>
+  <si>
+    <t>CD4_Memory</t>
+  </si>
+  <si>
+    <t>CD8_Eff</t>
+  </si>
+  <si>
+    <t>CD8_Memory</t>
+  </si>
+  <si>
+    <t>CD8_Naive</t>
   </si>
   <si>
     <t xml:space="preserve">T_cells_gamma_delta </t>
   </si>
   <si>
-    <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StromalScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATEScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TumorPurity</t>
+    <t>base</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>StromalScore</t>
+  </si>
+  <si>
+    <t>ESTIMATEScore</t>
+  </si>
+  <si>
+    <t>TumorPurity</t>
   </si>
   <si>
     <t xml:space="preserve">controlled vocabulary is a list of entities (cell types) of different granularity (e.g. T cell, CD8 T cell). We use this vocabulary to build a tree and to map cell type names between different methods/datasets. </t>
   </si>
   <si>
-    <t xml:space="preserve">mapping contains the mapping between methods/datasets</t>
+    <t>mapping contains the mapping between methods/datasets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -962,14 +949,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -983,7 +970,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -991,7 +978,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1002,7 +989,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1015,7 +1001,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1028,7 +1013,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1036,94 +1021,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1137,9 +1075,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1153,15 +1097,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1180,9 +1130,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1196,15 +1152,21 @@
         <a:noFill/>
         <a:ln w="19800">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1213,28 +1175,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.14"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="27.140625" style="1" customWidth="1"/>
+    <col min="16" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1296,34 +1550,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1355,18 +1615,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1390,19 +1650,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1671,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1680,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1429,14 +1689,14 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1444,7 +1704,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1713,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -1462,31 +1722,31 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1755,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1764,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1773,7 @@
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1782,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1531,38 +1791,38 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1570,14 +1830,14 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1585,7 +1845,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1854,7 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1603,7 +1863,7 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1619,7 +1879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1627,7 +1887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
@@ -1643,7 +1903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -1651,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
@@ -1659,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -1675,7 +1935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -1683,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
         <v>54</v>
       </c>
@@ -1691,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -1699,7 +1959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
@@ -1707,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -1715,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
@@ -1723,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -1731,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -1739,32 +1999,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>64</v>
       </c>
@@ -1772,29 +2032,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -1802,7 +2062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +2070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>69</v>
       </c>
@@ -1818,18 +2078,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>71</v>
       </c>
@@ -1837,7 +2097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>72</v>
       </c>
@@ -1845,7 +2105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>73</v>
       </c>
@@ -1853,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>74</v>
       </c>
@@ -1861,62 +2121,62 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>80</v>
       </c>
@@ -1924,7 +2184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>81</v>
       </c>
@@ -1932,7 +2192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>82</v>
       </c>
@@ -1940,18 +2200,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -1961,41 +2221,33 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:B72 B75 B77:B1070" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B72 B75 B77:B1070" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A:$A</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C295" activeCellId="0" sqref="C295"/>
+    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="29.86"/>
+    <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>85</v>
       </c>
@@ -2011,7 +2263,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>87</v>
       </c>
@@ -2025,7 +2277,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2291,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
@@ -2053,7 +2305,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
@@ -2067,7 +2319,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
@@ -2081,7 +2333,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
@@ -2095,7 +2347,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>87</v>
       </c>
@@ -2109,7 +2361,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>87</v>
       </c>
@@ -2123,7 +2375,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>87</v>
       </c>
@@ -2137,7 +2389,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
@@ -2151,7 +2403,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +2417,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
@@ -2179,7 +2431,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
@@ -2193,7 +2445,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -2207,7 +2459,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>87</v>
       </c>
@@ -2221,7 +2473,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>87</v>
       </c>
@@ -2235,7 +2487,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
@@ -2249,7 +2501,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>87</v>
       </c>
@@ -2263,7 +2515,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
@@ -2277,7 +2529,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>87</v>
       </c>
@@ -2291,7 +2543,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
@@ -2305,7 +2557,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
@@ -2319,7 +2571,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -2333,7 +2585,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>110</v>
       </c>
@@ -2347,7 +2599,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
@@ -2361,7 +2613,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>110</v>
       </c>
@@ -2375,7 +2627,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>110</v>
       </c>
@@ -2389,7 +2641,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
         <v>110</v>
       </c>
@@ -2403,7 +2655,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>110</v>
       </c>
@@ -2417,7 +2669,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>110</v>
       </c>
@@ -2431,7 +2683,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>110</v>
       </c>
@@ -2445,7 +2697,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
@@ -2459,7 +2711,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
         <v>110</v>
       </c>
@@ -2473,7 +2725,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
         <v>110</v>
       </c>
@@ -2487,7 +2739,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
         <v>110</v>
       </c>
@@ -2501,7 +2753,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
@@ -2515,7 +2767,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
@@ -2529,7 +2781,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2543,7 +2795,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
         <v>110</v>
       </c>
@@ -2557,7 +2809,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>110</v>
       </c>
@@ -2571,7 +2823,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
         <v>110</v>
       </c>
@@ -2585,7 +2837,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
         <v>110</v>
       </c>
@@ -2599,7 +2851,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
         <v>110</v>
       </c>
@@ -2613,7 +2865,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
         <v>110</v>
       </c>
@@ -2627,7 +2879,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
         <v>111</v>
       </c>
@@ -2641,7 +2893,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
         <v>111</v>
       </c>
@@ -2655,7 +2907,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6">
       <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
@@ -2669,7 +2921,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
         <v>111</v>
       </c>
@@ -2683,7 +2935,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
         <v>111</v>
       </c>
@@ -2697,7 +2949,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
@@ -2711,7 +2963,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +2977,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6">
       <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
@@ -2739,7 +2991,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6">
       <c r="A54" s="8" t="s">
         <v>116</v>
       </c>
@@ -2753,7 +3005,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -2767,7 +3019,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
         <v>116</v>
       </c>
@@ -2781,7 +3033,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
         <v>116</v>
       </c>
@@ -2795,7 +3047,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -2809,7 +3061,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
         <v>116</v>
       </c>
@@ -2823,7 +3075,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
         <v>116</v>
       </c>
@@ -2837,7 +3089,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
         <v>116</v>
       </c>
@@ -2851,7 +3103,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
         <v>116</v>
       </c>
@@ -2865,7 +3117,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +3131,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
         <v>116</v>
       </c>
@@ -2893,7 +3145,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
         <v>116</v>
       </c>
@@ -2907,7 +3159,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
         <v>116</v>
       </c>
@@ -2921,7 +3173,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
         <v>116</v>
       </c>
@@ -2935,7 +3187,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
@@ -2949,7 +3201,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
         <v>116</v>
       </c>
@@ -2963,7 +3215,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
         <v>116</v>
       </c>
@@ -2977,7 +3229,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
         <v>116</v>
       </c>
@@ -2991,7 +3243,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
         <v>116</v>
       </c>
@@ -3005,7 +3257,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
         <v>116</v>
       </c>
@@ -3019,7 +3271,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
         <v>116</v>
       </c>
@@ -3033,7 +3285,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
         <v>116</v>
       </c>
@@ -3047,7 +3299,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3313,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
         <v>116</v>
       </c>
@@ -3075,7 +3327,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
         <v>116</v>
       </c>
@@ -3089,7 +3341,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
         <v>116</v>
       </c>
@@ -3103,7 +3355,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
         <v>116</v>
       </c>
@@ -3117,7 +3369,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
         <v>116</v>
       </c>
@@ -3131,7 +3383,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
@@ -3145,7 +3397,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
@@ -3159,7 +3411,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
         <v>116</v>
       </c>
@@ -3173,7 +3425,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
         <v>116</v>
       </c>
@@ -3187,7 +3439,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
         <v>116</v>
       </c>
@@ -3201,7 +3453,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
         <v>116</v>
       </c>
@@ -3215,7 +3467,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
         <v>116</v>
       </c>
@@ -3229,7 +3481,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
         <v>116</v>
       </c>
@@ -3243,7 +3495,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
         <v>116</v>
       </c>
@@ -3257,7 +3509,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
         <v>116</v>
       </c>
@@ -3271,7 +3523,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
         <v>116</v>
       </c>
@@ -3285,7 +3537,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
         <v>116</v>
       </c>
@@ -3299,7 +3551,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
         <v>116</v>
       </c>
@@ -3313,7 +3565,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
         <v>116</v>
       </c>
@@ -3327,7 +3579,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
         <v>116</v>
       </c>
@@ -3341,7 +3593,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>116</v>
       </c>
@@ -3355,7 +3607,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>116</v>
       </c>
@@ -3369,7 +3621,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
         <v>116</v>
       </c>
@@ -3383,7 +3635,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>116</v>
       </c>
@@ -3397,7 +3649,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:6">
       <c r="A101" s="8" t="s">
         <v>116</v>
       </c>
@@ -3411,7 +3663,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3677,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
         <v>116</v>
       </c>
@@ -3439,7 +3691,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
         <v>116</v>
       </c>
@@ -3453,7 +3705,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
         <v>116</v>
       </c>
@@ -3467,7 +3719,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
         <v>116</v>
       </c>
@@ -3481,7 +3733,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:6">
       <c r="A107" s="8" t="s">
         <v>116</v>
       </c>
@@ -3495,7 +3747,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
         <v>116</v>
       </c>
@@ -3509,7 +3761,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:6">
       <c r="A109" s="8" t="s">
         <v>116</v>
       </c>
@@ -3523,7 +3775,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
         <v>116</v>
       </c>
@@ -3537,7 +3789,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
         <v>116</v>
       </c>
@@ -3551,7 +3803,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:6">
       <c r="A112" s="8" t="s">
         <v>116</v>
       </c>
@@ -3565,7 +3817,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
         <v>116</v>
       </c>
@@ -3579,7 +3831,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
         <v>116</v>
       </c>
@@ -3593,7 +3845,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
         <v>116</v>
       </c>
@@ -3607,7 +3859,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:6">
       <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
@@ -3621,7 +3873,7 @@
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:6">
       <c r="A117" s="8" t="s">
         <v>116</v>
       </c>
@@ -3635,7 +3887,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -3649,7 +3901,7 @@
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:6">
       <c r="A119" s="8" t="s">
         <v>181</v>
       </c>
@@ -3663,7 +3915,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:6">
       <c r="A120" s="8" t="s">
         <v>181</v>
       </c>
@@ -3677,7 +3929,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:6">
       <c r="A121" s="8" t="s">
         <v>181</v>
       </c>
@@ -3691,7 +3943,7 @@
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
         <v>181</v>
       </c>
@@ -3705,7 +3957,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
         <v>181</v>
       </c>
@@ -3719,7 +3971,7 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
         <v>181</v>
       </c>
@@ -3735,7 +3987,7 @@
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:6">
       <c r="A125" s="8" t="s">
         <v>181</v>
       </c>
@@ -3751,7 +4003,7 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +4017,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:6">
       <c r="A127" s="8" t="s">
         <v>181</v>
       </c>
@@ -3779,7 +4031,7 @@
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:6">
       <c r="A128" s="8" t="s">
         <v>181</v>
       </c>
@@ -3793,7 +4045,7 @@
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:6">
       <c r="A129" s="8" t="s">
         <v>181</v>
       </c>
@@ -3807,7 +4059,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:6">
       <c r="A130" s="8" t="s">
         <v>188</v>
       </c>
@@ -3821,7 +4073,7 @@
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:6">
       <c r="A131" s="8" t="s">
         <v>188</v>
       </c>
@@ -3835,7 +4087,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:6">
       <c r="A132" s="8" t="s">
         <v>188</v>
       </c>
@@ -3849,7 +4101,7 @@
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:6">
       <c r="A133" s="8" t="s">
         <v>188</v>
       </c>
@@ -3863,7 +4115,7 @@
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:6">
       <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
@@ -3877,7 +4129,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:6">
       <c r="A135" s="8" t="s">
         <v>188</v>
       </c>
@@ -3891,7 +4143,7 @@
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:6">
       <c r="A136" s="8" t="s">
         <v>188</v>
       </c>
@@ -3905,7 +4157,7 @@
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:6">
       <c r="A137" s="8" t="s">
         <v>188</v>
       </c>
@@ -3919,7 +4171,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:6">
       <c r="A138" s="8" t="s">
         <v>188</v>
       </c>
@@ -3933,7 +4185,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:6">
       <c r="A139" s="8" t="s">
         <v>188</v>
       </c>
@@ -3947,7 +4199,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:6">
       <c r="A140" s="8" t="s">
         <v>188</v>
       </c>
@@ -3961,7 +4213,7 @@
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:6">
       <c r="A141" s="8" t="s">
         <v>197</v>
       </c>
@@ -3975,7 +4227,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:6">
       <c r="A142" s="8" t="s">
         <v>197</v>
       </c>
@@ -3989,7 +4241,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
         <v>197</v>
       </c>
@@ -4003,7 +4255,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:6">
       <c r="A144" s="8" t="s">
         <v>197</v>
       </c>
@@ -4017,7 +4269,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:6">
       <c r="A145" s="8" t="s">
         <v>197</v>
       </c>
@@ -4031,7 +4283,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
         <v>197</v>
       </c>
@@ -4045,7 +4297,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:6">
       <c r="A147" s="8" t="s">
         <v>197</v>
       </c>
@@ -4059,7 +4311,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
         <v>197</v>
       </c>
@@ -4073,7 +4325,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
         <v>197</v>
       </c>
@@ -4087,7 +4339,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:6">
       <c r="A150" s="8" t="s">
         <v>197</v>
       </c>
@@ -4103,7 +4355,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:6">
       <c r="A151" s="8" t="s">
         <v>206</v>
       </c>
@@ -4117,7 +4369,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:6">
       <c r="A152" s="8" t="s">
         <v>206</v>
       </c>
@@ -4131,7 +4383,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:6">
       <c r="A153" s="8" t="s">
         <v>206</v>
       </c>
@@ -4145,7 +4397,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:6">
       <c r="A154" s="8" t="s">
         <v>206</v>
       </c>
@@ -4159,7 +4411,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:6">
       <c r="A155" s="8" t="s">
         <v>206</v>
       </c>
@@ -4173,7 +4425,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
         <v>206</v>
       </c>
@@ -4185,7 +4437,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:6">
       <c r="A157" s="8" t="s">
         <v>206</v>
       </c>
@@ -4199,7 +4451,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:6">
       <c r="A158" s="8" t="s">
         <v>206</v>
       </c>
@@ -4213,7 +4465,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:6">
       <c r="A159" s="8" t="s">
         <v>206</v>
       </c>
@@ -4227,7 +4479,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:6">
       <c r="A160" s="8" t="s">
         <v>206</v>
       </c>
@@ -4241,7 +4493,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:6">
       <c r="A161" s="8" t="s">
         <v>206</v>
       </c>
@@ -4255,7 +4507,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:6">
       <c r="A162" s="8" t="s">
         <v>206</v>
       </c>
@@ -4269,7 +4521,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:6">
       <c r="A163" s="8" t="s">
         <v>218</v>
       </c>
@@ -4283,7 +4535,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:6">
       <c r="A164" s="8" t="s">
         <v>218</v>
       </c>
@@ -4297,7 +4549,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:6">
       <c r="A165" s="8" t="s">
         <v>218</v>
       </c>
@@ -4311,7 +4563,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:6">
       <c r="A166" s="8" t="s">
         <v>218</v>
       </c>
@@ -4325,7 +4577,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:6">
       <c r="A167" s="8" t="s">
         <v>218</v>
       </c>
@@ -4339,7 +4591,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:6">
       <c r="A168" s="8" t="s">
         <v>222</v>
       </c>
@@ -4353,7 +4605,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:6">
       <c r="A169" s="8" t="s">
         <v>222</v>
       </c>
@@ -4367,7 +4619,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:6">
       <c r="A170" s="8" t="s">
         <v>222</v>
       </c>
@@ -4381,7 +4633,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:6">
       <c r="A171" s="8" t="s">
         <v>222</v>
       </c>
@@ -4395,7 +4647,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:6">
       <c r="A172" s="8" t="s">
         <v>222</v>
       </c>
@@ -4409,7 +4661,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:6">
       <c r="A173" s="8" t="s">
         <v>225</v>
       </c>
@@ -4423,7 +4675,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:6">
       <c r="A174" s="8" t="s">
         <v>225</v>
       </c>
@@ -4437,7 +4689,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:6">
       <c r="A175" s="8" t="s">
         <v>225</v>
       </c>
@@ -4451,7 +4703,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:6">
       <c r="A176" s="8" t="s">
         <v>225</v>
       </c>
@@ -4465,7 +4717,7 @@
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:6">
       <c r="A177" s="8" t="s">
         <v>225</v>
       </c>
@@ -4479,7 +4731,7 @@
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:6">
       <c r="A178" s="8" t="s">
         <v>225</v>
       </c>
@@ -4493,7 +4745,7 @@
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:6">
       <c r="A179" s="8" t="s">
         <v>225</v>
       </c>
@@ -4507,7 +4759,7 @@
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:6">
       <c r="A180" s="8" t="s">
         <v>225</v>
       </c>
@@ -4521,7 +4773,7 @@
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:6">
       <c r="A181" s="8" t="s">
         <v>225</v>
       </c>
@@ -4535,7 +4787,7 @@
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:6">
       <c r="A182" s="8" t="s">
         <v>225</v>
       </c>
@@ -4549,7 +4801,7 @@
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:6">
       <c r="A183" s="8" t="s">
         <v>227</v>
       </c>
@@ -4565,7 +4817,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:6">
       <c r="A184" s="8" t="s">
         <v>227</v>
       </c>
@@ -4581,7 +4833,7 @@
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:6">
       <c r="A185" s="8" t="s">
         <v>230</v>
       </c>
@@ -4595,7 +4847,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:6">
       <c r="A186" s="8" t="s">
         <v>230</v>
       </c>
@@ -4609,7 +4861,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:6">
       <c r="A187" s="8" t="s">
         <v>230</v>
       </c>
@@ -4623,7 +4875,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:6">
       <c r="A188" s="8" t="s">
         <v>230</v>
       </c>
@@ -4637,7 +4889,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:6">
       <c r="A189" s="8" t="s">
         <v>230</v>
       </c>
@@ -4651,7 +4903,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:6">
       <c r="A190" s="8" t="s">
         <v>233</v>
       </c>
@@ -4665,7 +4917,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:6">
       <c r="A191" s="8" t="s">
         <v>233</v>
       </c>
@@ -4679,7 +4931,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:6">
       <c r="A192" s="8" t="s">
         <v>233</v>
       </c>
@@ -4693,7 +4945,7 @@
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
         <v>233</v>
       </c>
@@ -4707,7 +4959,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
         <v>233</v>
       </c>
@@ -4721,7 +4973,7 @@
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
         <v>233</v>
       </c>
@@ -4735,7 +4987,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
         <v>233</v>
       </c>
@@ -4749,7 +5001,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
         <v>233</v>
       </c>
@@ -4763,7 +5015,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
         <v>233</v>
       </c>
@@ -4777,7 +5029,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
         <v>233</v>
       </c>
@@ -4791,7 +5043,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
         <v>233</v>
       </c>
@@ -4805,7 +5057,7 @@
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
         <v>233</v>
       </c>
@@ -4819,7 +5071,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
         <v>233</v>
       </c>
@@ -4833,7 +5085,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
         <v>233</v>
       </c>
@@ -4846,7 +5098,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
         <v>233</v>
       </c>
@@ -4860,7 +5112,7 @@
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
         <v>233</v>
       </c>
@@ -4874,7 +5126,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
         <v>233</v>
       </c>
@@ -4888,7 +5140,7 @@
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
         <v>250</v>
       </c>
@@ -4902,7 +5154,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
         <v>250</v>
       </c>
@@ -4916,7 +5168,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:6">
       <c r="A209" s="10" t="s">
         <v>250</v>
       </c>
@@ -4930,7 +5182,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:6">
       <c r="A210" s="10" t="s">
         <v>250</v>
       </c>
@@ -4944,7 +5196,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:6">
       <c r="A211" s="10" t="s">
         <v>250</v>
       </c>
@@ -4958,7 +5210,7 @@
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:6">
       <c r="A212" s="10" t="s">
         <v>250</v>
       </c>
@@ -4972,7 +5224,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:6">
       <c r="A213" s="10" t="s">
         <v>250</v>
       </c>
@@ -4986,7 +5238,7 @@
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:6">
       <c r="A214" s="10" t="s">
         <v>250</v>
       </c>
@@ -5000,7 +5252,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:6">
       <c r="A215" s="10" t="s">
         <v>250</v>
       </c>
@@ -5014,7 +5266,7 @@
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:6">
       <c r="A216" s="10" t="s">
         <v>250</v>
       </c>
@@ -5028,7 +5280,7 @@
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:6">
       <c r="A217" s="10" t="s">
         <v>250</v>
       </c>
@@ -5042,7 +5294,7 @@
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:6">
       <c r="A218" s="10" t="s">
         <v>250</v>
       </c>
@@ -5056,7 +5308,7 @@
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:6">
       <c r="A219" s="10" t="s">
         <v>250</v>
       </c>
@@ -5070,7 +5322,7 @@
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:6">
       <c r="A220" s="10" t="s">
         <v>250</v>
       </c>
@@ -5084,7 +5336,7 @@
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:6">
       <c r="A221" s="10" t="s">
         <v>250</v>
       </c>
@@ -5098,7 +5350,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:6">
       <c r="A222" s="10" t="s">
         <v>250</v>
       </c>
@@ -5112,7 +5364,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:6">
       <c r="A223" s="10" t="s">
         <v>250</v>
       </c>
@@ -5126,7 +5378,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:6">
       <c r="A224" s="10" t="s">
         <v>250</v>
       </c>
@@ -5140,7 +5392,7 @@
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:6">
       <c r="A225" s="10" t="s">
         <v>264</v>
       </c>
@@ -5154,7 +5406,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:6">
       <c r="A226" s="10" t="s">
         <v>264</v>
       </c>
@@ -5168,7 +5420,7 @@
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:6">
       <c r="A227" s="10" t="s">
         <v>264</v>
       </c>
@@ -5182,7 +5434,7 @@
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:6">
       <c r="A228" s="10" t="s">
         <v>264</v>
       </c>
@@ -5196,7 +5448,7 @@
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:6">
       <c r="A229" s="10" t="s">
         <v>264</v>
       </c>
@@ -5210,7 +5462,7 @@
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:6">
       <c r="A230" s="10" t="s">
         <v>264</v>
       </c>
@@ -5224,7 +5476,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:6">
       <c r="A231" s="10" t="s">
         <v>264</v>
       </c>
@@ -5238,7 +5490,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:6">
       <c r="A232" s="10" t="s">
         <v>264</v>
       </c>
@@ -5252,7 +5504,7 @@
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:6">
       <c r="A233" s="10" t="s">
         <v>264</v>
       </c>
@@ -5266,7 +5518,7 @@
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:6">
       <c r="A234" s="10" t="s">
         <v>264</v>
       </c>
@@ -5280,7 +5532,7 @@
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:6">
       <c r="A235" s="10" t="s">
         <v>264</v>
       </c>
@@ -5294,7 +5546,7 @@
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:6">
       <c r="A236" s="10" t="s">
         <v>264</v>
       </c>
@@ -5308,7 +5560,7 @@
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:6">
       <c r="A237" s="10" t="s">
         <v>264</v>
       </c>
@@ -5322,7 +5574,7 @@
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:6">
       <c r="A238" s="10" t="s">
         <v>264</v>
       </c>
@@ -5336,7 +5588,7 @@
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:6">
       <c r="A239" s="10" t="s">
         <v>264</v>
       </c>
@@ -5350,7 +5602,7 @@
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:6">
       <c r="A240" s="10" t="s">
         <v>264</v>
       </c>
@@ -5364,7 +5616,7 @@
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:6">
       <c r="A241" s="9" t="s">
         <v>272</v>
       </c>
@@ -5378,7 +5630,7 @@
       <c r="E241" s="9"/>
       <c r="F241" s="9"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:6">
       <c r="A242" s="9" t="s">
         <v>272</v>
       </c>
@@ -5392,7 +5644,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:6">
       <c r="A243" s="9" t="s">
         <v>272</v>
       </c>
@@ -5406,7 +5658,7 @@
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:6">
       <c r="A244" s="9" t="s">
         <v>272</v>
       </c>
@@ -5417,7 +5669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:6">
       <c r="A245" s="9" t="s">
         <v>272</v>
       </c>
@@ -5428,7 +5680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:6">
       <c r="A246" s="9" t="s">
         <v>272</v>
       </c>
@@ -5439,7 +5691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:6">
       <c r="A247" s="9" t="s">
         <v>272</v>
       </c>
@@ -5450,7 +5702,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:6">
       <c r="A248" s="9" t="s">
         <v>272</v>
       </c>
@@ -5461,7 +5713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:6">
       <c r="A249" s="9" t="s">
         <v>272</v>
       </c>
@@ -5472,7 +5724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:6">
       <c r="A250" s="9" t="s">
         <v>272</v>
       </c>
@@ -5483,7 +5735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:6">
       <c r="A251" s="9" t="s">
         <v>279</v>
       </c>
@@ -5494,7 +5746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:6">
       <c r="A252" s="9" t="s">
         <v>279</v>
       </c>
@@ -5505,7 +5757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:6">
       <c r="A253" s="9" t="s">
         <v>279</v>
       </c>
@@ -5516,7 +5768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:6">
       <c r="A254" s="9" t="s">
         <v>279</v>
       </c>
@@ -5527,7 +5779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:6">
       <c r="A255" s="9" t="s">
         <v>279</v>
       </c>
@@ -5538,7 +5790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:6">
       <c r="A256" s="9" t="s">
         <v>279</v>
       </c>
@@ -5549,7 +5801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3">
       <c r="A257" s="9" t="s">
         <v>279</v>
       </c>
@@ -5560,7 +5812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3">
       <c r="A258" s="9" t="s">
         <v>279</v>
       </c>
@@ -5571,7 +5823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3">
       <c r="A259" s="9" t="s">
         <v>279</v>
       </c>
@@ -5582,7 +5834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3">
       <c r="A260" s="9" t="s">
         <v>279</v>
       </c>
@@ -5593,7 +5845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3">
       <c r="A261" s="9" t="s">
         <v>279</v>
       </c>
@@ -5604,7 +5856,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3">
       <c r="A262" s="9" t="s">
         <v>279</v>
       </c>
@@ -5615,7 +5867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3">
       <c r="A263" s="9" t="s">
         <v>279</v>
       </c>
@@ -5626,7 +5878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3">
       <c r="A264" s="9" t="s">
         <v>279</v>
       </c>
@@ -5637,7 +5889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3">
       <c r="A265" s="9" t="s">
         <v>279</v>
       </c>
@@ -5648,7 +5900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3">
       <c r="A266" s="9" t="s">
         <v>279</v>
       </c>
@@ -5659,7 +5911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3">
       <c r="A267" s="9" t="s">
         <v>279</v>
       </c>
@@ -5670,7 +5922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3">
       <c r="A268" s="9" t="s">
         <v>279</v>
       </c>
@@ -5681,7 +5933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3">
       <c r="A269" s="9" t="s">
         <v>279</v>
       </c>
@@ -5692,7 +5944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3">
       <c r="A270" s="5" t="s">
         <v>293</v>
       </c>
@@ -5703,7 +5955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3">
       <c r="A271" s="5" t="s">
         <v>293</v>
       </c>
@@ -5714,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3">
       <c r="A272" s="5" t="s">
         <v>293</v>
       </c>
@@ -5725,7 +5977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
         <v>293</v>
       </c>
@@ -5736,7 +5988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
         <v>293</v>
       </c>
@@ -5747,7 +5999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
         <v>293</v>
       </c>
@@ -5758,7 +6010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3">
       <c r="A276" s="5" t="s">
         <v>293</v>
       </c>
@@ -5769,7 +6021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
         <v>293</v>
       </c>
@@ -5780,7 +6032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
         <v>293</v>
       </c>
@@ -5791,7 +6043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
         <v>293</v>
       </c>
@@ -5802,7 +6054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
         <v>293</v>
       </c>
@@ -5813,7 +6065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
         <v>293</v>
       </c>
@@ -5824,7 +6076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
         <v>293</v>
       </c>
@@ -5835,7 +6087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
         <v>293</v>
       </c>
@@ -5846,7 +6098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
         <v>293</v>
       </c>
@@ -5857,7 +6109,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
         <v>293</v>
       </c>
@@ -5868,7 +6120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
         <v>293</v>
       </c>
@@ -5879,7 +6131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
         <v>293</v>
       </c>
@@ -5890,7 +6142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
         <v>293</v>
       </c>
@@ -5901,7 +6153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3">
       <c r="A289" s="5" t="s">
         <v>294</v>
       </c>
@@ -5912,7 +6164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3">
       <c r="A290" s="5" t="s">
         <v>294</v>
       </c>
@@ -5923,7 +6175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3">
       <c r="A291" s="5" t="s">
         <v>294</v>
       </c>
@@ -5934,7 +6186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3">
       <c r="A292" s="5" t="s">
         <v>294</v>
       </c>
@@ -5946,52 +6198,48 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C288 C293:C1189" type="list">
-      <formula1>controlled_vocabulary!$A$4:$A$10003</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>controlled_vocabulary!$A$4:$A$10003</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C288 C293:C1189</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>299</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B77015C-1872-4100-892A-4CCE12D02427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD3166-6A17-4748-87BC-AB2ED0339277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="300">
   <si>
     <t>cell_type</t>
   </si>
@@ -1474,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2234,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6059,10 +6059,10 @@
         <v>293</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6070,10 +6070,10 @@
         <v>293</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6081,10 +6081,10 @@
         <v>293</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6092,10 +6092,10 @@
         <v>293</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6103,10 +6103,10 @@
         <v>293</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6114,10 +6114,10 @@
         <v>293</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6125,32 +6125,32 @@
         <v>293</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6158,10 +6158,10 @@
         <v>294</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6169,31 +6169,9 @@
         <v>294</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C292" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6210,7 +6188,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C270:C288 C293:C1189</xm:sqref>
+          <xm:sqref>C1:C192 C194 C196:C197 C199 C201:C208 C211:C216 C219 C224:C226 C228:C264 C266:C268 C291:C1187 C270:C286</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD3166-6A17-4748-87BC-AB2ED0339277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E85D3-2E91-4F8D-8098-EDB803213B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2060,6 +2060,9 @@
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2236,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/inst/extdata/cell_type_mapping.xlsx
+++ b/inst/extdata/cell_type_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1041161\immunedeconv\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E85D3-2E91-4F8D-8098-EDB803213B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F554760A-5EDA-442E-9D5F-22DACEE24C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15165" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="controlled_vocabulary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="299">
   <si>
     <t>cell_type</t>
   </si>
@@ -792,9 +792,6 @@
   </si>
   <si>
     <t>Mast_cells</t>
-  </si>
-  <si>
-    <t>MAST cell</t>
   </si>
   <si>
     <t>NK_cells</t>
@@ -1474,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -2239,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2526,7 +2523,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2540,7 +2537,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2834,7 +2831,7 @@
         <v>106</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2848,7 +2845,7 @@
         <v>107</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -5221,7 +5218,7 @@
         <v>254</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -5232,7 +5229,7 @@
         <v>250</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>24</v>
@@ -5260,7 +5257,7 @@
         <v>250</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C215" s="10" t="s">
         <v>59</v>
@@ -5274,7 +5271,7 @@
         <v>250</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C216" s="10" t="s">
         <v>60</v>
@@ -5288,7 +5285,7 @@
         <v>250</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>61</v>
@@ -5302,7 +5299,7 @@
         <v>250</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C218" s="10" t="s">
         <v>67</v>
@@ -5316,7 +5313,7 @@
         <v>250</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C219" s="10" t="s">
         <v>30</v>
@@ -5330,7 +5327,7 @@
         <v>250</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C220" s="10" t="s">
         <v>31</v>
@@ -5386,7 +5383,7 @@
         <v>250</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C224" s="10" t="s">
         <v>54</v>
@@ -5397,7 +5394,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>182</v>
@@ -5411,7 +5408,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="10" t="s">
         <v>183</v>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>162</v>
@@ -5439,10 +5436,10 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>9</v>
@@ -5453,10 +5450,10 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>8</v>
@@ -5467,10 +5464,10 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>32</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>100</v>
@@ -5495,10 +5492,10 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>41</v>
@@ -5509,13 +5506,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>108</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>109</v>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>121</v>
@@ -5565,10 +5562,10 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9" t="s">
@@ -5579,10 +5576,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9" t="s">
@@ -5593,7 +5590,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>138</v>
@@ -5607,10 +5604,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>51</v>
@@ -5621,10 +5618,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>9</v>
@@ -5635,10 +5632,10 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>59</v>
@@ -5649,10 +5646,10 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>60</v>
@@ -5663,10 +5660,10 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>38</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>108</v>
@@ -5685,7 +5682,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>149</v>
@@ -5696,18 +5693,18 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>100</v>
@@ -5718,7 +5715,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>109</v>
@@ -5729,10 +5726,10 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>24</v>
@@ -5740,7 +5737,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B251" s="10" t="s">
         <v>251</v>
@@ -5751,10 +5748,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B252" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>10</v>
@@ -5762,10 +5759,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C253" s="9" t="s">
         <v>58</v>
@@ -5773,7 +5770,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B254" s="10" t="s">
         <v>253</v>
@@ -5784,10 +5781,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>25</v>
@@ -5795,10 +5792,10 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>41</v>
@@ -5806,7 +5803,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>149</v>
@@ -5817,10 +5814,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C258" s="9" t="s">
         <v>84</v>
@@ -5828,7 +5825,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B259" s="10" t="s">
         <v>100</v>
@@ -5839,10 +5836,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>24</v>
@@ -5850,10 +5847,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>63</v>
@@ -5861,10 +5858,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>83</v>
@@ -5872,10 +5869,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>69</v>
@@ -5883,10 +5880,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>67</v>
@@ -5894,10 +5891,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>68</v>
@@ -5905,10 +5902,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>78</v>
@@ -5916,10 +5913,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>73</v>
@@ -5927,10 +5924,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>74</v>
@@ -5938,10 +5935,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C269" s="10" t="s">
         <v>61</v>
@@ -5949,7 +5946,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>251</v>
@@ -5960,10 +5957,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>10</v>
@@ -5971,10 +5968,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>58</v>
@@ -5982,7 +5979,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>253</v>
@@ -5993,10 +5990,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>25</v>
@@ -6004,10 +6001,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>41</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>149</v>
@@ -6026,10 +6023,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>84</v>
@@ -6037,7 +6034,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>100</v>
@@ -6048,10 +6045,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>24</v>
@@ -6059,10 +6056,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>83</v>
@@ -6070,10 +6067,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>69</v>
@@ -6081,10 +6078,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>68</v>
@@ -6092,10 +6089,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>78</v>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>73</v>
@@ -6114,10 +6111,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>74</v>
@@ -6125,10 +6122,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>61</v>
@@ -6136,10 +6133,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>58</v>
@@ -6147,7 +6144,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>178</v>
@@ -6158,10 +6155,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>57</v>
@@ -6169,10 +6166,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>56</v>
@@ -6211,12 +6208,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
